--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34BD31A-A3ED-431F-A36A-F577717BCD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E359FB-65A7-44C5-9B63-9A357A662B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="5" r:id="rId1"/>
     <sheet name="SIFT" sheetId="6" r:id="rId2"/>
     <sheet name="Gráfico" sheetId="8" r:id="rId3"/>
     <sheet name="ORB" sheetId="7" r:id="rId4"/>
-    <sheet name="Parametros" sheetId="4" r:id="rId5"/>
+    <sheet name="SURF" sheetId="9" r:id="rId5"/>
+    <sheet name="Parametros" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>ACC</t>
   </si>
@@ -130,6 +132,9 @@
   </si>
   <si>
     <t>Recall</t>
+  </si>
+  <si>
+    <t>SURF</t>
   </si>
 </sst>
 </file>
@@ -271,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,6 +335,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2654,18 +2671,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="I7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="I7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="Q7" s="20" t="s">
+      <c r="J7" s="22"/>
+      <c r="Q7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -3993,18 +4010,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="I7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="I7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="Q7" s="20" t="s">
+      <c r="J7" s="22"/>
+      <c r="Q7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -5350,548 +5367,548 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
     </row>
     <row r="17" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
     </row>
     <row r="18" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
     </row>
     <row r="19" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
     </row>
     <row r="20" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
     </row>
     <row r="21" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
     </row>
     <row r="22" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
     </row>
     <row r="23" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
     </row>
     <row r="24" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
     </row>
     <row r="25" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
     </row>
     <row r="26" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
     </row>
     <row r="27" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
     </row>
     <row r="28" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
     </row>
     <row r="29" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
     </row>
     <row r="30" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
     </row>
     <row r="31" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
     </row>
     <row r="32" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
     </row>
     <row r="33" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
     </row>
     <row r="34" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
     </row>
     <row r="35" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
     </row>
     <row r="36" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
     </row>
     <row r="37" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
     </row>
     <row r="38" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5906,7 +5923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC563E11-1FB9-47B5-8C85-3EF2B82BA748}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34:G34"/>
     </sheetView>
   </sheetViews>
@@ -5969,18 +5986,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="I7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="I7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="Q7" s="20" t="s">
+      <c r="J7" s="22"/>
+      <c r="Q7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -7241,195 +7258,406 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512AC84B-5E62-4D2A-9EBF-AEDDA7BBE8B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7161284-094E-4C4F-ACD8-1F2E6D16DB2F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="19">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="19">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="19">
         <v>19</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="19">
         <v>19</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="17">
         <v>15</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="19">
         <v>19</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="24" t="s">
         <v>18</v>
       </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="17">
+        <v>11</v>
+      </c>
+      <c r="C26" s="19">
+        <v>19</v>
+      </c>
+      <c r="D26" s="19">
+        <v>15</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E359FB-65A7-44C5-9B63-9A357A662B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB146D-A65D-40FA-B8E1-897F537C1AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="37">
   <si>
     <t>ACC</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>SURF</t>
+  </si>
+  <si>
+    <t>COMB</t>
+  </si>
+  <si>
+    <t>PCA 5</t>
+  </si>
+  <si>
+    <t>PCA 7</t>
+  </si>
+  <si>
+    <t>PCA 9</t>
   </si>
 </sst>
 </file>
@@ -276,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,15 +351,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,277 +391,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29861939036761503"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10337270341207348"/>
-          <c:y val="0.13467592592592595"/>
-          <c:w val="0.8966272965879265"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>(HOG!$E$34,HOG!$M$34,HOG!$U$34)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.88986769434252555</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81161990582946475</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86417333831279586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0676-4BEA-9818-CAAE275CD850}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="511502767"/>
-        <c:axId val="507318223"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="511502767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507318223"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="507318223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="511502767"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1181,550 +935,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2231,47 +1442,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114DD45D-7840-40BB-91A2-3CE67361103F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2606,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F53B51-EA83-431B-BFE4-6ED1A6830061}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,18 +1841,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="I7" s="22" t="s">
+      <c r="B7" s="25"/>
+      <c r="I7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="Q7" s="22" t="s">
+      <c r="J7" s="26"/>
+      <c r="Q7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="22"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -2762,90 +1932,90 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B10" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9">
         <f>SUM(A10+B11)/SUM(A10:B11)</f>
-        <v>0.94974874371859297</v>
+        <v>0.92452830188679247</v>
       </c>
       <c r="D10" s="9">
         <f>SUM(A11,B10)/SUM(A10:B11)</f>
-        <v>5.0251256281407038E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="E10" s="9">
         <f>A10/SUM(A10,A11)</f>
-        <v>0.91379310344827591</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="F10" s="9">
         <f>A10/SUM(A10,B10)</f>
-        <v>0.91379310344827591</v>
+        <v>0.84905660377358494</v>
       </c>
       <c r="G10" s="10">
         <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
-        <v>0.91379310344827591</v>
+        <v>0.88235294117647067</v>
       </c>
       <c r="I10" s="11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J10" s="12">
         <v>21</v>
       </c>
       <c r="K10" s="9">
         <f>SUM(I10+J11)/SUM(I10:J11)</f>
-        <v>0.83919597989949746</v>
+        <v>0.82389937106918243</v>
       </c>
       <c r="L10" s="9">
         <f>SUM(I11,J10)/SUM(I10:J11)</f>
-        <v>0.16080402010050251</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="M10" s="9">
         <f>I10/SUM(I10,I11)</f>
-        <v>0.77083333333333337</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="N10" s="9">
         <f>I10/SUM(I10,J10)</f>
-        <v>0.63793103448275867</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="O10" s="10">
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
-        <v>0.69811320754716999</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="Q10" s="11">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R10" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>0.88442211055276387</v>
+        <v>0.89308176100628933</v>
       </c>
       <c r="T10" s="9">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>0.11557788944723618</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="U10" s="9">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>0.81818181818181823</v>
+        <v>0.89130434782608692</v>
       </c>
       <c r="V10" s="9">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>0.77586206896551724</v>
+        <v>0.77358490566037741</v>
       </c>
       <c r="W10" s="10">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>0.79646017699115046</v>
+        <v>0.82828282828282829</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="12">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2853,10 +2023,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="I11" s="11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J11" s="12">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -2864,10 +2034,10 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="Q11" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -2900,90 +2070,90 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" s="9">
         <f>SUM(A13+B14)/SUM(A13:B14)</f>
-        <v>0.92964824120603018</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(A14,B13)/SUM(A13:B14)</f>
-        <v>7.0351758793969849E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="E13" s="9">
         <f>A13/SUM(A13,A14)</f>
-        <v>0.89552238805970152</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="F13" s="9">
         <f>A13/SUM(A13,B13)</f>
-        <v>0.89552238805970152</v>
+        <v>0.92</v>
       </c>
       <c r="G13" s="10">
         <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
-        <v>0.89552238805970152</v>
+        <v>0.85981308411214952</v>
       </c>
       <c r="I13" s="11">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J13" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K13" s="9">
         <f>SUM(I13+J14)/SUM(I13:J14)</f>
-        <v>0.80904522613065322</v>
+        <v>0.77358490566037741</v>
       </c>
       <c r="L13" s="9">
         <f>SUM(I14,J13)/SUM(I13:J14)</f>
-        <v>0.19095477386934673</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="M13" s="9">
         <f>I13/SUM(I13,I14)</f>
-        <v>0.78431372549019607</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N13" s="9">
         <f>I13/SUM(I13,J13)</f>
-        <v>0.59701492537313428</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O13" s="10">
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
-        <v>0.67796610169491522</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="Q13" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="R13" s="12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S13" s="9">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>0.88442211055276387</v>
+        <v>0.87421383647798745</v>
       </c>
       <c r="T13" s="9">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>0.11557788944723618</v>
+        <v>0.12578616352201258</v>
       </c>
       <c r="U13" s="9">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>0.87931034482758619</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V13" s="9">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>0.76119402985074625</v>
+        <v>0.72</v>
       </c>
       <c r="W13" s="10">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>0.81600000000000006</v>
+        <v>0.78260869565217395</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" s="12">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2991,10 +2161,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="I14" s="11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J14" s="12">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -3002,10 +2172,10 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="Q14" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R14" s="12">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -3038,90 +2208,90 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B16" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="9">
         <f>SUM(A16+B17)/SUM(A16:B17)</f>
-        <v>0.94472361809045224</v>
+        <v>0.96202531645569622</v>
       </c>
       <c r="D16" s="9">
         <f>SUM(A17,B16)/SUM(A16:B17)</f>
-        <v>5.5276381909547742E-2</v>
+        <v>3.7974683544303799E-2</v>
       </c>
       <c r="E16" s="9">
         <f>A16/SUM(A16,A17)</f>
-        <v>0.91666666666666663</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="F16" s="9">
         <f>A16/SUM(A16,B16)</f>
-        <v>0.90163934426229508</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G16" s="10">
         <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
-        <v>0.90909090909090906</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="I16" s="11">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J16" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="9">
         <f>SUM(I16+J17)/SUM(I16:J17)</f>
-        <v>0.84422110552763818</v>
+        <v>0.84810126582278478</v>
       </c>
       <c r="L16" s="9">
         <f>SUM(I17,J16)/SUM(I16:J17)</f>
-        <v>0.15577889447236182</v>
+        <v>0.15189873417721519</v>
       </c>
       <c r="M16" s="9">
         <f>I16/SUM(I16,I17)</f>
-        <v>0.7678571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="N16" s="9">
         <f>I16/SUM(I16,J16)</f>
-        <v>0.70491803278688525</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="O16" s="10">
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
-        <v>0.7350427350427351</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="Q16" s="11">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R16" s="12">
         <v>11</v>
       </c>
       <c r="S16" s="9">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>0.90954773869346739</v>
+        <v>0.88607594936708856</v>
       </c>
       <c r="T16" s="9">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>9.0452261306532666E-2</v>
+        <v>0.11392405063291139</v>
       </c>
       <c r="U16" s="9">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>0.8771929824561403</v>
+        <v>0.82926829268292679</v>
       </c>
       <c r="V16" s="9">
         <f>Q16/SUM(Q16,R16)</f>
-        <v>0.81967213114754101</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="W16" s="10">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>0.84745762711864392</v>
+        <v>0.79069767441860472</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="12">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3129,10 +2299,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="I17" s="11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J17" s="12">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -3143,7 +2313,7 @@
         <v>7</v>
       </c>
       <c r="R17" s="12">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -3202,56 +2372,56 @@
         <v>0.88709677419354838</v>
       </c>
       <c r="I19" s="11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J19" s="12">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K19" s="9">
         <f>SUM(I19+J20)/SUM(I19:J20)</f>
-        <v>0.84924623115577891</v>
+        <v>0.86708860759493667</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(I20,J19)/SUM(I19:J20)</f>
-        <v>0.15075376884422109</v>
+        <v>0.13291139240506328</v>
       </c>
       <c r="M19" s="9">
         <f>I19/SUM(I19,I20)</f>
-        <v>0.86363636363636365</v>
+        <v>0.84</v>
       </c>
       <c r="N19" s="9">
         <f>I19/SUM(I19,J19)</f>
-        <v>0.61290322580645162</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="O19" s="10">
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
-        <v>0.71698113207547165</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="Q19" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R19" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S19" s="9">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>0.90452261306532666</v>
+        <v>0.89873417721518989</v>
       </c>
       <c r="T19" s="9">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>9.5477386934673364E-2</v>
+        <v>0.10126582278481013</v>
       </c>
       <c r="U19" s="9">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>0.95744680851063835</v>
+        <v>0.89795918367346939</v>
       </c>
       <c r="V19" s="9">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>0.72580645161290325</v>
+        <v>0.8</v>
       </c>
       <c r="W19" s="10">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>0.82568807339449557</v>
+        <v>0.84615384615384626</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -3267,10 +2437,10 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="I20" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J20" s="12">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -3278,10 +2448,10 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="Q20" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R20" s="12">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -3314,90 +2484,90 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B22" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22" s="9">
         <f>SUM(A22+B23)/SUM(A22:B23)</f>
-        <v>0.914572864321608</v>
+        <v>0.94303797468354433</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(A23,B22)/SUM(A22:B23)</f>
-        <v>8.5427135678391955E-2</v>
+        <v>5.6962025316455694E-2</v>
       </c>
       <c r="E22" s="9">
         <f>A22/SUM(A22,A23)</f>
-        <v>0.88</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F22" s="9">
         <f>A22/SUM(A22,B22)</f>
-        <v>0.89189189189189189</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="G22" s="10">
         <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
-        <v>0.88590604026845632</v>
+        <v>0.89887640449438189</v>
       </c>
       <c r="I22" s="11">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J22" s="12">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K22" s="9">
         <f>SUM(I22+J23)/SUM(I22:J23)</f>
-        <v>0.81909547738693467</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="L22" s="9">
         <f>SUM(I23,J22)/SUM(I22:J23)</f>
-        <v>0.18090452261306533</v>
+        <v>0.17088607594936708</v>
       </c>
       <c r="M22" s="9">
         <f>I22/SUM(I22,I23)</f>
-        <v>0.86538461538461542</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="N22" s="9">
         <f>I22/SUM(I22,J22)</f>
-        <v>0.60810810810810811</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="O22" s="10">
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
-        <v>0.71428571428571441</v>
+        <v>0.64935064935064946</v>
       </c>
       <c r="Q22" s="11">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R22" s="12">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>0.83417085427135673</v>
+        <v>0.86708860759493667</v>
       </c>
       <c r="T22" s="9">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>0.16582914572864321</v>
+        <v>0.13291139240506328</v>
       </c>
       <c r="U22" s="9">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>0.84745762711864403</v>
+        <v>0.79487179487179482</v>
       </c>
       <c r="V22" s="9">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>0.67567567567567566</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="W22" s="10">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>0.75187969924812026</v>
+        <v>0.74698795180722899</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" s="12">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -3405,10 +2575,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="I23" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J23" s="12">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -3416,10 +2586,10 @@
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="Q23" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23" s="12">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -3452,82 +2622,82 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25" s="12">
         <v>7</v>
       </c>
       <c r="C25" s="9">
         <f>SUM(A25+B26)/SUM(A25:B26)</f>
-        <v>0.94088669950738912</v>
+        <v>0.92405063291139244</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(A26,B25)/SUM(A25:B26)</f>
-        <v>5.9113300492610835E-2</v>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="E25" s="9">
         <f>A25/SUM(A25,A26)</f>
-        <v>0.91666666666666663</v>
+        <v>0.91228070175438591</v>
       </c>
       <c r="F25" s="9">
         <f>A25/SUM(A25,B25)</f>
-        <v>0.88709677419354838</v>
+        <v>0.88135593220338981</v>
       </c>
       <c r="G25" s="10">
         <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
-        <v>0.90163934426229508</v>
+        <v>0.89655172413793094</v>
       </c>
       <c r="I25" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="9">
         <f>SUM(I25+J26)/SUM(I25:J26)</f>
-        <v>0.8232323232323232</v>
+        <v>0.81645569620253167</v>
       </c>
       <c r="L25" s="9">
         <f>SUM(I26,J25)/SUM(I25:J26)</f>
-        <v>0.17676767676767677</v>
+        <v>0.18354430379746836</v>
       </c>
       <c r="M25" s="9">
         <f>I25/SUM(I25,I26)</f>
-        <v>0.75</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="N25" s="9">
         <f>I25/SUM(I25,J25)</f>
-        <v>0.57894736842105265</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="O25" s="10">
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
-        <v>0.65346534653465349</v>
+        <v>0.70103092783505172</v>
       </c>
       <c r="Q25" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R25" s="12">
         <v>20</v>
       </c>
       <c r="S25" s="9">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>0.8737373737373737</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="T25" s="9">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>0.12626262626262627</v>
+        <v>0.16455696202531644</v>
       </c>
       <c r="U25" s="9">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>0.88095238095238093</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V25" s="9">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>0.64912280701754388</v>
+        <v>0.66101694915254239</v>
       </c>
       <c r="W25" s="10">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>0.74747474747474751</v>
+        <v>0.75000000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -3535,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="12">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -3543,10 +2713,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="I26" s="11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J26" s="12">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -3554,10 +2724,10 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="Q26" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R26" s="12">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -3590,90 +2760,90 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B28" s="12">
         <v>1</v>
       </c>
       <c r="C28" s="9">
         <f>SUM(A28+B29)/SUM(A28:B29)</f>
-        <v>0.92893401015228427</v>
+        <v>0.98734177215189878</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
-        <v>7.1065989847715741E-2</v>
+        <v>1.2658227848101266E-2</v>
       </c>
       <c r="E28" s="9">
         <f>A28/SUM(A28,A29)</f>
-        <v>0.80597014925373134</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="F28" s="9">
         <f>A28/SUM(A28,B28)</f>
-        <v>0.98181818181818181</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="G28" s="10">
         <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
-        <v>0.88524590163934425</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="I28" s="11">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K28" s="9">
         <f>SUM(I28+J29)/SUM(I28:J29)</f>
-        <v>0.87309644670050757</v>
+        <v>0.875</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
-        <v>0.12690355329949238</v>
+        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <v>0.125</v>
       </c>
       <c r="M28" s="9">
         <f>I28/SUM(I28,I29)</f>
-        <v>0.7678571428571429</v>
+        <v>0.88636363636363635</v>
       </c>
       <c r="N28" s="9">
         <f>I28/SUM(I28,J28)</f>
-        <v>0.78181818181818186</v>
+        <v>0.70909090909090911</v>
       </c>
       <c r="O28" s="10">
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
-        <v>0.77477477477477474</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="Q28" s="11">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="R28" s="12">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S28" s="9">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>0.8883248730964467</v>
+        <v>0.88819875776397517</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>0.1116751269035533</v>
+        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>0.11180124223602485</v>
       </c>
       <c r="U28" s="9">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>0.77049180327868849</v>
+        <v>0.96875</v>
       </c>
       <c r="V28" s="9">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>0.8545454545454545</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="W28" s="10">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>0.81034482758620696</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B29" s="12">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3681,10 +2851,10 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="I29" s="11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J29" s="12">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -3692,10 +2862,10 @@
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
       <c r="Q29" s="11">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R29" s="12">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -3728,90 +2898,90 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B31" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="9">
         <f>SUM(A31+B32)/SUM(A31:B32)</f>
-        <v>0.94444444444444442</v>
+        <v>0.92405063291139244</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="E31" s="9">
         <f>A31/SUM(A31,A32)</f>
-        <v>0.90322580645161288</v>
+        <v>0.83673469387755106</v>
       </c>
       <c r="F31" s="9">
         <f>A31/SUM(A31,B31)</f>
-        <v>0.91803278688524592</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="G31" s="10">
         <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
-        <v>0.91056910569105687</v>
+        <v>0.87234042553191482</v>
       </c>
       <c r="I31" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J31" s="12">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K31" s="9">
         <f>SUM(I31+J32)/SUM(I31:J32)</f>
-        <v>0.85858585858585856</v>
+        <v>0.87341772151898733</v>
       </c>
       <c r="L31" s="9">
-        <f>SUM(I32,J31)/SUM(I31:J32)</f>
-        <v>0.14141414141414141</v>
+        <f t="shared" ref="L31:L34" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
+        <v>0.12658227848101267</v>
       </c>
       <c r="M31" s="9">
         <f>I31/SUM(I31,I32)</f>
-        <v>0.92307692307692313</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="N31" s="9">
         <f>I31/SUM(I31,J31)</f>
-        <v>0.5901639344262295</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="O31" s="10">
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
-        <v>0.72000000000000008</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q31" s="11">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="R31" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S31" s="9">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>0.88888888888888884</v>
+        <v>0.879746835443038</v>
       </c>
       <c r="T31" s="9">
-        <f>SUM(Q32,R31)/SUM(Q31:R32)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="T31:T34" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
+        <v>0.12025316455696203</v>
       </c>
       <c r="U31" s="9">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>0.88235294117647056</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="V31" s="9">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>0.73770491803278693</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="W31" s="10">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>0.80357142857142849</v>
+        <v>0.7816091954022989</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" s="12">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3819,10 +2989,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="I32" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J32" s="12">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -3830,10 +3000,10 @@
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
       <c r="Q32" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R32" s="12">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -3865,71 +3035,315 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
-        <f>SUM(C10:C31)/8</f>
-        <v>0.93532585783085387</v>
-      </c>
-      <c r="D34" s="15">
-        <f>SUM(D10:D31)/8</f>
-        <v>6.4674142169146062E-2</v>
-      </c>
-      <c r="E34" s="15">
-        <f>SUM(E10:E31)/8</f>
-        <v>0.88986769434252555</v>
-      </c>
-      <c r="F34" s="15">
-        <f>SUM(F10:F31)/8</f>
-        <v>0.90961140559408604</v>
-      </c>
-      <c r="G34" s="16">
-        <f>SUM(G10:G31)/8</f>
-        <v>0.89860794583169834</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15">
-        <f>SUM(K10:K31)/8</f>
-        <v>0.83946483107739889</v>
-      </c>
-      <c r="L34" s="15">
-        <f>SUM(L10:L31)/8</f>
-        <v>0.160535168922601</v>
-      </c>
-      <c r="M34" s="15">
-        <f>SUM(M10:M31)/8</f>
-        <v>0.81161990582946475</v>
-      </c>
-      <c r="N34" s="15">
-        <f>SUM(N10:N31)/8</f>
-        <v>0.63897560140285015</v>
-      </c>
-      <c r="O34" s="16">
-        <f>SUM(O10:O31)/8</f>
-        <v>0.71132862649442929</v>
-      </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="15">
-        <f>SUM(S10:S31)/8</f>
-        <v>0.88350457035729857</v>
-      </c>
-      <c r="T34" s="15">
-        <f>SUM(T10:T31)/8</f>
-        <v>0.11649542964270154</v>
-      </c>
-      <c r="U34" s="15">
-        <f>SUM(U10:U31)/8</f>
-        <v>0.86417333831279586</v>
-      </c>
-      <c r="V34" s="15">
-        <f>SUM(V10:V31)/8</f>
-        <v>0.749947942106021</v>
-      </c>
-      <c r="W34" s="16">
-        <f>SUM(W10:W31)/8</f>
-        <v>0.79985957254809925</v>
+      <c r="A34" s="11">
+        <v>48</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUM(A34+B35)/SUM(A34:B35)</f>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34:D35" si="5">SUM(A35,B34)/SUM(A34:B35)</f>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="E34" s="9">
+        <f>A34/SUM(A34,A35)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F34" s="9">
+        <f>A34/SUM(A34,B34)</f>
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="G34" s="10">
+        <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
+        <v>0.96</v>
+      </c>
+      <c r="I34" s="11">
+        <v>30</v>
+      </c>
+      <c r="J34" s="12">
+        <v>19</v>
+      </c>
+      <c r="K34" s="9">
+        <f>SUM(I34+J35)/SUM(I34:J35)</f>
+        <v>0.86075949367088611</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" ref="L34:L35" si="6">SUM(I35,J34)/SUM(I34:J35)</f>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="M34" s="9">
+        <f>I34/SUM(I34,I35)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="N34" s="9">
+        <f>I34/SUM(I34,J34)</f>
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="O34" s="10">
+        <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
+        <v>0.73170731707317083</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>37</v>
+      </c>
+      <c r="R34" s="12">
+        <v>12</v>
+      </c>
+      <c r="S34" s="9">
+        <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
+        <v>0.91139240506329111</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" ref="T34:T35" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
+        <v>8.8607594936708861E-2</v>
+      </c>
+      <c r="U34" s="9">
+        <f>Q34/SUM(Q34,Q35)</f>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="V34" s="9">
+        <f>Q34/SUM(Q34,R34)</f>
+        <v>0.75510204081632648</v>
+      </c>
+      <c r="W34" s="10">
+        <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
+        <v>0.84090909090909083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>3</v>
+      </c>
+      <c r="B35" s="12">
+        <v>106</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="I35" s="11">
+        <v>3</v>
+      </c>
+      <c r="J35" s="12">
+        <v>106</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="Q35" s="11">
+        <v>2</v>
+      </c>
+      <c r="R35" s="12">
+        <v>107</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G36" s="28"/>
+      <c r="I36" s="30"/>
+      <c r="O36" s="28"/>
+      <c r="Q36" s="30"/>
+      <c r="W36" s="28"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>41</v>
+      </c>
+      <c r="B37" s="12">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9">
+        <f>SUM(A37+B38)/SUM(A37:B38)</f>
+        <v>0.89240506329113922</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" ref="D37:D38" si="8">SUM(A38,B37)/SUM(A37:B38)</f>
+        <v>0.10759493670886076</v>
+      </c>
+      <c r="E37" s="9">
+        <f>A37/SUM(A37,A38)</f>
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="F37" s="9">
+        <f>A37/SUM(A37,B37)</f>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="G37" s="10">
+        <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
+        <v>0.82828282828282829</v>
+      </c>
+      <c r="I37" s="11">
+        <v>29</v>
+      </c>
+      <c r="J37" s="12">
+        <v>19</v>
+      </c>
+      <c r="K37" s="9">
+        <f>SUM(I37+J38)/SUM(I37:J38)</f>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37:L38" si="9">SUM(I38,J37)/SUM(I37:J38)</f>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="M37" s="9">
+        <f>I37/SUM(I37,I38)</f>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="N37" s="9">
+        <f>I37/SUM(I37,J37)</f>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O37" s="10">
+        <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>35</v>
+      </c>
+      <c r="R37" s="12">
+        <v>13</v>
+      </c>
+      <c r="S37" s="9">
+        <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" ref="T37:T38" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="U37" s="9">
+        <f>Q37/SUM(Q37,Q38)</f>
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="V37" s="9">
+        <f>Q37/SUM(Q37,R37)</f>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="W37" s="10">
+        <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>10</v>
+      </c>
+      <c r="B38" s="12">
+        <v>100</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="11">
+        <v>7</v>
+      </c>
+      <c r="J38" s="12">
+        <v>103</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="Q38" s="11">
+        <v>8</v>
+      </c>
+      <c r="R38" s="12">
+        <v>102</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G39" s="28"/>
+      <c r="I39" s="30"/>
+      <c r="O39" s="28"/>
+      <c r="Q39" s="30"/>
+      <c r="W39" s="28"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="15">
+        <f>SUM(C10:C37)/10</f>
+        <v>0.93674318571601733</v>
+      </c>
+      <c r="D40" s="15">
+        <f>SUM(D10:D37)/10</f>
+        <v>6.325681428398261E-2</v>
+      </c>
+      <c r="E40" s="15">
+        <f>SUM(E10:E37)/10</f>
+        <v>0.89065950998395971</v>
+      </c>
+      <c r="F40" s="15">
+        <f>SUM(F10:F37)/10</f>
+        <v>0.91025809448850148</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G10:G37)/10</f>
+        <v>0.89964252930403377</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="15">
+        <f>SUM(K10:K37)/10</f>
+        <v>0.84028640235650032</v>
+      </c>
+      <c r="L40" s="15">
+        <f>SUM(L10:L37)/10</f>
+        <v>0.15971359764349974</v>
+      </c>
+      <c r="M40" s="15">
+        <f>SUM(M10:M37)/10</f>
+        <v>0.82010150083834288</v>
+      </c>
+      <c r="N40" s="15">
+        <f>SUM(N10:N37)/10</f>
+        <v>0.63306987602146136</v>
+      </c>
+      <c r="O40" s="16">
+        <f>SUM(O10:O37)/10</f>
+        <v>0.71266964606055683</v>
+      </c>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="15">
+        <f>SUM(S10:S37)/10</f>
+        <v>0.88010639755014175</v>
+      </c>
+      <c r="T40" s="15">
+        <f>SUM(T10:T37)/10</f>
+        <v>0.11989360244985836</v>
+      </c>
+      <c r="U40" s="15">
+        <f>SUM(U10:U37)/10</f>
+        <v>0.86781583894776537</v>
+      </c>
+      <c r="V40" s="15">
+        <f>SUM(V10:V37)/10</f>
+        <v>0.73003604612858108</v>
+      </c>
+      <c r="W40" s="16">
+        <f>SUM(W10:W37)/10</f>
+        <v>0.79114800518568418</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +3353,6 @@
     <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4010,18 +3423,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="I7" s="22" t="s">
+      <c r="B7" s="25"/>
+      <c r="I7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="Q7" s="22" t="s">
+      <c r="J7" s="26"/>
+      <c r="Q7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="22"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -5367,548 +4780,548 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
     </row>
     <row r="17" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
     </row>
     <row r="18" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
     </row>
     <row r="20" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
     </row>
     <row r="21" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
     </row>
     <row r="22" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
     </row>
     <row r="24" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
     </row>
     <row r="25" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
     </row>
     <row r="26" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
     </row>
     <row r="27" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
     </row>
     <row r="28" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
     </row>
     <row r="29" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
     </row>
     <row r="30" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
     </row>
     <row r="31" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
     </row>
     <row r="32" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
     </row>
     <row r="33" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
     </row>
     <row r="34" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
     </row>
     <row r="35" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
     </row>
     <row r="36" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
     </row>
     <row r="37" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
     </row>
     <row r="38" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5986,18 +5399,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="I7" s="22" t="s">
+      <c r="B7" s="25"/>
+      <c r="I7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="Q7" s="22" t="s">
+      <c r="J7" s="26"/>
+      <c r="Q7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="22"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -7271,10 +6684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7161284-094E-4C4F-ACD8-1F2E6D16DB2F}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7459,7 +6872,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -7467,7 +6880,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -7483,7 +6896,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
@@ -7499,7 +6912,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>10</v>
       </c>
@@ -7515,7 +6928,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>11</v>
       </c>
@@ -7525,13 +6938,13 @@
       <c r="C21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -7539,7 +6952,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -7547,7 +6960,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -7555,7 +6968,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -7571,7 +6984,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>9</v>
       </c>
@@ -7587,7 +7000,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>10</v>
       </c>
@@ -7603,7 +7016,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>11</v>
       </c>
@@ -7619,7 +7032,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -7627,7 +7040,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -7635,29 +7048,105 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="17">
+        <v>13</v>
+      </c>
+      <c r="C33" s="21">
+        <v>19</v>
+      </c>
+      <c r="D33" s="21">
+        <v>19</v>
+      </c>
+      <c r="E33" s="21">
+        <v>15</v>
+      </c>
+      <c r="F33" s="21">
+        <v>19</v>
+      </c>
+      <c r="G33" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB146D-A65D-40FA-B8E1-897F537C1AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0699A1A4-B223-42CA-ABE8-06237646FD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="5" r:id="rId1"/>
@@ -360,6 +360,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,10 +373,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F53B51-EA83-431B-BFE4-6ED1A6830061}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,18 +1841,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="I7" s="26" t="s">
+      <c r="B7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="Q7" s="26" t="s">
+      <c r="J7" s="30"/>
+      <c r="Q7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="26"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -2796,7 +2796,7 @@
         <v>0.875</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
         <v>0.125</v>
       </c>
       <c r="M28" s="9">
@@ -2822,7 +2822,7 @@
         <v>0.88819875776397517</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
         <v>0.11180124223602485</v>
       </c>
       <c r="U28" s="9">
@@ -2934,7 +2934,7 @@
         <v>0.87341772151898733</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" ref="L31:L34" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
+        <f t="shared" ref="L31" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
         <v>0.12658227848101267</v>
       </c>
       <c r="M31" s="9">
@@ -2960,7 +2960,7 @@
         <v>0.879746835443038</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31:T34" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
+        <f t="shared" ref="T31" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
         <v>0.12025316455696203</v>
       </c>
       <c r="U31" s="9">
@@ -3046,7 +3046,7 @@
         <v>0.97468354430379744</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ref="D34:D35" si="5">SUM(A35,B34)/SUM(A34:B35)</f>
+        <f t="shared" ref="D34" si="5">SUM(A35,B34)/SUM(A34:B35)</f>
         <v>2.5316455696202531E-2</v>
       </c>
       <c r="E34" s="9">
@@ -3072,7 +3072,7 @@
         <v>0.86075949367088611</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" ref="L34:L35" si="6">SUM(I35,J34)/SUM(I34:J35)</f>
+        <f t="shared" ref="L34" si="6">SUM(I35,J34)/SUM(I34:J35)</f>
         <v>0.13924050632911392</v>
       </c>
       <c r="M34" s="9">
@@ -3098,7 +3098,7 @@
         <v>0.91139240506329111</v>
       </c>
       <c r="T34" s="9">
-        <f t="shared" ref="T34:T35" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
+        <f t="shared" ref="T34" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
         <v>8.8607594936708861E-2</v>
       </c>
       <c r="U34" s="9">
@@ -3150,11 +3150,11 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G36" s="28"/>
-      <c r="I36" s="30"/>
-      <c r="O36" s="28"/>
-      <c r="Q36" s="30"/>
-      <c r="W36" s="28"/>
+      <c r="G36" s="25"/>
+      <c r="I36" s="27"/>
+      <c r="O36" s="25"/>
+      <c r="Q36" s="27"/>
+      <c r="W36" s="25"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -3168,7 +3168,7 @@
         <v>0.89240506329113922</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" ref="D37:D38" si="8">SUM(A38,B37)/SUM(A37:B38)</f>
+        <f t="shared" ref="D37" si="8">SUM(A38,B37)/SUM(A37:B38)</f>
         <v>0.10759493670886076</v>
       </c>
       <c r="E37" s="9">
@@ -3194,7 +3194,7 @@
         <v>0.83544303797468356</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" ref="L37:L38" si="9">SUM(I38,J37)/SUM(I37:J38)</f>
+        <f t="shared" ref="L37" si="9">SUM(I38,J37)/SUM(I37:J38)</f>
         <v>0.16455696202531644</v>
       </c>
       <c r="M37" s="9">
@@ -3220,7 +3220,7 @@
         <v>0.86708860759493667</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" ref="T37:T38" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
+        <f t="shared" ref="T37" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
         <v>0.13291139240506328</v>
       </c>
       <c r="U37" s="9">
@@ -3272,15 +3272,15 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G39" s="28"/>
-      <c r="I39" s="30"/>
-      <c r="O39" s="28"/>
-      <c r="Q39" s="30"/>
-      <c r="W39" s="28"/>
+      <c r="G39" s="25"/>
+      <c r="I39" s="27"/>
+      <c r="O39" s="25"/>
+      <c r="Q39" s="27"/>
+      <c r="W39" s="25"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="15">
         <f>SUM(C10:C37)/10</f>
         <v>0.93674318571601733</v>
@@ -3301,8 +3301,8 @@
         <f>SUM(G10:G37)/10</f>
         <v>0.89964252930403377</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="29"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="26"/>
       <c r="K40" s="15">
         <f>SUM(K10:K37)/10</f>
         <v>0.84028640235650032</v>
@@ -3323,8 +3323,8 @@
         <f>SUM(O10:O37)/10</f>
         <v>0.71266964606055683</v>
       </c>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="29"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="26"/>
       <c r="S40" s="15">
         <f>SUM(S10:S37)/10</f>
         <v>0.88010639755014175</v>
@@ -3423,18 +3423,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="I7" s="26" t="s">
+      <c r="B7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="Q7" s="26" t="s">
+      <c r="J7" s="30"/>
+      <c r="Q7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="26"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -4780,548 +4780,548 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
     </row>
     <row r="17" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
     </row>
     <row r="18" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
     </row>
     <row r="19" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
     </row>
     <row r="20" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
     </row>
     <row r="21" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
     </row>
     <row r="22" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
     </row>
     <row r="23" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
     </row>
     <row r="24" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
     </row>
     <row r="25" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
     </row>
     <row r="26" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
     </row>
     <row r="27" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
     </row>
     <row r="28" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
     </row>
     <row r="29" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
     </row>
     <row r="30" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
     </row>
     <row r="31" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
     </row>
     <row r="32" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
     </row>
     <row r="33" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
     </row>
     <row r="34" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
     </row>
     <row r="35" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
     </row>
     <row r="36" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
     </row>
     <row r="37" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
     </row>
     <row r="38" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5334,10 +5334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC563E11-1FB9-47B5-8C85-3EF2B82BA748}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5399,18 +5399,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="I7" s="26" t="s">
+      <c r="B7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="Q7" s="26" t="s">
+      <c r="J7" s="30"/>
+      <c r="Q7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="26"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -5490,90 +5490,90 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9">
         <f>SUM(A10+B11)/SUM(A10:B11)</f>
-        <v>0.76262626262626265</v>
+        <v>0.72327044025157228</v>
       </c>
       <c r="D10" s="9">
         <f>SUM(A11,B10)/SUM(A10:B11)</f>
-        <v>0.23737373737373738</v>
+        <v>0.27672955974842767</v>
       </c>
       <c r="E10" s="9">
         <f>A10/SUM(A10,A11)</f>
-        <v>0.70833333333333337</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="F10" s="9">
         <f>A10/SUM(A10,B10)</f>
-        <v>0.2982456140350877</v>
+        <v>0.26415094339622641</v>
       </c>
       <c r="G10" s="10">
         <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
-        <v>0.41975308641975312</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="I10" s="11">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J10" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K10" s="9">
         <f>SUM(I10+J11)/SUM(I10:J11)</f>
-        <v>0.77777777777777779</v>
+        <v>0.70440251572327039</v>
       </c>
       <c r="L10" s="9">
         <f>SUM(I11,J10)/SUM(I10:J11)</f>
-        <v>0.22222222222222221</v>
+        <v>0.29559748427672955</v>
       </c>
       <c r="M10" s="9">
         <f>I10/SUM(I10,I11)</f>
-        <v>0.61016949152542377</v>
+        <v>0.5625</v>
       </c>
       <c r="N10" s="9">
         <f>I10/SUM(I10,J10)</f>
-        <v>0.63157894736842102</v>
+        <v>0.50943396226415094</v>
       </c>
       <c r="O10" s="10">
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
-        <v>0.62068965517241381</v>
+        <v>0.53465346534653457</v>
       </c>
       <c r="Q10" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R10" s="12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>0.81313131313131315</v>
+        <v>0.92452830188679247</v>
       </c>
       <c r="T10" s="9">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>0.18686868686868688</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="U10" s="9">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>0.66666666666666663</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="V10" s="9">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>0.70175438596491224</v>
+        <v>0.84905660377358494</v>
       </c>
       <c r="W10" s="10">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>0.68376068376068377</v>
+        <v>0.88235294117647067</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="12">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -5581,10 +5581,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="I11" s="11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="12">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -5592,10 +5592,10 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="Q11" s="11">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="R11" s="12">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -5628,90 +5628,90 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" s="12">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" ref="C13:C31" si="0">SUM(A13+B14)/SUM(A13:B14)</f>
-        <v>0.73604060913705582</v>
+        <f>SUM(A13+B14)/SUM(A13:B14)</f>
+        <v>0.73584905660377353</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ref="D13:D31" si="1">SUM(A14,B13)/SUM(A13:B14)</f>
-        <v>0.26395939086294418</v>
+        <f>SUM(A14,B13)/SUM(A13:B14)</f>
+        <v>0.26415094339622641</v>
       </c>
       <c r="E13" s="9">
         <f>A13/SUM(A13,A14)</f>
-        <v>0.85</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" ref="F13:F31" si="2">A13/SUM(A13,B13)</f>
-        <v>0.25757575757575757</v>
+        <f>A13/SUM(A13,B13)</f>
+        <v>0.26</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" ref="G13:G31" si="3" xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
-        <v>0.39534883720930236</v>
+        <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
+        <v>0.38235294117647062</v>
       </c>
       <c r="I13" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J13" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K13" s="9">
         <f>SUM(I13+J14)/SUM(I13:J14)</f>
-        <v>0.75634517766497467</v>
+        <v>0.76100628930817615</v>
       </c>
       <c r="L13" s="9">
         <f>SUM(I14,J13)/SUM(I13:J14)</f>
-        <v>0.24365482233502539</v>
+        <v>0.2389937106918239</v>
       </c>
       <c r="M13" s="9">
         <f>I13/SUM(I13,I14)</f>
-        <v>0.64516129032258063</v>
+        <v>0.625</v>
       </c>
       <c r="N13" s="9">
         <f>I13/SUM(I13,J13)</f>
-        <v>0.60606060606060608</v>
+        <v>0.6</v>
       </c>
       <c r="O13" s="10">
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
-        <v>0.625</v>
+        <v>0.61224489795918358</v>
       </c>
       <c r="Q13" s="11">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R13" s="12">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="S13" s="9">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>0.74111675126903553</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="T13" s="9">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>0.25888324873096447</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="U13" s="9">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>0.62295081967213117</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="V13" s="9">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>0.5757575757575758</v>
+        <v>0.92</v>
       </c>
       <c r="W13" s="10">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>0.59842519685039375</v>
+        <v>0.85981308411214952</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="12">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -5719,10 +5719,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="I14" s="11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J14" s="12">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -5730,10 +5730,10 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="Q14" s="11">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="R14" s="12">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -5766,90 +5766,90 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="12">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.7386934673366834</v>
+        <f>SUM(A16+B17)/SUM(A16:B17)</f>
+        <v>0.759493670886076</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="1"/>
-        <v>0.2613065326633166</v>
+        <f>SUM(A17,B16)/SUM(A16:B17)</f>
+        <v>0.24050632911392406</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" ref="E16:E31" si="4">A16/SUM(A16,A17)</f>
-        <v>0.7142857142857143</v>
+        <f>A16/SUM(A16,A17)</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="2"/>
-        <v>0.24590163934426229</v>
+        <f>A16/SUM(A16,B16)</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="3"/>
-        <v>0.36585365853658536</v>
+        <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
+        <v>0.34482758620689657</v>
       </c>
       <c r="I16" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J16" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K16" s="9">
         <f>SUM(I16+J17)/SUM(I16:J17)</f>
-        <v>0.75376884422110557</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="L16" s="9">
         <f>SUM(I17,J16)/SUM(I16:J17)</f>
-        <v>0.24623115577889448</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="M16" s="9">
         <f>I16/SUM(I16,I17)</f>
-        <v>0.63636363636363635</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="N16" s="9">
         <f>I16/SUM(I16,J16)</f>
-        <v>0.45901639344262296</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="O16" s="10">
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
-        <v>0.53333333333333333</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="Q16" s="11">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R16" s="12">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="S16" s="9">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>0.74371859296482412</v>
+        <v>0.96202531645569622</v>
       </c>
       <c r="T16" s="9">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>0.25628140703517588</v>
+        <v>3.7974683544303799E-2</v>
       </c>
       <c r="U16" s="9">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>0.6</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="V16" s="9">
         <f>Q16/SUM(Q16,R16)</f>
-        <v>0.49180327868852458</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="W16" s="10">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>0.54054054054054057</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" s="12">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -5857,10 +5857,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="I17" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="12">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -5868,10 +5868,10 @@
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="Q17" s="11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="R17" s="12">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -5904,90 +5904,90 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B19" s="12">
         <v>46</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75879396984924619</v>
+        <f>SUM(A19+B20)/SUM(A19:B20)</f>
+        <v>0.689873417721519</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="1"/>
-        <v>0.24120603015075376</v>
+        <f>SUM(A20,B19)/SUM(A19:B20)</f>
+        <v>0.310126582278481</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="4"/>
-        <v>0.88888888888888884</v>
+        <f>A19/SUM(A19,A20)</f>
+        <v>0.75</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="2"/>
-        <v>0.25806451612903225</v>
+        <f>A19/SUM(A19,B19)</f>
+        <v>0.16363636363636364</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="3"/>
-        <v>0.39999999999999997</v>
+        <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
+        <v>0.26865671641791045</v>
       </c>
       <c r="I19" s="11">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J19" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K19" s="9">
         <f>SUM(I19+J20)/SUM(I19:J20)</f>
-        <v>0.77889447236180909</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(I20,J19)/SUM(I19:J20)</f>
-        <v>0.22110552763819097</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="M19" s="9">
         <f>I19/SUM(I19,I20)</f>
-        <v>0.67307692307692313</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="N19" s="9">
         <f>I19/SUM(I19,J19)</f>
-        <v>0.56451612903225812</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="O19" s="10">
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
-        <v>0.61403508771929827</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="Q19" s="11">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="R19" s="12">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="S19" s="9">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>0.79396984924623115</v>
+        <v>0.92964824120603018</v>
       </c>
       <c r="T19" s="9">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>0.20603015075376885</v>
+        <v>7.0351758793969849E-2</v>
       </c>
       <c r="U19" s="9">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>0.69811320754716977</v>
+        <v>0.88709677419354838</v>
       </c>
       <c r="V19" s="9">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>0.59677419354838712</v>
+        <v>0.88709677419354838</v>
       </c>
       <c r="W19" s="10">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>0.64347826086956528</v>
+        <v>0.88709677419354838</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="12">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5995,10 +5995,10 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="I20" s="11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J20" s="12">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -6006,10 +6006,10 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="Q20" s="11">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="R20" s="12">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -6042,90 +6042,90 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
+        <v>10</v>
+      </c>
+      <c r="B22" s="12">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9">
+        <f>SUM(A22+B23)/SUM(A22:B23)</f>
+        <v>0.77215189873417722</v>
+      </c>
+      <c r="D22" s="9">
+        <f>SUM(A23,B22)/SUM(A22:B23)</f>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="E22" s="9">
+        <f>A22/SUM(A22,A23)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F22" s="9">
+        <f>A22/SUM(A22,B22)</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="G22" s="10">
+        <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I22" s="11">
+        <v>25</v>
+      </c>
+      <c r="J22" s="12">
         <v>19</v>
-      </c>
-      <c r="B22" s="12">
-        <v>55</v>
-      </c>
-      <c r="C22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.69696969696969702</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" si="1"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="4"/>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="2"/>
-        <v>0.25675675675675674</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" si="3"/>
-        <v>0.38775510204081631</v>
-      </c>
-      <c r="I22" s="11">
-        <v>42</v>
-      </c>
-      <c r="J22" s="12">
-        <v>32</v>
       </c>
       <c r="K22" s="9">
         <f>SUM(I22+J23)/SUM(I22:J23)</f>
-        <v>0.73737373737373735</v>
+        <v>0.75</v>
       </c>
       <c r="L22" s="9">
         <f>SUM(I23,J22)/SUM(I22:J23)</f>
-        <v>0.26262626262626265</v>
+        <v>0.25</v>
       </c>
       <c r="M22" s="9">
         <f>I22/SUM(I22,I23)</f>
-        <v>0.67741935483870963</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="N22" s="9">
         <f>I22/SUM(I22,J22)</f>
-        <v>0.56756756756756754</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="O22" s="10">
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
-        <v>0.61764705882352944</v>
+        <v>0.57471264367816088</v>
       </c>
       <c r="Q22" s="11">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="R22" s="12">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>0.75757575757575757</v>
+        <v>0.94303797468354433</v>
       </c>
       <c r="T22" s="9">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>0.24242424242424243</v>
+        <v>5.6962025316455694E-2</v>
       </c>
       <c r="U22" s="9">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>0.69117647058823528</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="V22" s="9">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>0.63513513513513509</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="W22" s="10">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>0.66197183098591539</v>
+        <v>0.89887640449438189</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="12">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -6133,10 +6133,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="I23" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J23" s="12">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -6144,10 +6144,10 @@
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="Q23" s="11">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="R23" s="12">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -6180,90 +6180,90 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B25" s="12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.75757575757575757</v>
+        <f>SUM(A25+B26)/SUM(A25:B26)</f>
+        <v>0.72784810126582278</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="1"/>
-        <v>0.24242424242424243</v>
+        <f>SUM(A26,B25)/SUM(A25:B26)</f>
+        <v>0.27215189873417722</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="4"/>
-        <v>0.73684210526315785</v>
+        <f>A25/SUM(A25,A26)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="2"/>
-        <v>0.24561403508771928</v>
+        <f>A25/SUM(A25,B25)</f>
+        <v>0.33898305084745761</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="3"/>
-        <v>0.36842105263157893</v>
+        <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
+        <v>0.48192771084337344</v>
       </c>
       <c r="I25" s="11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J25" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K25" s="9">
         <f>SUM(I25+J26)/SUM(I25:J26)</f>
-        <v>0.74242424242424243</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="L25" s="9">
         <f>SUM(I26,J25)/SUM(I25:J26)</f>
-        <v>0.25757575757575757</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="M25" s="9">
         <f>I25/SUM(I25,I26)</f>
-        <v>0.55555555555555558</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="N25" s="9">
         <f>I25/SUM(I25,J25)</f>
-        <v>0.52631578947368418</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="O25" s="10">
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
-        <v>0.54054054054054046</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="Q25" s="11">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="R25" s="12">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="S25" s="9">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>0.73737373737373735</v>
+        <v>0.92405063291139244</v>
       </c>
       <c r="T25" s="9">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>0.26262626262626265</v>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="U25" s="9">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>0.54385964912280704</v>
+        <v>0.91228070175438591</v>
       </c>
       <c r="V25" s="9">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>0.54385964912280704</v>
+        <v>0.88135593220338981</v>
       </c>
       <c r="W25" s="10">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>0.54385964912280704</v>
+        <v>0.89655172413793094</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="12">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -6271,10 +6271,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="I26" s="11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J26" s="12">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -6282,10 +6282,10 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="Q26" s="11">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="R26" s="12">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -6318,90 +6318,90 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B28" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" si="0"/>
-        <v>0.76804123711340211</v>
+        <f>SUM(A28+B29)/SUM(A28:B29)</f>
+        <v>0.76582278481012656</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="1"/>
-        <v>0.23195876288659795</v>
+        <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
+        <v>0.23417721518987342</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" si="4"/>
-        <v>0.70833333333333337</v>
+        <f>A28/SUM(A28,A29)</f>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="2"/>
-        <v>0.30909090909090908</v>
+        <f>A28/SUM(A28,B28)</f>
+        <v>0.24444444444444444</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="3"/>
-        <v>0.43037974683544294</v>
+        <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
+        <v>0.3728813559322034</v>
       </c>
       <c r="I28" s="11">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J28" s="12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K28" s="9">
         <f>SUM(I28+J29)/SUM(I28:J29)</f>
-        <v>0.81958762886597936</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ref="L28" si="5">SUM(I29,J28)/SUM(I28:J29)</f>
-        <v>0.18041237113402062</v>
+        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <v>0.20253164556962025</v>
       </c>
       <c r="M28" s="9">
         <f>I28/SUM(I28,I29)</f>
-        <v>0.67241379310344829</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N28" s="9">
         <f>I28/SUM(I28,J28)</f>
-        <v>0.70909090909090911</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="O28" s="10">
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
-        <v>0.69026548672566379</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q28" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R28" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S28" s="9">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>0.80927835051546393</v>
+        <v>0.98734177215189878</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" ref="T28" si="6">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>0.19072164948453607</v>
+        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>1.2658227848101266E-2</v>
       </c>
       <c r="U28" s="9">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>0.64516129032258063</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="V28" s="9">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>0.72727272727272729</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="W28" s="10">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>0.68376068376068377</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B29" s="12">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -6409,10 +6409,10 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="I29" s="11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J29" s="12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -6420,10 +6420,10 @@
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
       <c r="Q29" s="11">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="R29" s="12">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -6456,90 +6456,90 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B31" s="12">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C31" s="9">
+        <f>SUM(A31+B32)/SUM(A31:B32)</f>
+        <v>0.80379746835443033</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>0.76262626262626265</v>
-      </c>
-      <c r="D31" s="9">
-        <f t="shared" si="1"/>
-        <v>0.23737373737373738</v>
+        <v>0.19620253164556961</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="4"/>
-        <v>0.76923076923076927</v>
+        <f>A31/SUM(A31,A32)</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="2"/>
-        <v>0.32786885245901637</v>
+        <f>A31/SUM(A31,B31)</f>
+        <v>0.35555555555555557</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="3"/>
-        <v>0.45977011494252873</v>
+        <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
+        <v>0.50793650793650791</v>
       </c>
       <c r="I31" s="11">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J31" s="12">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K31" s="9">
         <f>SUM(I31+J32)/SUM(I31:J32)</f>
-        <v>0.81313131313131315</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="L31" s="9">
-        <f>SUM(I32,J31)/SUM(I31:J32)</f>
-        <v>0.18686868686868688</v>
+        <f t="shared" ref="L31:L34" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
+        <v>0.22784810126582278</v>
       </c>
       <c r="M31" s="9">
         <f>I31/SUM(I31,I32)</f>
-        <v>0.73076923076923073</v>
+        <v>0.60465116279069764</v>
       </c>
       <c r="N31" s="9">
         <f>I31/SUM(I31,J31)</f>
-        <v>0.62295081967213117</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="O31" s="10">
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
-        <v>0.67256637168141598</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="Q31" s="11">
         <v>41</v>
       </c>
       <c r="R31" s="12">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="S31" s="9">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>0.81818181818181823</v>
+        <v>0.92405063291139244</v>
       </c>
       <c r="T31" s="9">
-        <f>SUM(Q32,R31)/SUM(Q31:R32)</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" ref="T31:T34" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="U31" s="9">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>0.7192982456140351</v>
+        <v>0.83673469387755106</v>
       </c>
       <c r="V31" s="9">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>0.67213114754098358</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="W31" s="10">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>0.69491525423728806</v>
+        <v>0.87234042553191482</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" s="12">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6547,10 +6547,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="I32" s="11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J32" s="12">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -6558,10 +6558,10 @@
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
       <c r="Q32" s="11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R32" s="12">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -6593,71 +6593,311 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
-        <f>SUM(C10:C31)/8</f>
-        <v>0.74767090790429602</v>
-      </c>
-      <c r="D34" s="15">
-        <f>SUM(D10:D31)/8</f>
-        <v>0.25232909209570409</v>
-      </c>
-      <c r="E34" s="15">
-        <f>SUM(E10:E31)/8</f>
-        <v>0.77094760137523288</v>
-      </c>
-      <c r="F34" s="15">
-        <f>SUM(F10:F31)/8</f>
-        <v>0.27488976005981769</v>
-      </c>
-      <c r="G34" s="16">
-        <f>SUM(G10:G31)/8</f>
-        <v>0.40341019982700099</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15">
-        <f>SUM(K10:K31)/8</f>
-        <v>0.77241289922761736</v>
-      </c>
-      <c r="L34" s="15">
-        <f>SUM(L10:L31)/8</f>
-        <v>0.22758710077238259</v>
-      </c>
-      <c r="M34" s="15">
-        <f>SUM(M10:M31)/8</f>
-        <v>0.65011615944443857</v>
-      </c>
-      <c r="N34" s="15">
-        <f>SUM(N10:N31)/8</f>
-        <v>0.58588714521352503</v>
-      </c>
-      <c r="O34" s="16">
-        <f>SUM(O10:O31)/8</f>
-        <v>0.61425969174952433</v>
-      </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="15">
-        <f>SUM(S10:S31)/8</f>
-        <v>0.7767932712822726</v>
-      </c>
-      <c r="T34" s="15">
-        <f>SUM(T10:T31)/8</f>
-        <v>0.2232067287177274</v>
-      </c>
-      <c r="U34" s="15">
-        <f>SUM(U10:U31)/8</f>
-        <v>0.64840329369170324</v>
-      </c>
-      <c r="V34" s="15">
-        <f>SUM(V10:V31)/8</f>
-        <v>0.6180610116288815</v>
-      </c>
-      <c r="W34" s="16">
-        <f>SUM(W10:W31)/8</f>
-        <v>0.63133901251598468</v>
+      <c r="A34" s="11">
+        <v>16</v>
+      </c>
+      <c r="B34" s="12">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUM(A34+B35)/SUM(A34:B35)</f>
+        <v>0.759493670886076</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34" si="5">SUM(A35,B34)/SUM(A34:B35)</f>
+        <v>0.24050632911392406</v>
+      </c>
+      <c r="E34" s="9">
+        <f>A34/SUM(A34,A35)</f>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="F34" s="9">
+        <f>A34/SUM(A34,B34)</f>
+        <v>0.32653061224489793</v>
+      </c>
+      <c r="G34" s="10">
+        <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="I34" s="11">
+        <v>32</v>
+      </c>
+      <c r="J34" s="12">
+        <v>17</v>
+      </c>
+      <c r="K34" s="9">
+        <f>SUM(I34+J35)/SUM(I34:J35)</f>
+        <v>0.80379746835443033</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" ref="L34" si="6">SUM(I35,J34)/SUM(I34:J35)</f>
+        <v>0.19620253164556961</v>
+      </c>
+      <c r="M34" s="9">
+        <f>I34/SUM(I34,I35)</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="N34" s="9">
+        <f>I34/SUM(I34,J34)</f>
+        <v>0.65306122448979587</v>
+      </c>
+      <c r="O34" s="10">
+        <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
+        <v>0.67368421052631577</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>48</v>
+      </c>
+      <c r="R34" s="12">
+        <v>1</v>
+      </c>
+      <c r="S34" s="9">
+        <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" ref="T34" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="U34" s="9">
+        <f>Q34/SUM(Q34,Q35)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="V34" s="9">
+        <f>Q34/SUM(Q34,R34)</f>
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="W34" s="10">
+        <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>5</v>
+      </c>
+      <c r="B35" s="12">
+        <v>104</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="I35" s="11">
+        <v>14</v>
+      </c>
+      <c r="J35" s="12">
+        <v>95</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="Q35" s="11">
+        <v>3</v>
+      </c>
+      <c r="R35" s="12">
+        <v>106</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="W36" s="25"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>14</v>
+      </c>
+      <c r="B37" s="12">
+        <v>34</v>
+      </c>
+      <c r="C37" s="9">
+        <f>SUM(A37+B38)/SUM(A37:B38)</f>
+        <v>0.73417721518987344</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" ref="D37" si="8">SUM(A38,B37)/SUM(A37:B38)</f>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="E37" s="9">
+        <f>A37/SUM(A37,A38)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F37" s="9">
+        <f>A37/SUM(A37,B37)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G37" s="10">
+        <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I37" s="11">
+        <v>31</v>
+      </c>
+      <c r="J37" s="12">
+        <v>17</v>
+      </c>
+      <c r="K37" s="9">
+        <f>SUM(I37+J38)/SUM(I37:J38)</f>
+        <v>0.75316455696202533</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37" si="9">SUM(I38,J37)/SUM(I37:J38)</f>
+        <v>0.24683544303797469</v>
+      </c>
+      <c r="M37" s="9">
+        <f>I37/SUM(I37,I38)</f>
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="N37" s="9">
+        <f>I37/SUM(I37,J37)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O37" s="10">
+        <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
+        <v>0.61386138613861385</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>41</v>
+      </c>
+      <c r="R37" s="12">
+        <v>7</v>
+      </c>
+      <c r="S37" s="9">
+        <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
+        <v>0.89240506329113922</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" ref="T37" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
+        <v>0.10759493670886076</v>
+      </c>
+      <c r="U37" s="9">
+        <f>Q37/SUM(Q37,Q38)</f>
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="V37" s="9">
+        <f>Q37/SUM(Q37,R37)</f>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="W37" s="10">
+        <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
+        <v>0.82828282828282829</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>8</v>
+      </c>
+      <c r="B38" s="12">
+        <v>102</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="11">
+        <v>22</v>
+      </c>
+      <c r="J38" s="12">
+        <v>88</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="Q38" s="11">
+        <v>10</v>
+      </c>
+      <c r="R38" s="12">
+        <v>100</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="W39" s="25"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="15">
+        <f>SUM(C10:C37)/10</f>
+        <v>0.74717777247034467</v>
+      </c>
+      <c r="D40" s="15">
+        <f>SUM(D10:D37)/10</f>
+        <v>0.25282222752965533</v>
+      </c>
+      <c r="E40" s="15">
+        <f>SUM(E10:E37)/10</f>
+        <v>0.77178333362543894</v>
+      </c>
+      <c r="F40" s="15">
+        <f>SUM(F10:F37)/10</f>
+        <v>0.26944625862865618</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G10:G37)/10</f>
+        <v>0.39617574216879653</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="15">
+        <f>SUM(K10:K37)/10</f>
+        <v>0.76331303240187887</v>
+      </c>
+      <c r="L40" s="15">
+        <f>SUM(L10:L37)/10</f>
+        <v>0.23668696759812119</v>
+      </c>
+      <c r="M40" s="15">
+        <f>SUM(M10:M37)/10</f>
+        <v>0.64024170261458824</v>
+      </c>
+      <c r="N40" s="15">
+        <f>SUM(N10:N37)/10</f>
+        <v>0.57143976863259371</v>
+      </c>
+      <c r="O40" s="16">
+        <f>SUM(O10:O37)/10</f>
+        <v>0.60098290967741319</v>
+      </c>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="15">
+        <f>SUM(S10:S37)/10</f>
+        <v>0.93674318571601733</v>
+      </c>
+      <c r="T40" s="15">
+        <f>SUM(T10:T37)/10</f>
+        <v>6.325681428398261E-2</v>
+      </c>
+      <c r="U40" s="15">
+        <f>SUM(U10:U37)/10</f>
+        <v>0.89065950998395971</v>
+      </c>
+      <c r="V40" s="15">
+        <f>SUM(V10:V37)/10</f>
+        <v>0.91025809448850148</v>
+      </c>
+      <c r="W40" s="16">
+        <f>SUM(W10:W37)/10</f>
+        <v>0.89964252930403377</v>
       </c>
     </row>
   </sheetData>
@@ -6686,7 +6926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7161284-094E-4C4F-ACD8-1F2E6D16DB2F}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0699A1A4-B223-42CA-ABE8-06237646FD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C242F8C-1098-4579-836F-A82898F2BDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="40">
   <si>
     <t>ACC</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>PCA 9</t>
+  </si>
+  <si>
+    <t>SURF SEM PCA</t>
+  </si>
+  <si>
+    <t>SURF PCA 2</t>
+  </si>
+  <si>
+    <t>SURF PCA 3</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,12 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,9 +340,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -364,6 +364,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1841,18 +1844,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="27"/>
+      <c r="I7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="Q7" s="30" t="s">
+      <c r="J7" s="28"/>
+      <c r="Q7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="30"/>
+      <c r="R7" s="28"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -3150,11 +3153,11 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G36" s="25"/>
-      <c r="I36" s="27"/>
-      <c r="O36" s="25"/>
-      <c r="Q36" s="27"/>
-      <c r="W36" s="25"/>
+      <c r="G36" s="22"/>
+      <c r="I36" s="24"/>
+      <c r="O36" s="22"/>
+      <c r="Q36" s="24"/>
+      <c r="W36" s="22"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -3272,76 +3275,76 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G39" s="25"/>
-      <c r="I39" s="27"/>
-      <c r="O39" s="25"/>
-      <c r="Q39" s="27"/>
-      <c r="W39" s="25"/>
+      <c r="G39" s="22"/>
+      <c r="I39" s="24"/>
+      <c r="O39" s="22"/>
+      <c r="Q39" s="24"/>
+      <c r="W39" s="22"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="15">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="13">
         <f>SUM(C10:C37)/10</f>
         <v>0.93674318571601733</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <f>SUM(D10:D37)/10</f>
         <v>6.325681428398261E-2</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="13">
         <f>SUM(E10:E37)/10</f>
         <v>0.89065950998395971</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="13">
         <f>SUM(F10:F37)/10</f>
         <v>0.91025809448850148</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="14">
         <f>SUM(G10:G37)/10</f>
         <v>0.89964252930403377</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="15">
+      <c r="I40" s="25"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="13">
         <f>SUM(K10:K37)/10</f>
         <v>0.84028640235650032</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="13">
         <f>SUM(L10:L37)/10</f>
         <v>0.15971359764349974</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="13">
         <f>SUM(M10:M37)/10</f>
         <v>0.82010150083834288</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="13">
         <f>SUM(N10:N37)/10</f>
         <v>0.63306987602146136</v>
       </c>
-      <c r="O40" s="16">
+      <c r="O40" s="14">
         <f>SUM(O10:O37)/10</f>
         <v>0.71266964606055683</v>
       </c>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="15">
+      <c r="Q40" s="25"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="13">
         <f>SUM(S10:S37)/10</f>
         <v>0.88010639755014175</v>
       </c>
-      <c r="T40" s="15">
+      <c r="T40" s="13">
         <f>SUM(T10:T37)/10</f>
         <v>0.11989360244985836</v>
       </c>
-      <c r="U40" s="15">
+      <c r="U40" s="13">
         <f>SUM(U10:U37)/10</f>
         <v>0.86781583894776537</v>
       </c>
-      <c r="V40" s="15">
+      <c r="V40" s="13">
         <f>SUM(V10:V37)/10</f>
         <v>0.73003604612858108</v>
       </c>
-      <c r="W40" s="16">
+      <c r="W40" s="14">
         <f>SUM(W10:W37)/10</f>
         <v>0.79114800518568418</v>
       </c>
@@ -3358,10 +3361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824C85A-E8DA-43CC-A471-E8F922303662}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:G34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,18 +3426,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="27"/>
+      <c r="I7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="Q7" s="30" t="s">
+      <c r="J7" s="28"/>
+      <c r="Q7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="30"/>
+      <c r="R7" s="28"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -3514,82 +3517,82 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9">
         <f>SUM(A10+B11)/SUM(A10:B11)</f>
-        <v>0.84343434343434343</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="D10" s="9">
         <f>SUM(A11,B10)/SUM(A10:B11)</f>
-        <v>0.15656565656565657</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="E10" s="9">
         <f>A10/SUM(A10,A11)</f>
-        <v>0.78260869565217395</v>
+        <v>0.75</v>
       </c>
       <c r="F10" s="9">
         <f>A10/SUM(A10,B10)</f>
-        <v>0.63157894736842102</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="G10" s="10">
         <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
-        <v>0.69902912621359226</v>
+        <v>0.64516129032258074</v>
       </c>
       <c r="I10" s="11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J10" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="9">
         <f>SUM(I10+J11)/SUM(I10:J11)</f>
-        <v>0.85353535353535348</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="L10" s="9">
         <f>SUM(I11,J10)/SUM(I10:J11)</f>
-        <v>0.14646464646464646</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="M10" s="9">
         <f>I10/SUM(I10,I11)</f>
-        <v>0.80434782608695654</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="N10" s="9">
         <f>I10/SUM(I10,J10)</f>
-        <v>0.64912280701754388</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="O10" s="10">
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
-        <v>0.71844660194174759</v>
+        <v>0.65979381443298968</v>
       </c>
       <c r="Q10" s="11">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R10" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>0.84343434343434343</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="T10" s="9">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>0.15656565656565657</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="U10" s="9">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>0.7407407407407407</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="V10" s="9">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>0.70175438596491224</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="W10" s="10">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>0.72072072072072069</v>
+        <v>0.68085106382978722</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -3597,7 +3600,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3605,10 +3608,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="I11" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J11" s="12">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -3616,10 +3619,10 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="Q11" s="11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R11" s="12">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -3652,90 +3655,90 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9">
         <f>SUM(A13+B14)/SUM(A13:B14)</f>
-        <v>0.80808080808080807</v>
+        <v>0.82389937106918243</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(A14,B13)/SUM(A13:B14)</f>
-        <v>0.19191919191919191</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="E13" s="9">
         <f>A13/SUM(A13,A14)</f>
-        <v>0.7592592592592593</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="F13" s="9">
         <f>A13/SUM(A13,B13)</f>
-        <v>0.62121212121212122</v>
+        <v>0.64</v>
       </c>
       <c r="G13" s="10">
         <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
-        <v>0.68333333333333335</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="I13" s="11">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J13" s="12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K13" s="9">
         <f>SUM(I13+J14)/SUM(I13:J14)</f>
-        <v>0.79292929292929293</v>
+        <v>0.79874213836477992</v>
       </c>
       <c r="L13" s="9">
         <f>SUM(I14,J13)/SUM(I13:J14)</f>
-        <v>0.20707070707070707</v>
+        <v>0.20125786163522014</v>
       </c>
       <c r="M13" s="9">
         <f>I13/SUM(I13,I14)</f>
-        <v>0.73584905660377353</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="N13" s="9">
         <f>I13/SUM(I13,J13)</f>
-        <v>0.59090909090909094</v>
+        <v>0.62</v>
       </c>
       <c r="O13" s="10">
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
-        <v>0.65546218487394958</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="Q13" s="11">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R13" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="S13" s="9">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>0.78787878787878785</v>
+        <v>0.82389937106918243</v>
       </c>
       <c r="T13" s="9">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>0.21212121212121213</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="U13" s="9">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="V13" s="9">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>0.60606060606060608</v>
+        <v>0.66</v>
       </c>
       <c r="W13" s="10">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>0.65573770491803274</v>
+        <v>0.70212765957446799</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="12">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3743,10 +3746,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="I14" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="12">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -3754,10 +3757,10 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="Q14" s="11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R14" s="12">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -3790,90 +3793,90 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9">
         <f>SUM(A16+B17)/SUM(A16:B17)</f>
-        <v>0.82412060301507539</v>
+        <v>0.84177215189873422</v>
       </c>
       <c r="D16" s="9">
         <f>SUM(A17,B16)/SUM(A16:B17)</f>
-        <v>0.17587939698492464</v>
+        <v>0.15822784810126583</v>
       </c>
       <c r="E16" s="9">
         <f>A16/SUM(A16,A17)</f>
-        <v>0.78260869565217395</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="F16" s="9">
         <f>A16/SUM(A16,B16)</f>
-        <v>0.5901639344262295</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="G16" s="10">
         <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
-        <v>0.67289719626168221</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="I16" s="11">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J16" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K16" s="9">
         <f>SUM(I16+J17)/SUM(I16:J17)</f>
-        <v>0.7839195979899497</v>
+        <v>0.82278481012658233</v>
       </c>
       <c r="L16" s="9">
         <f>SUM(I17,J16)/SUM(I16:J17)</f>
-        <v>0.21608040201005024</v>
+        <v>0.17721518987341772</v>
       </c>
       <c r="M16" s="9">
         <f>I16/SUM(I16,I17)</f>
-        <v>0.67307692307692313</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="N16" s="9">
         <f>I16/SUM(I16,J16)</f>
-        <v>0.57377049180327866</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="O16" s="10">
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
-        <v>0.61946902654867253</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q16" s="11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R16" s="12">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="S16" s="9">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>0.79899497487437188</v>
+        <v>0.86075949367088611</v>
       </c>
       <c r="T16" s="9">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>0.20100502512562815</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="U16" s="9">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>0.69090909090909092</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="V16" s="9">
         <f>Q16/SUM(Q16,R16)</f>
-        <v>0.62295081967213117</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="W16" s="10">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>0.65517241379310354</v>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="12">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3881,10 +3884,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="I17" s="11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J17" s="12">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -3892,10 +3895,10 @@
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="Q17" s="11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R17" s="12">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -3928,90 +3931,90 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9">
         <f>SUM(A19+B20)/SUM(A19:B20)</f>
-        <v>0.84924623115577891</v>
+        <v>0.810126582278481</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(A20,B19)/SUM(A19:B20)</f>
-        <v>0.15075376884422109</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="E19" s="9">
         <f>A19/SUM(A19,A20)</f>
-        <v>0.88095238095238093</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="F19" s="9">
         <f>A19/SUM(A19,B19)</f>
-        <v>0.59677419354838712</v>
+        <v>0.58181818181818179</v>
       </c>
       <c r="G19" s="10">
         <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
-        <v>0.71153846153846156</v>
+        <v>0.68085106382978722</v>
       </c>
       <c r="I19" s="11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J19" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K19" s="9">
         <f>SUM(I19+J20)/SUM(I19:J20)</f>
-        <v>0.82412060301507539</v>
+        <v>0.79113924050632911</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(I20,J19)/SUM(I19:J20)</f>
-        <v>0.17587939698492464</v>
+        <v>0.20886075949367089</v>
       </c>
       <c r="M19" s="9">
         <f>I19/SUM(I19,I20)</f>
-        <v>0.82926829268292679</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="N19" s="9">
         <f>I19/SUM(I19,J19)</f>
-        <v>0.54838709677419351</v>
+        <v>0.52727272727272723</v>
       </c>
       <c r="O19" s="10">
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
-        <v>0.66019417475728159</v>
+        <v>0.63736263736263732</v>
       </c>
       <c r="Q19" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R19" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S19" s="9">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>0.82412060301507539</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="T19" s="9">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>0.17587939698492464</v>
+        <v>0.16455696202531644</v>
       </c>
       <c r="U19" s="9">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>0.8</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="V19" s="9">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>0.58064516129032262</v>
+        <v>0.6</v>
       </c>
       <c r="W19" s="10">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>0.67289719626168221</v>
+        <v>0.71739130434782616</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" s="12">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4022,7 +4025,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="12">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -4030,10 +4033,10 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="Q20" s="11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R20" s="12">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -4066,90 +4069,90 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B22" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9">
         <f>SUM(A22+B23)/SUM(A22:B23)</f>
-        <v>0.79292929292929293</v>
+        <v>0.84810126582278478</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(A23,B22)/SUM(A22:B23)</f>
-        <v>0.20707070707070707</v>
+        <v>0.15189873417721519</v>
       </c>
       <c r="E22" s="9">
         <f>A22/SUM(A22,A23)</f>
-        <v>0.77049180327868849</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="F22" s="9">
         <f>A22/SUM(A22,B22)</f>
-        <v>0.63513513513513509</v>
+        <v>0.65909090909090906</v>
       </c>
       <c r="G22" s="10">
         <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
-        <v>0.6962962962962963</v>
+        <v>0.70731707317073167</v>
       </c>
       <c r="I22" s="11">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J22" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K22" s="9">
         <f>SUM(I22+J23)/SUM(I22:J23)</f>
-        <v>0.76767676767676762</v>
+        <v>0.81645569620253167</v>
       </c>
       <c r="L22" s="9">
         <f>SUM(I23,J22)/SUM(I22:J23)</f>
-        <v>0.23232323232323232</v>
+        <v>0.18354430379746836</v>
       </c>
       <c r="M22" s="9">
         <f>I22/SUM(I22,I23)</f>
-        <v>0.72580645161290325</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="N22" s="9">
         <f>I22/SUM(I22,J22)</f>
-        <v>0.60810810810810811</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="O22" s="10">
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
-        <v>0.66176470588235292</v>
+        <v>0.65060240963855431</v>
       </c>
       <c r="Q22" s="11">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="R22" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>0.77777777777777779</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="T22" s="9">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>0.22222222222222221</v>
+        <v>0.17088607594936708</v>
       </c>
       <c r="U22" s="9">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>0.734375</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="V22" s="9">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>0.63513513513513509</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="W22" s="10">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>0.68115942028985499</v>
+        <v>0.67469879518072295</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B23" s="12">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4157,10 +4160,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="I23" s="11">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J23" s="12">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -4168,10 +4171,10 @@
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="Q23" s="11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R23" s="12">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -4204,90 +4207,90 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9">
         <f>SUM(A25+B26)/SUM(A25:B26)</f>
-        <v>0.84848484848484851</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(A26,B25)/SUM(A25:B26)</f>
-        <v>0.15151515151515152</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="E25" s="9">
         <f>A25/SUM(A25,A26)</f>
-        <v>0.81395348837209303</v>
+        <v>0.8</v>
       </c>
       <c r="F25" s="9">
         <f>A25/SUM(A25,B25)</f>
-        <v>0.61403508771929827</v>
+        <v>0.61016949152542377</v>
       </c>
       <c r="G25" s="10">
         <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
-        <v>0.7</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="I25" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K25" s="9">
         <f>SUM(I25+J26)/SUM(I25:J26)</f>
-        <v>0.83838383838383834</v>
+        <v>0.79113924050632911</v>
       </c>
       <c r="L25" s="9">
         <f>SUM(I26,J25)/SUM(I25:J26)</f>
-        <v>0.16161616161616163</v>
+        <v>0.20886075949367089</v>
       </c>
       <c r="M25" s="9">
         <f>I25/SUM(I25,I26)</f>
-        <v>0.76595744680851063</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="N25" s="9">
         <f>I25/SUM(I25,J25)</f>
-        <v>0.63157894736842102</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="O25" s="10">
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
-        <v>0.69230769230769229</v>
+        <v>0.67326732673267331</v>
       </c>
       <c r="Q25" s="11">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R25" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="S25" s="9">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>0.84343434343434343</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="T25" s="9">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>0.15656565656565657</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="U25" s="9">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>0.78260869565217395</v>
+        <v>0.79487179487179482</v>
       </c>
       <c r="V25" s="9">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>0.63157894736842102</v>
+        <v>0.52542372881355937</v>
       </c>
       <c r="W25" s="10">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>0.69902912621359226</v>
+        <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="12">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4295,10 +4298,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="I26" s="11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J26" s="12">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -4306,10 +4309,10 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="Q26" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R26" s="12">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -4325,7 +4328,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -4342,87 +4345,90 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B28" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="9">
         <f>SUM(A28+B29)/SUM(A28:B29)</f>
-        <v>0.85641025641025637</v>
+        <v>0.85443037974683544</v>
       </c>
       <c r="D28" s="9">
-        <v>0.74</v>
+        <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
+        <v>0.14556962025316456</v>
       </c>
       <c r="E28" s="9">
         <f>A28/SUM(A28,A29)</f>
-        <v>0.75471698113207553</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F28" s="9">
         <f>A28/SUM(A28,B28)</f>
-        <v>0.72727272727272729</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="G28" s="10">
         <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
-        <v>0.7407407407407407</v>
+        <v>0.71604938271604934</v>
       </c>
       <c r="I28" s="11">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J28" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K28" s="9">
         <f>SUM(I28+J29)/SUM(I28:J29)</f>
-        <v>0.83076923076923082</v>
+        <v>0.81645569620253167</v>
       </c>
       <c r="L28" s="9">
-        <v>0.74</v>
+        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <v>0.18354430379746836</v>
       </c>
       <c r="M28" s="9">
         <f>I28/SUM(I28,I29)</f>
-        <v>0.72</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="N28" s="9">
         <f>I28/SUM(I28,J28)</f>
-        <v>0.65454545454545454</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="O28" s="10">
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
-        <v>0.68571428571428572</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q28" s="11">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="R28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S28" s="9">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>0.84102564102564104</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="T28" s="9">
-        <v>0.74</v>
+        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>0.16455696202531644</v>
       </c>
       <c r="U28" s="9">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>0.74</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="V28" s="9">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>0.67272727272727273</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="W28" s="10">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>0.70476190476190481</v>
+        <v>0.69047619047619058</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B29" s="12">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4430,10 +4436,10 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="I29" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" s="12">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -4441,10 +4447,10 @@
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
       <c r="Q29" s="11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R29" s="12">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -4477,90 +4483,90 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B31" s="12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9">
         <f>SUM(A31+B32)/SUM(A31:B32)</f>
-        <v>0.84848484848484851</v>
+        <v>0.87341772151898733</v>
       </c>
       <c r="D31" s="9">
-        <f>SUM(A32,B31)/SUM(A31:B32)</f>
-        <v>0.15151515151515152</v>
+        <f t="shared" si="0"/>
+        <v>0.12658227848101267</v>
       </c>
       <c r="E31" s="9">
         <f>A31/SUM(A31,A32)</f>
-        <v>0.79245283018867929</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="F31" s="9">
         <f>A31/SUM(A31,B31)</f>
-        <v>0.68852459016393441</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="G31" s="10">
         <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
-        <v>0.73684210526315785</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="I31" s="11">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J31" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K31" s="9">
         <f>SUM(I31+J32)/SUM(I31:J32)</f>
-        <v>0.78787878787878785</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="L31" s="9">
-        <f>SUM(I32,J31)/SUM(I31:J32)</f>
-        <v>0.21212121212121213</v>
+        <f t="shared" si="1"/>
+        <v>0.17088607594936708</v>
       </c>
       <c r="M31" s="9">
         <f>I31/SUM(I31,I32)</f>
-        <v>0.66101694915254239</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N31" s="9">
         <f>I31/SUM(I31,J31)</f>
-        <v>0.63934426229508201</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O31" s="10">
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
-        <v>0.65</v>
+        <v>0.68965517241379304</v>
       </c>
       <c r="Q31" s="11">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="R31" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S31" s="9">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>0.8232323232323232</v>
+        <v>0.82278481012658233</v>
       </c>
       <c r="T31" s="9">
-        <f>SUM(Q32,R31)/SUM(Q31:R32)</f>
-        <v>0.17676767676767677</v>
+        <f t="shared" si="2"/>
+        <v>0.17721518987341772</v>
       </c>
       <c r="U31" s="9">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>0.70967741935483875</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="V31" s="9">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>0.72131147540983609</v>
+        <v>0.6</v>
       </c>
       <c r="W31" s="10">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>0.71544715447154461</v>
+        <v>0.65853658536585358</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32" s="12">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4568,10 +4574,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="I32" s="11">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J32" s="12">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -4579,10 +4585,10 @@
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
       <c r="Q32" s="11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R32" s="12">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -4614,71 +4620,311 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
-        <f>SUM(C10:C31)/8</f>
-        <v>0.83389890399940647</v>
-      </c>
-      <c r="D34" s="15">
-        <f>SUM(D10:D31)/8</f>
-        <v>0.24065237805187556</v>
-      </c>
-      <c r="E34" s="15">
-        <f>SUM(E10:E31)/8</f>
-        <v>0.79213051681094049</v>
-      </c>
-      <c r="F34" s="15">
-        <f>SUM(F10:F31)/8</f>
-        <v>0.63808709210578185</v>
-      </c>
-      <c r="G34" s="16">
-        <f>SUM(G10:G31)/8</f>
-        <v>0.70508465745590798</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15">
-        <f>SUM(K10:K31)/8</f>
-        <v>0.80990168402228702</v>
-      </c>
-      <c r="L34" s="15">
-        <f>SUM(L10:L31)/8</f>
-        <v>0.26144446982386677</v>
-      </c>
-      <c r="M34" s="15">
-        <f>SUM(M10:M31)/8</f>
-        <v>0.73941536825306697</v>
-      </c>
-      <c r="N34" s="15">
-        <f>SUM(N10:N31)/8</f>
-        <v>0.61197078235264657</v>
-      </c>
-      <c r="O34" s="16">
-        <f>SUM(O10:O31)/8</f>
-        <v>0.66791983400324784</v>
-      </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="15">
-        <f>SUM(S10:S31)/8</f>
-        <v>0.81748734933408307</v>
-      </c>
-      <c r="T34" s="15">
-        <f>SUM(T10:T31)/8</f>
-        <v>0.2551408557941221</v>
-      </c>
-      <c r="U34" s="15">
-        <f>SUM(U10:U31)/8</f>
-        <v>0.73907458261781989</v>
-      </c>
-      <c r="V34" s="15">
-        <f>SUM(V10:V31)/8</f>
-        <v>0.6465204754535796</v>
-      </c>
-      <c r="W34" s="16">
-        <f>SUM(W10:W31)/8</f>
-        <v>0.68811570517880449</v>
+      <c r="A34" s="11">
+        <v>34</v>
+      </c>
+      <c r="B34" s="12">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUM(A34+B35)/SUM(A34:B35)</f>
+        <v>0.85443037974683544</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34" si="3">SUM(A35,B34)/SUM(A34:B35)</f>
+        <v>0.14556962025316456</v>
+      </c>
+      <c r="E34" s="9">
+        <f>A34/SUM(A34,A35)</f>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="F34" s="9">
+        <f>A34/SUM(A34,B34)</f>
+        <v>0.69387755102040816</v>
+      </c>
+      <c r="G34" s="10">
+        <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
+        <v>0.74725274725274715</v>
+      </c>
+      <c r="I34" s="11">
+        <v>30</v>
+      </c>
+      <c r="J34" s="12">
+        <v>19</v>
+      </c>
+      <c r="K34" s="9">
+        <f>SUM(I34+J35)/SUM(I34:J35)</f>
+        <v>0.84177215189873422</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" ref="L34" si="4">SUM(I35,J34)/SUM(I34:J35)</f>
+        <v>0.15822784810126583</v>
+      </c>
+      <c r="M34" s="9">
+        <f>I34/SUM(I34,I35)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N34" s="9">
+        <f>I34/SUM(I34,J34)</f>
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="O34" s="10">
+        <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>33</v>
+      </c>
+      <c r="R34" s="12">
+        <v>16</v>
+      </c>
+      <c r="S34" s="9">
+        <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" ref="T34" si="5">SUM(Q35,R34)/SUM(Q34:R35)</f>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="U34" s="9">
+        <f>Q34/SUM(Q34,Q35)</f>
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="V34" s="9">
+        <f>Q34/SUM(Q34,R34)</f>
+        <v>0.67346938775510201</v>
+      </c>
+      <c r="W34" s="10">
+        <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
+        <v>0.71739130434782594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>8</v>
+      </c>
+      <c r="B35" s="12">
+        <v>101</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="I35" s="11">
+        <v>6</v>
+      </c>
+      <c r="J35" s="12">
+        <v>103</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="Q35" s="11">
+        <v>10</v>
+      </c>
+      <c r="R35" s="12">
+        <v>99</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="W36" s="22"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>33</v>
+      </c>
+      <c r="B37" s="12">
+        <v>15</v>
+      </c>
+      <c r="C37" s="9">
+        <f>SUM(A37+B38)/SUM(A37:B38)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" ref="D37" si="6">SUM(A38,B37)/SUM(A37:B38)</f>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="E37" s="9">
+        <f>A37/SUM(A37,A38)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F37" s="9">
+        <f>A37/SUM(A37,B37)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="G37" s="10">
+        <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
+        <v>0.70967741935483863</v>
+      </c>
+      <c r="I37" s="11">
+        <v>33</v>
+      </c>
+      <c r="J37" s="12">
+        <v>15</v>
+      </c>
+      <c r="K37" s="9">
+        <f>SUM(I37+J38)/SUM(I37:J38)</f>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37" si="7">SUM(I38,J37)/SUM(I37:J38)</f>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="M37" s="9">
+        <f>I37/SUM(I37,I38)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="N37" s="9">
+        <f>I37/SUM(I37,J37)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="O37" s="10">
+        <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>32</v>
+      </c>
+      <c r="R37" s="12">
+        <v>16</v>
+      </c>
+      <c r="S37" s="9">
+        <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
+        <v>0.79746835443037978</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" ref="T37" si="8">SUM(Q38,R37)/SUM(Q37:R38)</f>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="U37" s="9">
+        <f>Q37/SUM(Q37,Q38)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V37" s="9">
+        <f>Q37/SUM(Q37,R37)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W37" s="10">
+        <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>12</v>
+      </c>
+      <c r="B38" s="12">
+        <v>98</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="11">
+        <v>15</v>
+      </c>
+      <c r="J38" s="12">
+        <v>95</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="Q38" s="11">
+        <v>16</v>
+      </c>
+      <c r="R38" s="12">
+        <v>94</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="W39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="13">
+        <f>SUM(C10:C37)/10</f>
+        <v>0.83252129607515324</v>
+      </c>
+      <c r="D40" s="13">
+        <f>SUM(D10:D37)/10</f>
+        <v>0.16747870392484679</v>
+      </c>
+      <c r="E40" s="13">
+        <f>SUM(E10:E37)/10</f>
+        <v>0.78276588908167855</v>
+      </c>
+      <c r="F40" s="13">
+        <f>SUM(F10:F37)/10</f>
+        <v>0.64384938693039806</v>
+      </c>
+      <c r="G40" s="14">
+        <f>SUM(G10:G37)/10</f>
+        <v>0.70549687854951249</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="13">
+        <f>SUM(K10:K37)/10</f>
+        <v>0.8110182310325611</v>
+      </c>
+      <c r="L40" s="13">
+        <f>SUM(L10:L37)/10</f>
+        <v>0.1889817689674389</v>
+      </c>
+      <c r="M40" s="13">
+        <f>SUM(M10:M37)/10</f>
+        <v>0.73827491952491953</v>
+      </c>
+      <c r="N40" s="13">
+        <f>SUM(N10:N37)/10</f>
+        <v>0.61740320935479476</v>
+      </c>
+      <c r="O40" s="14">
+        <f>SUM(O10:O37)/10</f>
+        <v>0.66969715149402631</v>
+      </c>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="13">
+        <f>SUM(S10:S37)/10</f>
+        <v>0.82238277207228738</v>
+      </c>
+      <c r="T40" s="13">
+        <f>SUM(T10:T37)/10</f>
+        <v>0.17761722792771278</v>
+      </c>
+      <c r="U40" s="13">
+        <f>SUM(U10:U37)/10</f>
+        <v>0.7598183765597265</v>
+      </c>
+      <c r="V40" s="13">
+        <f>SUM(V10:V37)/10</f>
+        <v>0.63656970045046246</v>
+      </c>
+      <c r="W40" s="14">
+        <f>SUM(W10:W37)/10</f>
+        <v>0.68963481865693876</v>
       </c>
     </row>
   </sheetData>
@@ -4780,548 +5026,548 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
     </row>
     <row r="17" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
     </row>
     <row r="18" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
     </row>
     <row r="19" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
     </row>
     <row r="20" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
     </row>
     <row r="21" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
     </row>
     <row r="22" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
     </row>
     <row r="23" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
     </row>
     <row r="24" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
     </row>
     <row r="25" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
     </row>
     <row r="26" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
     </row>
     <row r="27" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
     </row>
     <row r="28" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
     </row>
     <row r="29" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
     </row>
     <row r="30" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
     </row>
     <row r="31" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
     </row>
     <row r="32" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
     </row>
     <row r="33" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
     </row>
     <row r="34" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
     </row>
     <row r="35" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
     </row>
     <row r="36" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
     </row>
     <row r="37" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
     </row>
     <row r="38" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5336,8 +5582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC563E11-1FB9-47B5-8C85-3EF2B82BA748}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5360,7 +5606,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>15</v>
       </c>
       <c r="C2" s="4">
@@ -5374,7 +5620,7 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -5388,7 +5634,7 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -5399,18 +5645,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="27"/>
+      <c r="I7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="Q7" s="30" t="s">
+      <c r="J7" s="28"/>
+      <c r="Q7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="30"/>
+      <c r="R7" s="28"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -5542,30 +5788,30 @@
         <v>0.53465346534653457</v>
       </c>
       <c r="Q10" s="11">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="R10" s="12">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>0.92452830188679247</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="T10" s="9">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>7.5471698113207544E-2</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="U10" s="9">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>0.91836734693877553</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="V10" s="9">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>0.84905660377358494</v>
+        <v>0.58490566037735847</v>
       </c>
       <c r="W10" s="10">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>0.88235294117647067</v>
+        <v>0.61386138613861385</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -5592,10 +5838,10 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="Q11" s="11">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="R11" s="12">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -5680,30 +5926,30 @@
         <v>0.61224489795918358</v>
       </c>
       <c r="Q13" s="11">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="R13" s="12">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S13" s="9">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>0.90566037735849059</v>
+        <v>0.78616352201257866</v>
       </c>
       <c r="T13" s="9">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>9.4339622641509441E-2</v>
+        <v>0.21383647798742139</v>
       </c>
       <c r="U13" s="9">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>0.80701754385964908</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V13" s="9">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>0.92</v>
+        <v>0.64</v>
       </c>
       <c r="W13" s="10">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>0.85981308411214952</v>
+        <v>0.65306122448979587</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -5730,10 +5976,10 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="Q14" s="11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R14" s="12">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -5818,30 +6064,30 @@
         <v>0.57142857142857151</v>
       </c>
       <c r="Q16" s="11">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="R16" s="12">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="S16" s="9">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>0.96202531645569622</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="T16" s="9">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>3.7974683544303799E-2</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="U16" s="9">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>0.93333333333333335</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="V16" s="9">
         <f>Q16/SUM(Q16,R16)</f>
-        <v>0.93333333333333335</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="W16" s="10">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>0.93333333333333335</v>
+        <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -5868,10 +6114,10 @@
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="Q17" s="11">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="R17" s="12">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -5956,30 +6202,30 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="Q19" s="11">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="R19" s="12">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S19" s="9">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>0.92964824120603018</v>
+        <v>0.75316455696202533</v>
       </c>
       <c r="T19" s="9">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>7.0351758793969849E-2</v>
+        <v>0.24683544303797469</v>
       </c>
       <c r="U19" s="9">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>0.88709677419354838</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="V19" s="9">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>0.88709677419354838</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="W19" s="10">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>0.88709677419354838</v>
+        <v>0.58064516129032251</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -6006,10 +6252,10 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="Q20" s="11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R20" s="12">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -6094,30 +6340,30 @@
         <v>0.57471264367816088</v>
       </c>
       <c r="Q22" s="11">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="R22" s="12">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>0.94303797468354433</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="T22" s="9">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>5.6962025316455694E-2</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="U22" s="9">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>0.88888888888888884</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="V22" s="9">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>0.90909090909090906</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="W22" s="10">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>0.89887640449438189</v>
+        <v>0.57777777777777783</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -6144,10 +6390,10 @@
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="Q23" s="11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R23" s="12">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -6232,30 +6478,30 @@
         <v>0.64150943396226412</v>
       </c>
       <c r="Q25" s="11">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="R25" s="12">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="S25" s="9">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>0.92405063291139244</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="T25" s="9">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>7.5949367088607597E-2</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="U25" s="9">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>0.91228070175438591</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V25" s="9">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>0.88135593220338981</v>
+        <v>0.59322033898305082</v>
       </c>
       <c r="W25" s="10">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>0.89655172413793094</v>
+        <v>0.64814814814814814</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -6282,10 +6528,10 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="Q26" s="11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R26" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -6354,7 +6600,7 @@
         <v>0.79746835443037978</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
         <v>0.20253164556962025</v>
       </c>
       <c r="M28" s="9">
@@ -6370,30 +6616,30 @@
         <v>0.61904761904761896</v>
       </c>
       <c r="Q28" s="11">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="R28" s="12">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S28" s="9">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>0.98734177215189878</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>1.2658227848101266E-2</v>
+        <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>0.20253164556962025</v>
       </c>
       <c r="U28" s="9">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>0.97777777777777775</v>
+        <v>0.65116279069767447</v>
       </c>
       <c r="V28" s="9">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>0.97777777777777775</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="W28" s="10">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>0.97777777777777775</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -6420,10 +6666,10 @@
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
       <c r="Q29" s="11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R29" s="12">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -6492,7 +6738,7 @@
         <v>0.77215189873417722</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" ref="L31:L34" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
+        <f t="shared" ref="L31" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
         <v>0.22784810126582278</v>
       </c>
       <c r="M31" s="9">
@@ -6508,30 +6754,30 @@
         <v>0.59090909090909083</v>
       </c>
       <c r="Q31" s="11">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="R31" s="12">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S31" s="9">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>0.92405063291139244</v>
+        <v>0.82278481012658233</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31:T34" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
-        <v>7.5949367088607597E-2</v>
+        <f t="shared" ref="T31" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
+        <v>0.17721518987341772</v>
       </c>
       <c r="U31" s="9">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>0.83673469387755106</v>
+        <v>0.69767441860465118</v>
       </c>
       <c r="V31" s="9">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>0.91111111111111109</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W31" s="10">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>0.87234042553191482</v>
+        <v>0.68181818181818177</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -6558,10 +6804,10 @@
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
       <c r="Q32" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R32" s="12">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -6646,30 +6892,30 @@
         <v>0.67368421052631577</v>
       </c>
       <c r="Q34" s="11">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="R34" s="12">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S34" s="9">
         <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
-        <v>0.97468354430379744</v>
+        <v>0.82278481012658233</v>
       </c>
       <c r="T34" s="9">
         <f t="shared" ref="T34" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
-        <v>2.5316455696202531E-2</v>
+        <v>0.17721518987341772</v>
       </c>
       <c r="U34" s="9">
         <f>Q34/SUM(Q34,Q35)</f>
-        <v>0.94117647058823528</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V34" s="9">
         <f>Q34/SUM(Q34,R34)</f>
-        <v>0.97959183673469385</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="W34" s="10">
         <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
-        <v>0.96</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -6696,10 +6942,10 @@
       <c r="N35" s="9"/>
       <c r="O35" s="10"/>
       <c r="Q35" s="11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R35" s="12">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -6708,9 +6954,9 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="W36" s="25"/>
+      <c r="G36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="W36" s="22"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -6766,30 +7012,30 @@
         <v>0.61386138613861385</v>
       </c>
       <c r="Q37" s="11">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="R37" s="12">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S37" s="9">
         <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
-        <v>0.89240506329113922</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="T37" s="9">
         <f t="shared" ref="T37" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
-        <v>0.10759493670886076</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="U37" s="9">
         <f>Q37/SUM(Q37,Q38)</f>
-        <v>0.80392156862745101</v>
+        <v>0.66</v>
       </c>
       <c r="V37" s="9">
         <f>Q37/SUM(Q37,R37)</f>
-        <v>0.85416666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="W37" s="10">
         <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
-        <v>0.82828282828282829</v>
+        <v>0.67346938775510201</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -6816,10 +7062,10 @@
       <c r="N38" s="9"/>
       <c r="O38" s="10"/>
       <c r="Q38" s="11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R38" s="12">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -6828,76 +7074,76 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="W39" s="25"/>
+      <c r="G39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="W39" s="22"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="15">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="13">
         <f>SUM(C10:C37)/10</f>
         <v>0.74717777247034467</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <f>SUM(D10:D37)/10</f>
         <v>0.25282222752965533</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="13">
         <f>SUM(E10:E37)/10</f>
         <v>0.77178333362543894</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="13">
         <f>SUM(F10:F37)/10</f>
         <v>0.26944625862865618</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="14">
         <f>SUM(G10:G37)/10</f>
         <v>0.39617574216879653</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="15">
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="13">
         <f>SUM(K10:K37)/10</f>
         <v>0.76331303240187887</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="13">
         <f>SUM(L10:L37)/10</f>
         <v>0.23668696759812119</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="13">
         <f>SUM(M10:M37)/10</f>
         <v>0.64024170261458824</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="13">
         <f>SUM(N10:N37)/10</f>
         <v>0.57143976863259371</v>
       </c>
-      <c r="O40" s="16">
+      <c r="O40" s="14">
         <f>SUM(O10:O37)/10</f>
         <v>0.60098290967741319</v>
       </c>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="15">
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="13">
         <f>SUM(S10:S37)/10</f>
-        <v>0.93674318571601733</v>
-      </c>
-      <c r="T40" s="15">
+        <v>0.77832684607224845</v>
+      </c>
+      <c r="T40" s="13">
         <f>SUM(T10:T37)/10</f>
-        <v>6.325681428398261E-2</v>
-      </c>
-      <c r="U40" s="15">
+        <v>0.2216731539277515</v>
+      </c>
+      <c r="U40" s="13">
         <f>SUM(U10:U37)/10</f>
-        <v>0.89065950998395971</v>
-      </c>
-      <c r="V40" s="15">
+        <v>0.65788438343292788</v>
+      </c>
+      <c r="V40" s="13">
         <f>SUM(V10:V37)/10</f>
-        <v>0.91025809448850148</v>
-      </c>
-      <c r="W40" s="16">
+        <v>0.61683965621309722</v>
+      </c>
+      <c r="W40" s="14">
         <f>SUM(W10:W37)/10</f>
-        <v>0.89964252930403377</v>
+        <v>0.63446480093716406</v>
       </c>
     </row>
   </sheetData>
@@ -6912,12 +7158,1498 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512AC84B-5E62-4D2A-9EBF-AEDDA7BBE8B3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15">
+        <v>11</v>
+      </c>
+      <c r="C2" s="26">
+        <v>19</v>
+      </c>
+      <c r="D2" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="I7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="Q7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="28"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
+        <f>SUM(A10+B11)/SUM(A10:B11)</f>
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(A11,B10)/SUM(A10:B11)</f>
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="E10" s="9">
+        <f>A10/SUM(A10,A11)</f>
+        <v>0.66129032258064513</v>
+      </c>
+      <c r="F10" s="9">
+        <f>A10/SUM(A10,B10)</f>
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="G10" s="10">
+        <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
+        <v>0.71304347826086956</v>
+      </c>
+      <c r="I10" s="11">
+        <v>38</v>
+      </c>
+      <c r="J10" s="12">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9">
+        <f>SUM(I10+J11)/SUM(I10:J11)</f>
+        <v>0.83018867924528306</v>
+      </c>
+      <c r="L10" s="9">
+        <f>SUM(I11,J10)/SUM(I10:J11)</f>
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="M10" s="9">
+        <f>I10/SUM(I10,I11)</f>
+        <v>0.76</v>
+      </c>
+      <c r="N10" s="9">
+        <f>I10/SUM(I10,J10)</f>
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="O10" s="10">
+        <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
+        <v>0.73786407766990281</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="9" t="e">
+        <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="9" t="e">
+        <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="9" t="e">
+        <f>Q10/SUM(Q10,Q11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="9" t="e">
+        <f>Q10/SUM(Q10,R10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="10" t="e">
+        <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12">
+        <v>85</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="11">
+        <v>12</v>
+      </c>
+      <c r="J11" s="12">
+        <v>94</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>45</v>
+      </c>
+      <c r="B13" s="12">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUM(A13+B14)/SUM(A13:B14)</f>
+        <v>0.84276729559748431</v>
+      </c>
+      <c r="D13" s="9">
+        <f>SUM(A14,B13)/SUM(A13:B14)</f>
+        <v>0.15723270440251572</v>
+      </c>
+      <c r="E13" s="9">
+        <f>A13/SUM(A13,A14)</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="F13" s="9">
+        <f>A13/SUM(A13,B13)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="10">
+        <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
+        <v>0.78260869565217384</v>
+      </c>
+      <c r="I13" s="11">
+        <v>39</v>
+      </c>
+      <c r="J13" s="12">
+        <v>11</v>
+      </c>
+      <c r="K13" s="9">
+        <f>SUM(I13+J14)/SUM(I13:J14)</f>
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="L13" s="9">
+        <f>SUM(I14,J13)/SUM(I13:J14)</f>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="M13" s="9">
+        <f>I13/SUM(I13,I14)</f>
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="N13" s="9">
+        <f>I13/SUM(I13,J13)</f>
+        <v>0.78</v>
+      </c>
+      <c r="O13" s="10">
+        <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="9" t="e">
+        <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="9" t="e">
+        <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="9" t="e">
+        <f>Q13/SUM(Q13,Q14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="9" t="e">
+        <f>Q13/SUM(Q13,R13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="10" t="e">
+        <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12">
+        <v>89</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="11">
+        <v>7</v>
+      </c>
+      <c r="J14" s="12">
+        <v>102</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>39</v>
+      </c>
+      <c r="B16" s="12">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9">
+        <f>SUM(A16+B17)/SUM(A16:B17)</f>
+        <v>0.77215189873417722</v>
+      </c>
+      <c r="D16" s="9">
+        <f>SUM(A17,B16)/SUM(A16:B17)</f>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="E16" s="9">
+        <f>A16/SUM(A16,A17)</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="F16" s="9">
+        <f>A16/SUM(A16,B16)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G16" s="10">
+        <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="I16" s="11">
+        <v>33</v>
+      </c>
+      <c r="J16" s="12">
+        <v>12</v>
+      </c>
+      <c r="K16" s="9">
+        <f>SUM(I16+J17)/SUM(I16:J17)</f>
+        <v>0.86075949367088611</v>
+      </c>
+      <c r="L16" s="9">
+        <f>SUM(I17,J16)/SUM(I16:J17)</f>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="M16" s="9">
+        <f>I16/SUM(I16,I17)</f>
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="N16" s="9">
+        <f>I16/SUM(I16,J16)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="O16" s="10">
+        <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="9" t="e">
+        <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="9" t="e">
+        <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="9" t="e">
+        <f>Q16/SUM(Q16,Q17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="9" t="e">
+        <f>Q16/SUM(Q16,R16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="10" t="e">
+        <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12">
+        <v>83</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="I17" s="11">
+        <v>10</v>
+      </c>
+      <c r="J17" s="12">
+        <v>103</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9">
+        <f>SUM(A19+B20)/SUM(A19:B20)</f>
+        <v>0.78481012658227844</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(A20,B19)/SUM(A19:B20)</f>
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="E19" s="9">
+        <f>A19/SUM(A19,A20)</f>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="F19" s="9">
+        <f>A19/SUM(A19,B19)</f>
+        <v>0.92727272727272725</v>
+      </c>
+      <c r="G19" s="10">
+        <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="I19" s="11">
+        <v>40</v>
+      </c>
+      <c r="J19" s="12">
+        <v>15</v>
+      </c>
+      <c r="K19" s="9">
+        <f>SUM(I19+J20)/SUM(I19:J20)</f>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="L19" s="9">
+        <f>SUM(I20,J19)/SUM(I19:J20)</f>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="M19" s="9">
+        <f>I19/SUM(I19,I20)</f>
+        <v>0.78431372549019607</v>
+      </c>
+      <c r="N19" s="9">
+        <f>I19/SUM(I19,J19)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O19" s="10">
+        <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
+        <v>0.75471698113207542</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="9" t="e">
+        <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="9" t="e">
+        <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" s="9" t="e">
+        <f>Q19/SUM(Q19,Q20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" s="9" t="e">
+        <f>Q19/SUM(Q19,R19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" s="10" t="e">
+        <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>30</v>
+      </c>
+      <c r="B20" s="12">
+        <v>73</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="11">
+        <v>11</v>
+      </c>
+      <c r="J20" s="12">
+        <v>92</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>35</v>
+      </c>
+      <c r="B22" s="12">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
+        <f>SUM(A22+B23)/SUM(A22:B23)</f>
+        <v>0.81645569620253167</v>
+      </c>
+      <c r="D22" s="9">
+        <f>SUM(A23,B22)/SUM(A22:B23)</f>
+        <v>0.18354430379746836</v>
+      </c>
+      <c r="E22" s="9">
+        <f>A22/SUM(A22,A23)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F22" s="9">
+        <f>A22/SUM(A22,B22)</f>
+        <v>0.79545454545454541</v>
+      </c>
+      <c r="G22" s="10">
+        <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
+        <v>0.70707070707070707</v>
+      </c>
+      <c r="I22" s="11">
+        <v>30</v>
+      </c>
+      <c r="J22" s="12">
+        <v>14</v>
+      </c>
+      <c r="K22" s="9">
+        <f>SUM(I22+J23)/SUM(I22:J23)</f>
+        <v>0.86075949367088611</v>
+      </c>
+      <c r="L22" s="9">
+        <f>SUM(I23,J22)/SUM(I22:J23)</f>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="M22" s="9">
+        <f>I22/SUM(I22,I23)</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="N22" s="9">
+        <f>I22/SUM(I22,J22)</f>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="O22" s="10">
+        <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="9" t="e">
+        <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="9" t="e">
+        <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="9" t="e">
+        <f>Q22/SUM(Q22,Q23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="9" t="e">
+        <f>Q22/SUM(Q22,R22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="10" t="e">
+        <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12">
+        <v>94</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="I23" s="11">
+        <v>8</v>
+      </c>
+      <c r="J23" s="12">
+        <v>106</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>49</v>
+      </c>
+      <c r="B25" s="12">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9">
+        <f>SUM(A25+B26)/SUM(A25:B26)</f>
+        <v>0.79746835443037978</v>
+      </c>
+      <c r="D25" s="9">
+        <f>SUM(A26,B25)/SUM(A25:B26)</f>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="E25" s="9">
+        <f>A25/SUM(A25,A26)</f>
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="F25" s="9">
+        <f>A25/SUM(A25,B25)</f>
+        <v>0.83050847457627119</v>
+      </c>
+      <c r="G25" s="10">
+        <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
+        <v>0.75384615384615372</v>
+      </c>
+      <c r="I25" s="11">
+        <v>39</v>
+      </c>
+      <c r="J25" s="12">
+        <v>20</v>
+      </c>
+      <c r="K25" s="9">
+        <f>SUM(I25+J26)/SUM(I25:J26)</f>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="L25" s="9">
+        <f>SUM(I26,J25)/SUM(I25:J26)</f>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="M25" s="9">
+        <f>I25/SUM(I25,I26)</f>
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="N25" s="9">
+        <f>I25/SUM(I25,J25)</f>
+        <v>0.66101694915254239</v>
+      </c>
+      <c r="O25" s="10">
+        <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="9" t="e">
+        <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="9" t="e">
+        <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="9" t="e">
+        <f>Q25/SUM(Q25,Q26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="9" t="e">
+        <f>Q25/SUM(Q25,R25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="10" t="e">
+        <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="12">
+        <v>77</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="11">
+        <v>10</v>
+      </c>
+      <c r="J26" s="12">
+        <v>89</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>41</v>
+      </c>
+      <c r="B28" s="12">
+        <v>4</v>
+      </c>
+      <c r="C28" s="9">
+        <f>SUM(A28+B29)/SUM(A28:B29)</f>
+        <v>0.879746835443038</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
+        <v>0.12025316455696203</v>
+      </c>
+      <c r="E28" s="9">
+        <f>A28/SUM(A28,A29)</f>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="F28" s="9">
+        <f>A28/SUM(A28,B28)</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G28" s="10">
+        <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
+        <v>0.81188118811881183</v>
+      </c>
+      <c r="I28" s="11">
+        <v>31</v>
+      </c>
+      <c r="J28" s="12">
+        <v>14</v>
+      </c>
+      <c r="K28" s="9">
+        <f>SUM(I28+J29)/SUM(I28:J29)</f>
+        <v>0.85443037974683544</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <v>0.14556962025316456</v>
+      </c>
+      <c r="M28" s="9">
+        <f>I28/SUM(I28,I29)</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="N28" s="9">
+        <f>I28/SUM(I28,J28)</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="O28" s="10">
+        <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
+        <v>0.7294117647058822</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="9" t="e">
+        <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="9" t="e">
+        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="9" t="e">
+        <f>Q28/SUM(Q28,Q29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="9" t="e">
+        <f>Q28/SUM(Q28,R28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="10" t="e">
+        <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>15</v>
+      </c>
+      <c r="B29" s="12">
+        <v>98</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="I29" s="11">
+        <v>9</v>
+      </c>
+      <c r="J29" s="12">
+        <v>104</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="10"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9">
+        <f>SUM(A31+B32)/SUM(A31:B32)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="E31" s="9">
+        <f>A31/SUM(A31,A32)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F31" s="9">
+        <f>A31/SUM(A31,B31)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G31" s="10">
+        <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="I31" s="11">
+        <v>36</v>
+      </c>
+      <c r="J31" s="12">
+        <v>9</v>
+      </c>
+      <c r="K31" s="9">
+        <f>SUM(I31+J32)/SUM(I31:J32)</f>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="1"/>
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="M31" s="9">
+        <f>I31/SUM(I31,I32)</f>
+        <v>0.76595744680851063</v>
+      </c>
+      <c r="N31" s="9">
+        <f>I31/SUM(I31,J31)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O31" s="10">
+        <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
+        <v>0.78260869565217384</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="9" t="e">
+        <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" s="9" t="e">
+        <f>Q31/SUM(Q31,Q32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" s="9" t="e">
+        <f>Q31/SUM(Q31,R31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" s="10" t="e">
+        <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>21</v>
+      </c>
+      <c r="B32" s="12">
+        <v>92</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="I32" s="11">
+        <v>11</v>
+      </c>
+      <c r="J32" s="12">
+        <v>102</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="10"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>44</v>
+      </c>
+      <c r="B34" s="12">
+        <v>5</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUM(A34+B35)/SUM(A34:B35)</f>
+        <v>0.85443037974683544</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34" si="3">SUM(A35,B34)/SUM(A34:B35)</f>
+        <v>0.14556962025316456</v>
+      </c>
+      <c r="E34" s="9">
+        <f>A34/SUM(A34,A35)</f>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="F34" s="9">
+        <f>A34/SUM(A34,B34)</f>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="G34" s="10">
+        <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
+        <v>0.7927927927927928</v>
+      </c>
+      <c r="I34" s="11">
+        <v>38</v>
+      </c>
+      <c r="J34" s="12">
+        <v>11</v>
+      </c>
+      <c r="K34" s="9">
+        <f>SUM(I34+J35)/SUM(I34:J35)</f>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" ref="L34" si="4">SUM(I35,J34)/SUM(I34:J35)</f>
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="M34" s="9">
+        <f>I34/SUM(I34,I35)</f>
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="N34" s="9">
+        <f>I34/SUM(I34,J34)</f>
+        <v>0.77551020408163263</v>
+      </c>
+      <c r="O34" s="10">
+        <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
+        <v>0.79166666666666652</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="9" t="e">
+        <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="9" t="e">
+        <f t="shared" ref="T34" si="5">SUM(Q35,R34)/SUM(Q34:R35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="9" t="e">
+        <f>Q34/SUM(Q34,Q35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" s="9" t="e">
+        <f>Q34/SUM(Q34,R34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" s="10" t="e">
+        <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>18</v>
+      </c>
+      <c r="B35" s="12">
+        <v>91</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="I35" s="11">
+        <v>9</v>
+      </c>
+      <c r="J35" s="12">
+        <v>100</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="W36" s="22"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>41</v>
+      </c>
+      <c r="B37" s="12">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9">
+        <f>SUM(A37+B38)/SUM(A37:B38)</f>
+        <v>0.86075949367088611</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" ref="D37" si="6">SUM(A38,B37)/SUM(A37:B38)</f>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="E37" s="9">
+        <f>A37/SUM(A37,A38)</f>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="F37" s="9">
+        <f>A37/SUM(A37,B37)</f>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="G37" s="10">
+        <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
+        <v>0.78846153846153844</v>
+      </c>
+      <c r="I37" s="11">
+        <v>38</v>
+      </c>
+      <c r="J37" s="12">
+        <v>10</v>
+      </c>
+      <c r="K37" s="9">
+        <f>SUM(I37+J38)/SUM(I37:J38)</f>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37" si="7">SUM(I38,J37)/SUM(I37:J38)</f>
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="M37" s="9">
+        <f>I37/SUM(I37,I38)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="N37" s="9">
+        <f>I37/SUM(I37,J37)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="O37" s="10">
+        <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="9" t="e">
+        <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="9" t="e">
+        <f t="shared" ref="T37" si="8">SUM(Q38,R37)/SUM(Q37:R38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="9" t="e">
+        <f>Q37/SUM(Q37,Q38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" s="9" t="e">
+        <f>Q37/SUM(Q37,R37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" s="10" t="e">
+        <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>15</v>
+      </c>
+      <c r="B38" s="12">
+        <v>95</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="11">
+        <v>10</v>
+      </c>
+      <c r="J38" s="12">
+        <v>100</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="W39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="13">
+        <f>SUM(C10:C37)/10</f>
+        <v>0.82301568346469234</v>
+      </c>
+      <c r="D40" s="13">
+        <f>SUM(D10:D37)/10</f>
+        <v>0.17698431653530772</v>
+      </c>
+      <c r="E40" s="13">
+        <f>SUM(E10:E37)/10</f>
+        <v>0.66989126508969266</v>
+      </c>
+      <c r="F40" s="13">
+        <f>SUM(F10:F37)/10</f>
+        <v>0.86233909477485027</v>
+      </c>
+      <c r="G40" s="14">
+        <f>SUM(G10:G37)/10</f>
+        <v>0.75267722233759793</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="13">
+        <f>SUM(K10:K37)/10</f>
+        <v>0.85587532839742053</v>
+      </c>
+      <c r="L40" s="13">
+        <f>SUM(L10:L37)/10</f>
+        <v>0.14412467160257941</v>
+      </c>
+      <c r="M40" s="13">
+        <f>SUM(M10:M37)/10</f>
+        <v>0.78861084762423495</v>
+      </c>
+      <c r="N40" s="13">
+        <f>SUM(N10:N37)/10</f>
+        <v>0.73564880832894441</v>
+      </c>
+      <c r="O40" s="14">
+        <f>SUM(O10:O37)/10</f>
+        <v>0.76043643917887604</v>
+      </c>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="13" t="e">
+        <f>SUM(S10:S37)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="13" t="e">
+        <f>SUM(T10:T37)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" s="13" t="e">
+        <f>SUM(U10:U37)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V40" s="13" t="e">
+        <f>SUM(V10:V37)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" s="14" t="e">
+        <f>SUM(W10:W37)/10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="Q7:R7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -6927,7 +8659,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A25" sqref="A25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6948,443 +8680,443 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>19</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>19</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>19</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>19</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>13</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>15</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="16">
         <v>19</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="16">
         <v>19</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>11</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="16">
         <v>19</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="16">
         <v>15</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="15">
         <v>13</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="18">
         <v>19</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="18">
         <v>19</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="18">
         <v>15</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="18">
         <v>19</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="18">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="21" t="s">
         <v>15</v>
       </c>
     </row>

--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C242F8C-1098-4579-836F-A82898F2BDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6523AB4D-335A-49B9-8A29-61983E907687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Gráfico" sheetId="8" r:id="rId3"/>
     <sheet name="ORB" sheetId="7" r:id="rId4"/>
     <sheet name="SURF" sheetId="9" r:id="rId5"/>
-    <sheet name="Parametros" sheetId="4" r:id="rId6"/>
+    <sheet name="COMBINED" sheetId="10" r:id="rId6"/>
+    <sheet name="Parametros" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="46">
   <si>
     <t>ACC</t>
   </si>
@@ -156,6 +157,24 @@
   </si>
   <si>
     <t>SURF PCA 3</t>
+  </si>
+  <si>
+    <t>COMBINED</t>
+  </si>
+  <si>
+    <t>COMBINED PCA 2</t>
+  </si>
+  <si>
+    <t>COMBINED PCA 3</t>
+  </si>
+  <si>
+    <t>COMBINED PCA 5</t>
+  </si>
+  <si>
+    <t>COMBINED PCA 7</t>
+  </si>
+  <si>
+    <t>COMBINED PCA 9</t>
   </si>
 </sst>
 </file>
@@ -297,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +383,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,18 +1866,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="B7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="Q7" s="28" t="s">
+      <c r="J7" s="29"/>
+      <c r="Q7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="28"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -3426,18 +3448,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="B7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="Q7" s="28" t="s">
+      <c r="J7" s="29"/>
+      <c r="Q7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="28"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -5026,548 +5048,548 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
     </row>
     <row r="17" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
     </row>
     <row r="19" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
     </row>
     <row r="20" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
     </row>
     <row r="21" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
     </row>
     <row r="22" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
     </row>
     <row r="23" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
     </row>
     <row r="24" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
     </row>
     <row r="25" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
     </row>
     <row r="26" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
     </row>
     <row r="27" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
     </row>
     <row r="28" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
     </row>
     <row r="29" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
     </row>
     <row r="30" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
     </row>
     <row r="31" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
     </row>
     <row r="32" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
     </row>
     <row r="33" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
     </row>
     <row r="34" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
     </row>
     <row r="35" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
     </row>
     <row r="36" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
     </row>
     <row r="37" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
     </row>
     <row r="38" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5645,18 +5667,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="B7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="Q7" s="28" t="s">
+      <c r="J7" s="29"/>
+      <c r="Q7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="28"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -7160,8 +7182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512AC84B-5E62-4D2A-9EBF-AEDDA7BBE8B3}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7223,18 +7245,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="B7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="Q7" s="28" t="s">
+      <c r="J7" s="29"/>
+      <c r="Q7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="28"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -7365,27 +7387,31 @@
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
         <v>0.73786407766990281</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="9" t="e">
+      <c r="Q10" s="11">
+        <v>36</v>
+      </c>
+      <c r="R10" s="12">
+        <v>17</v>
+      </c>
+      <c r="S10" s="9">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="9" t="e">
+        <v>0.80503144654088055</v>
+      </c>
+      <c r="T10" s="9">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="9" t="e">
+        <v>0.19496855345911951</v>
+      </c>
+      <c r="U10" s="9">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" s="9" t="e">
+        <v>0.72</v>
+      </c>
+      <c r="V10" s="9">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" s="10" t="e">
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="W10" s="10">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>#DIV/0!</v>
+        <v>0.69902912621359214</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -7411,8 +7437,12 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
+      <c r="Q11" s="11">
+        <v>14</v>
+      </c>
+      <c r="R11" s="12">
+        <v>92</v>
+      </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -7495,27 +7525,31 @@
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
         <v>0.8125</v>
       </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="9" t="e">
+      <c r="Q13" s="11">
+        <v>36</v>
+      </c>
+      <c r="R13" s="12">
+        <v>14</v>
+      </c>
+      <c r="S13" s="9">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="9" t="e">
+        <v>0.85534591194968557</v>
+      </c>
+      <c r="T13" s="9">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" s="9" t="e">
+        <v>0.14465408805031446</v>
+      </c>
+      <c r="U13" s="9">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="9" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="V13" s="9">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" s="10" t="e">
+        <v>0.72</v>
+      </c>
+      <c r="W13" s="10">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>#DIV/0!</v>
+        <v>0.75789473684210518</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -7541,8 +7575,12 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="Q14" s="11">
+        <v>9</v>
+      </c>
+      <c r="R14" s="12">
+        <v>100</v>
+      </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -7625,27 +7663,31 @@
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
         <v>0.74999999999999989</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="9" t="e">
+      <c r="Q16" s="11">
+        <v>34</v>
+      </c>
+      <c r="R16" s="12">
+        <v>11</v>
+      </c>
+      <c r="S16" s="9">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="9" t="e">
+        <v>0.93854748603351956</v>
+      </c>
+      <c r="T16" s="9">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="9" t="e">
+        <v>6.1452513966480445E-2</v>
+      </c>
+      <c r="U16" s="9">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="9" t="e">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="V16" s="9">
         <f>Q16/SUM(Q16,R16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="10" t="e">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="W16" s="10">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>#DIV/0!</v>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -7671,8 +7713,12 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="11">
+        <v>11</v>
+      </c>
+      <c r="R17" s="12">
+        <v>302</v>
+      </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -7755,27 +7801,31 @@
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
         <v>0.75471698113207542</v>
       </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="9" t="e">
+      <c r="Q19" s="11">
+        <v>37</v>
+      </c>
+      <c r="R19" s="12">
+        <v>18</v>
+      </c>
+      <c r="S19" s="9">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="9" t="e">
+        <v>0.77848101265822789</v>
+      </c>
+      <c r="T19" s="9">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="9" t="e">
+        <v>0.22151898734177214</v>
+      </c>
+      <c r="U19" s="9">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="9" t="e">
+        <v>0.68518518518518523</v>
+      </c>
+      <c r="V19" s="9">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" s="10" t="e">
+        <v>0.67272727272727273</v>
+      </c>
+      <c r="W19" s="10">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>#DIV/0!</v>
+        <v>0.67889908256880738</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -7801,8 +7851,12 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
+      <c r="Q20" s="11">
+        <v>17</v>
+      </c>
+      <c r="R20" s="12">
+        <v>86</v>
+      </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
@@ -7885,27 +7939,31 @@
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
         <v>0.73170731707317072</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="9" t="e">
+      <c r="Q22" s="11">
+        <v>30</v>
+      </c>
+      <c r="R22" s="12">
+        <v>14</v>
+      </c>
+      <c r="S22" s="9">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="9" t="e">
+        <v>0.84177215189873422</v>
+      </c>
+      <c r="T22" s="9">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="9" t="e">
+        <v>0.15822784810126583</v>
+      </c>
+      <c r="U22" s="9">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="9" t="e">
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="V22" s="9">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W22" s="10" t="e">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="W22" s="10">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>#DIV/0!</v>
+        <v>0.70588235294117641</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -7931,8 +7989,12 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="12"/>
+      <c r="Q23" s="11">
+        <v>11</v>
+      </c>
+      <c r="R23" s="12">
+        <v>103</v>
+      </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -8015,27 +8077,31 @@
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="9" t="e">
+      <c r="Q25" s="11">
+        <v>36</v>
+      </c>
+      <c r="R25" s="12">
+        <v>23</v>
+      </c>
+      <c r="S25" s="9">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="9" t="e">
+        <v>0.79113924050632911</v>
+      </c>
+      <c r="T25" s="9">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="9" t="e">
+        <v>0.20886075949367089</v>
+      </c>
+      <c r="U25" s="9">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="9" t="e">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="V25" s="9">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="10" t="e">
+        <v>0.61016949152542377</v>
+      </c>
+      <c r="W25" s="10">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>#DIV/0!</v>
+        <v>0.68571428571428583</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -8061,8 +8127,12 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12"/>
+      <c r="Q26" s="11">
+        <v>10</v>
+      </c>
+      <c r="R26" s="12">
+        <v>89</v>
+      </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
@@ -8145,27 +8215,31 @@
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
         <v>0.7294117647058822</v>
       </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="9" t="e">
+      <c r="Q28" s="11">
+        <v>30</v>
+      </c>
+      <c r="R28" s="12">
+        <v>15</v>
+      </c>
+      <c r="S28" s="9">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="9" t="e">
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="T28" s="9">
         <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="9" t="e">
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="U28" s="9">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="9" t="e">
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="V28" s="9">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="10" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W28" s="10">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>#DIV/0!</v>
+        <v>0.69767441860465107</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -8191,8 +8265,12 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
+      <c r="Q29" s="11">
+        <v>11</v>
+      </c>
+      <c r="R29" s="12">
+        <v>102</v>
+      </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -8275,27 +8353,31 @@
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
         <v>0.78260869565217384</v>
       </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="9" t="e">
+      <c r="Q31" s="11">
+        <v>35</v>
+      </c>
+      <c r="R31" s="12">
+        <v>10</v>
+      </c>
+      <c r="S31" s="9">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="9" t="e">
+        <v>0.88607594936708856</v>
+      </c>
+      <c r="T31" s="9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="9" t="e">
+        <v>0.11392405063291139</v>
+      </c>
+      <c r="U31" s="9">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="9" t="e">
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="V31" s="9">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="10" t="e">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="W31" s="10">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>#DIV/0!</v>
+        <v>0.79545454545454553</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -8321,8 +8403,12 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="12"/>
+      <c r="Q32" s="11">
+        <v>8</v>
+      </c>
+      <c r="R32" s="12">
+        <v>105</v>
+      </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
@@ -8405,27 +8491,31 @@
         <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="9" t="e">
+      <c r="Q34" s="11">
+        <v>37</v>
+      </c>
+      <c r="R34" s="12">
+        <v>12</v>
+      </c>
+      <c r="S34" s="9">
         <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="9" t="e">
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="T34" s="9">
         <f t="shared" ref="T34" si="5">SUM(Q35,R34)/SUM(Q34:R35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" s="9" t="e">
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="U34" s="9">
         <f>Q34/SUM(Q34,Q35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V34" s="9" t="e">
+        <v>0.80434782608695654</v>
+      </c>
+      <c r="V34" s="9">
         <f>Q34/SUM(Q34,R34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" s="10" t="e">
+        <v>0.75510204081632648</v>
+      </c>
+      <c r="W34" s="10">
         <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
-        <v>#DIV/0!</v>
+        <v>0.77894736842105261</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -8451,8 +8541,12 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="10"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="12"/>
+      <c r="Q35" s="11">
+        <v>9</v>
+      </c>
+      <c r="R35" s="12">
+        <v>100</v>
+      </c>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -8517,27 +8611,31 @@
         <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="9" t="e">
+      <c r="Q37" s="11">
+        <v>37</v>
+      </c>
+      <c r="R37" s="12">
+        <v>11</v>
+      </c>
+      <c r="S37" s="9">
         <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="9" t="e">
+        <v>0.85443037974683544</v>
+      </c>
+      <c r="T37" s="9">
         <f t="shared" ref="T37" si="8">SUM(Q38,R37)/SUM(Q37:R38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" s="9" t="e">
+        <v>0.14556962025316456</v>
+      </c>
+      <c r="U37" s="9">
         <f>Q37/SUM(Q37,Q38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V37" s="9" t="e">
+        <v>0.75510204081632648</v>
+      </c>
+      <c r="V37" s="9">
         <f>Q37/SUM(Q37,R37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="10" t="e">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="W37" s="10">
         <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
-        <v>#DIV/0!</v>
+        <v>0.7628865979381444</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -8563,8 +8661,12 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="10"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="12"/>
+      <c r="Q38" s="11">
+        <v>12</v>
+      </c>
+      <c r="R38" s="12">
+        <v>98</v>
+      </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -8623,25 +8725,25 @@
       </c>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
-      <c r="S40" s="13" t="e">
+      <c r="S40" s="13">
         <f>SUM(S10:S37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40" s="13" t="e">
+        <v>0.8453355224270922</v>
+      </c>
+      <c r="T40" s="13">
         <f>SUM(T10:T37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U40" s="13" t="e">
+        <v>0.15466447757290788</v>
+      </c>
+      <c r="U40" s="13">
         <f>SUM(U10:U37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V40" s="13" t="e">
+        <v>0.75801674258146323</v>
+      </c>
+      <c r="V40" s="13">
         <f>SUM(V10:V37)/10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" s="14" t="e">
+        <v>0.70898956032394056</v>
+      </c>
+      <c r="W40" s="14">
         <f>SUM(W10:W37)/10</f>
-        <v>#DIV/0!</v>
+        <v>0.73179380702539165</v>
       </c>
     </row>
   </sheetData>
@@ -8655,11 +8757,3140 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C2F074-102E-4A0D-93DB-3BEB703B5D8B}">
+  <dimension ref="A1:Y79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15">
+        <v>13</v>
+      </c>
+      <c r="C2" s="27">
+        <v>19</v>
+      </c>
+      <c r="D2" s="27">
+        <v>19</v>
+      </c>
+      <c r="E2" s="27">
+        <v>15</v>
+      </c>
+      <c r="F2" s="27">
+        <v>19</v>
+      </c>
+      <c r="G2" s="27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="J7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="S7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="29"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>28</v>
+      </c>
+      <c r="B10" s="12">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9">
+        <f>SUM(A10+B11)/SUM(A10:B11)</f>
+        <v>0.80503144654088055</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(A11,B10)/SUM(A10:B11)</f>
+        <v>0.19496855345911951</v>
+      </c>
+      <c r="E10" s="9">
+        <f>A10/SUM(A10,A11)</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F10" s="9">
+        <f>A10/SUM(A10,B10)</f>
+        <v>0.52830188679245282</v>
+      </c>
+      <c r="G10" s="10">
+        <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
+        <v>0.64367816091954011</v>
+      </c>
+      <c r="J10" s="11">
+        <v>35</v>
+      </c>
+      <c r="K10" s="12">
+        <v>18</v>
+      </c>
+      <c r="L10" s="9">
+        <f>SUM(J10+K11)/SUM(J10:K11)</f>
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="M10" s="9">
+        <f>SUM(J11,K10)/SUM(J10:K11)</f>
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="N10" s="9">
+        <f>J10/SUM(J10,J11)</f>
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="9">
+        <f>J10/SUM(J10,K10)</f>
+        <v>0.660377358490566</v>
+      </c>
+      <c r="P10" s="10">
+        <f xml:space="preserve"> (2*N10*O10)/(O10+N10)</f>
+        <v>0.67961165048543692</v>
+      </c>
+      <c r="S10" s="11">
+        <v>33</v>
+      </c>
+      <c r="T10" s="12">
+        <v>20</v>
+      </c>
+      <c r="U10" s="9">
+        <f>SUM(S10+T11)/SUM(S10:T11)</f>
+        <v>0.78616352201257866</v>
+      </c>
+      <c r="V10" s="9">
+        <f>SUM(S11,T10)/SUM(S10:T11)</f>
+        <v>0.21383647798742139</v>
+      </c>
+      <c r="W10" s="9">
+        <f>S10/SUM(S10,S11)</f>
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="X10" s="9">
+        <f>S10/SUM(S10,T10)</f>
+        <v>0.62264150943396224</v>
+      </c>
+      <c r="Y10" s="10">
+        <f xml:space="preserve"> (2*W10*X10)/(X10+W10)</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="J11" s="11">
+        <v>15</v>
+      </c>
+      <c r="K11" s="12">
+        <v>91</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
+      <c r="S11" s="11">
+        <v>14</v>
+      </c>
+      <c r="T11" s="12">
+        <v>92</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUM(A13+B14)/SUM(A13:B14)</f>
+        <v>0.81132075471698117</v>
+      </c>
+      <c r="D13" s="9">
+        <f>SUM(A14,B13)/SUM(A13:B14)</f>
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="E13" s="9">
+        <f>A13/SUM(A13,A14)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F13" s="9">
+        <f>A13/SUM(A13,B13)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G13" s="10">
+        <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="J13" s="11">
+        <v>29</v>
+      </c>
+      <c r="K13" s="12">
+        <v>21</v>
+      </c>
+      <c r="L13" s="9">
+        <f>SUM(J13+K14)/SUM(J13:K14)</f>
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="M13" s="9">
+        <f>SUM(J14,K13)/SUM(J13:K14)</f>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="N13" s="9">
+        <f>J13/SUM(J13,J14)</f>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="O13" s="9">
+        <f>J13/SUM(J13,K13)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P13" s="10">
+        <f xml:space="preserve"> (2*N13*O13)/(O13+N13)</f>
+        <v>0.61702127659574457</v>
+      </c>
+      <c r="S13" s="11">
+        <v>31</v>
+      </c>
+      <c r="T13" s="12">
+        <v>19</v>
+      </c>
+      <c r="U13" s="9">
+        <f>SUM(S13+T14)/SUM(S13:T14)</f>
+        <v>0.79874213836477992</v>
+      </c>
+      <c r="V13" s="9">
+        <f>SUM(S14,T13)/SUM(S13:T14)</f>
+        <v>0.20125786163522014</v>
+      </c>
+      <c r="W13" s="9">
+        <f>S13/SUM(S13,S14)</f>
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="X13" s="9">
+        <f>S13/SUM(S13,T13)</f>
+        <v>0.62</v>
+      </c>
+      <c r="Y13" s="10">
+        <f xml:space="preserve"> (2*W13*X13)/(X13+W13)</f>
+        <v>0.65957446808510634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12">
+        <v>101</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="J14" s="11">
+        <v>15</v>
+      </c>
+      <c r="K14" s="12">
+        <v>94</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="S14" s="11">
+        <v>13</v>
+      </c>
+      <c r="T14" s="12">
+        <v>96</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>27</v>
+      </c>
+      <c r="B16" s="12">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9">
+        <f>SUM(A16+B17)/SUM(A16:B17)</f>
+        <v>0.83116883116883122</v>
+      </c>
+      <c r="D16" s="9">
+        <f>SUM(A17,B16)/SUM(A16:B17)</f>
+        <v>0.16883116883116883</v>
+      </c>
+      <c r="E16" s="9">
+        <f>A16/SUM(A16,A17)</f>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="F16" s="9">
+        <f>A16/SUM(A16,B16)</f>
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="10">
+        <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="J16" s="11">
+        <v>26</v>
+      </c>
+      <c r="K16" s="12">
+        <v>19</v>
+      </c>
+      <c r="L16" s="9">
+        <f>SUM(J16+K17)/SUM(J16:K17)</f>
+        <v>0.81645569620253167</v>
+      </c>
+      <c r="M16" s="9">
+        <f>SUM(J17,K16)/SUM(J16:K17)</f>
+        <v>0.18354430379746836</v>
+      </c>
+      <c r="N16" s="9">
+        <f>J16/SUM(J16,J17)</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="O16" s="9">
+        <f>J16/SUM(J16,K16)</f>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="P16" s="10">
+        <f xml:space="preserve"> (2*N16*O16)/(O16+N16)</f>
+        <v>0.64197530864197527</v>
+      </c>
+      <c r="S16" s="11">
+        <v>27</v>
+      </c>
+      <c r="T16" s="12">
+        <v>18</v>
+      </c>
+      <c r="U16" s="9">
+        <f>SUM(S16+T17)/SUM(S16:T17)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="V16" s="9">
+        <f>SUM(S17,T16)/SUM(S16:T17)</f>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="W16" s="9">
+        <f>S16/SUM(S16,S17)</f>
+        <v>0.75</v>
+      </c>
+      <c r="X16" s="9">
+        <f>S16/SUM(S16,T16)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Y16" s="10">
+        <f xml:space="preserve"> (2*W16*X16)/(X16+W16)</f>
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="J17" s="11">
+        <v>10</v>
+      </c>
+      <c r="K17" s="12">
+        <v>103</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
+      <c r="S17" s="11">
+        <v>9</v>
+      </c>
+      <c r="T17" s="12">
+        <v>104</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>28</v>
+      </c>
+      <c r="B19" s="12">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9">
+        <f>SUM(A19+B20)/SUM(A19:B20)</f>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(A20,B19)/SUM(A19:B20)</f>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="E19" s="9">
+        <f>A19/SUM(A19,A20)</f>
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="F19" s="9">
+        <f>A19/SUM(A19,B19)</f>
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="G19" s="10">
+        <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="J19" s="11">
+        <v>28</v>
+      </c>
+      <c r="K19" s="12">
+        <v>27</v>
+      </c>
+      <c r="L19" s="9">
+        <f>SUM(J19+K20)/SUM(J19:K20)</f>
+        <v>0.75316455696202533</v>
+      </c>
+      <c r="M19" s="9">
+        <f>SUM(J20,K19)/SUM(J19:K20)</f>
+        <v>0.24683544303797469</v>
+      </c>
+      <c r="N19" s="9">
+        <f>J19/SUM(J19,J20)</f>
+        <v>0.7</v>
+      </c>
+      <c r="O19" s="9">
+        <f>J19/SUM(J19,K19)</f>
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="P19" s="10">
+        <f xml:space="preserve"> (2*N19*O19)/(O19+N19)</f>
+        <v>0.58947368421052626</v>
+      </c>
+      <c r="S19" s="11">
+        <v>32</v>
+      </c>
+      <c r="T19" s="12">
+        <v>23</v>
+      </c>
+      <c r="U19" s="9">
+        <f>SUM(S19+T20)/SUM(S19:T20)</f>
+        <v>0.77848101265822789</v>
+      </c>
+      <c r="V19" s="9">
+        <f>SUM(S20,T19)/SUM(S19:T20)</f>
+        <v>0.22151898734177214</v>
+      </c>
+      <c r="W19" s="9">
+        <f>S19/SUM(S19,S20)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="X19" s="9">
+        <f>S19/SUM(S19,T19)</f>
+        <v>0.58181818181818179</v>
+      </c>
+      <c r="Y19" s="10">
+        <f xml:space="preserve"> (2*W19*X19)/(X19+W19)</f>
+        <v>0.64646464646464641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12">
+        <v>100</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="J20" s="11">
+        <v>12</v>
+      </c>
+      <c r="K20" s="12">
+        <v>91</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="S20" s="11">
+        <v>12</v>
+      </c>
+      <c r="T20" s="12">
+        <v>91</v>
+      </c>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="10"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>25</v>
+      </c>
+      <c r="B22" s="12">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <f>SUM(A22+B23)/SUM(A22:B23)</f>
+        <v>0.84177215189873422</v>
+      </c>
+      <c r="D22" s="9">
+        <f>SUM(A23,B22)/SUM(A22:B23)</f>
+        <v>0.15822784810126583</v>
+      </c>
+      <c r="E22" s="9">
+        <f>A22/SUM(A22,A23)</f>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="F22" s="9">
+        <f>A22/SUM(A22,B22)</f>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="G22" s="10">
+        <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J22" s="11">
+        <v>28</v>
+      </c>
+      <c r="K22" s="12">
+        <v>16</v>
+      </c>
+      <c r="L22" s="9">
+        <f>SUM(J22+K23)/SUM(J22:K23)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="M22" s="9">
+        <f>SUM(J23,K22)/SUM(J22:K23)</f>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="N22" s="9">
+        <f>J22/SUM(J22,J23)</f>
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="O22" s="9">
+        <f>J22/SUM(J22,K22)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="P22" s="10">
+        <f xml:space="preserve"> (2*N22*O22)/(O22+N22)</f>
+        <v>0.67469879518072295</v>
+      </c>
+      <c r="S22" s="11">
+        <v>30</v>
+      </c>
+      <c r="T22" s="12">
+        <v>14</v>
+      </c>
+      <c r="U22" s="9">
+        <f>SUM(S22+T23)/SUM(S22:T23)</f>
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="V22" s="9">
+        <f>SUM(S23,T22)/SUM(S22:T23)</f>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="W22" s="9">
+        <f>S22/SUM(S22,S23)</f>
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="X22" s="9">
+        <f>S22/SUM(S22,T22)</f>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="Y22" s="10">
+        <f xml:space="preserve"> (2*W22*X22)/(X22+W22)</f>
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12">
+        <v>108</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="J23" s="11">
+        <v>11</v>
+      </c>
+      <c r="K23" s="12">
+        <v>103</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="10"/>
+      <c r="S23" s="11">
+        <v>7</v>
+      </c>
+      <c r="T23" s="12">
+        <v>107</v>
+      </c>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="10"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="10"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>33</v>
+      </c>
+      <c r="B25" s="12">
+        <v>26</v>
+      </c>
+      <c r="C25" s="9">
+        <f>SUM(A25+B26)/SUM(A25:B26)</f>
+        <v>0.79746835443037978</v>
+      </c>
+      <c r="D25" s="9">
+        <f>SUM(A26,B25)/SUM(A25:B26)</f>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="E25" s="9">
+        <f>A25/SUM(A25,A26)</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="F25" s="9">
+        <f>A25/SUM(A25,B25)</f>
+        <v>0.55932203389830504</v>
+      </c>
+      <c r="G25" s="10">
+        <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
+        <v>0.67346938775510201</v>
+      </c>
+      <c r="J25" s="11">
+        <v>33</v>
+      </c>
+      <c r="K25" s="12">
+        <v>26</v>
+      </c>
+      <c r="L25" s="9">
+        <f>SUM(J25+K26)/SUM(J25:K26)</f>
+        <v>0.78481012658227844</v>
+      </c>
+      <c r="M25" s="9">
+        <f>SUM(J26,K25)/SUM(J25:K26)</f>
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="N25" s="9">
+        <f>J25/SUM(J25,J26)</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="O25" s="9">
+        <f>J25/SUM(J25,K25)</f>
+        <v>0.55932203389830504</v>
+      </c>
+      <c r="P25" s="10">
+        <f xml:space="preserve"> (2*N25*O25)/(O25+N25)</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="S25" s="11">
+        <v>34</v>
+      </c>
+      <c r="T25" s="12">
+        <v>25</v>
+      </c>
+      <c r="U25" s="9">
+        <f>SUM(S25+T26)/SUM(S25:T26)</f>
+        <v>0.77215189873417722</v>
+      </c>
+      <c r="V25" s="9">
+        <f>SUM(S26,T25)/SUM(S25:T26)</f>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="W25" s="9">
+        <f>S25/SUM(S25,S26)</f>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="X25" s="9">
+        <f>S25/SUM(S25,T25)</f>
+        <v>0.57627118644067798</v>
+      </c>
+      <c r="Y25" s="10">
+        <f xml:space="preserve"> (2*W25*X25)/(X25+W25)</f>
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12">
+        <v>93</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="J26" s="11">
+        <v>8</v>
+      </c>
+      <c r="K26" s="12">
+        <v>91</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="10"/>
+      <c r="S26" s="11">
+        <v>11</v>
+      </c>
+      <c r="T26" s="12">
+        <v>88</v>
+      </c>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="10"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="10"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>23</v>
+      </c>
+      <c r="B28" s="12">
+        <v>22</v>
+      </c>
+      <c r="C28" s="9">
+        <f>SUM(A28+B29)/SUM(A28:B29)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="E28" s="9">
+        <f>A28/SUM(A28,A29)</f>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="F28" s="9">
+        <f>A28/SUM(A28,B28)</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="G28" s="10">
+        <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
+        <v>0.63013698630136983</v>
+      </c>
+      <c r="J28" s="11">
+        <v>25</v>
+      </c>
+      <c r="K28" s="12">
+        <v>20</v>
+      </c>
+      <c r="L28" s="9">
+        <f>SUM(J28+K29)/SUM(J28:K29)</f>
+        <v>0.82278481012658233</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" ref="M28:M31" si="1">SUM(J29,K28)/SUM(J28:K29)</f>
+        <v>0.17721518987341772</v>
+      </c>
+      <c r="N28" s="9">
+        <f>J28/SUM(J28,J29)</f>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="O28" s="9">
+        <f>J28/SUM(J28,K28)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="P28" s="10">
+        <f xml:space="preserve"> (2*N28*O28)/(O28+N28)</f>
+        <v>0.64102564102564108</v>
+      </c>
+      <c r="S28" s="11">
+        <v>24</v>
+      </c>
+      <c r="T28" s="12">
+        <v>21</v>
+      </c>
+      <c r="U28" s="9">
+        <f>SUM(S28+T29)/SUM(S28:T29)</f>
+        <v>0.79746835443037978</v>
+      </c>
+      <c r="V28" s="9">
+        <f t="shared" ref="V28:V31" si="2">SUM(S29,T28)/SUM(S28:T29)</f>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="W28" s="9">
+        <f>S28/SUM(S28,S29)</f>
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="X28" s="9">
+        <f>S28/SUM(S28,T28)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="Y28" s="10">
+        <f xml:space="preserve"> (2*W28*X28)/(X28+W28)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12">
+        <v>108</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="J29" s="11">
+        <v>8</v>
+      </c>
+      <c r="K29" s="12">
+        <v>105</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="10"/>
+      <c r="S29" s="11">
+        <v>11</v>
+      </c>
+      <c r="T29" s="12">
+        <v>102</v>
+      </c>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="10"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="10"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="10"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>27</v>
+      </c>
+      <c r="B31" s="12">
+        <v>18</v>
+      </c>
+      <c r="C31" s="9">
+        <f>SUM(A31+B32)/SUM(A31:B32)</f>
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="E31" s="9">
+        <f>A31/SUM(A31,A32)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="9">
+        <f>A31/SUM(A31,B31)</f>
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="10">
+        <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="J31" s="11">
+        <v>30</v>
+      </c>
+      <c r="K31" s="12">
+        <v>15</v>
+      </c>
+      <c r="L31" s="9">
+        <f>SUM(J31+K32)/SUM(J31:K32)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="1"/>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="N31" s="9">
+        <f>J31/SUM(J31,J32)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O31" s="9">
+        <f>J31/SUM(J31,K31)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P31" s="10">
+        <f xml:space="preserve"> (2*N31*O31)/(O31+N31)</f>
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="S31" s="11">
+        <v>26</v>
+      </c>
+      <c r="T31" s="12">
+        <v>19</v>
+      </c>
+      <c r="U31" s="9">
+        <f>SUM(S31+T32)/SUM(S31:T32)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" ref="V31:V34" si="3">SUM(S32,T31)/SUM(S31:T32)</f>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="W31" s="9">
+        <f>S31/SUM(S31,S32)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="X31" s="9">
+        <f>S31/SUM(S31,T31)</f>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="Y31" s="10">
+        <f xml:space="preserve"> (2*W31*X31)/(X31+W31)</f>
+        <v>0.65822784810126578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>3</v>
+      </c>
+      <c r="B32" s="12">
+        <v>110</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="J32" s="11">
+        <v>12</v>
+      </c>
+      <c r="K32" s="12">
+        <v>101</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="10"/>
+      <c r="S32" s="11">
+        <v>8</v>
+      </c>
+      <c r="T32" s="12">
+        <v>105</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="10"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="10"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="10"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>34</v>
+      </c>
+      <c r="B34" s="12">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUM(A34+B35)/SUM(A34:B35)</f>
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34" si="4">SUM(A35,B34)/SUM(A34:B35)</f>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="E34" s="9">
+        <f>A34/SUM(A34,A35)</f>
+        <v>0.85</v>
+      </c>
+      <c r="F34" s="9">
+        <f>A34/SUM(A34,B34)</f>
+        <v>0.69387755102040816</v>
+      </c>
+      <c r="G34" s="10">
+        <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
+        <v>0.7640449438202247</v>
+      </c>
+      <c r="J34" s="11">
+        <v>35</v>
+      </c>
+      <c r="K34" s="12">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9">
+        <f>SUM(J34+K35)/SUM(J34:K35)</f>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" ref="M34" si="5">SUM(J35,K34)/SUM(J34:K35)</f>
+        <v>0.15189873417721519</v>
+      </c>
+      <c r="N34" s="9">
+        <f>J34/SUM(J34,J35)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="O34" s="9">
+        <f>J34/SUM(J34,K34)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P34" s="10">
+        <f xml:space="preserve"> (2*N34*O34)/(O34+N34)</f>
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="S34" s="11">
+        <v>33</v>
+      </c>
+      <c r="T34" s="12">
+        <v>16</v>
+      </c>
+      <c r="U34" s="9">
+        <f>SUM(S34+T35)/SUM(S34:T35)</f>
+        <v>0.84177215189873422</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" ref="V34" si="6">SUM(S35,T34)/SUM(S34:T35)</f>
+        <v>0.15822784810126583</v>
+      </c>
+      <c r="W34" s="9">
+        <f>S34/SUM(S34,S35)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="X34" s="9">
+        <f>S34/SUM(S34,T34)</f>
+        <v>0.67346938775510201</v>
+      </c>
+      <c r="Y34" s="10">
+        <f xml:space="preserve"> (2*W34*X34)/(X34+W34)</f>
+        <v>0.72527472527472525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>6</v>
+      </c>
+      <c r="B35" s="12">
+        <v>103</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="J35" s="11">
+        <v>10</v>
+      </c>
+      <c r="K35" s="12">
+        <v>99</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
+      <c r="S35" s="11">
+        <v>9</v>
+      </c>
+      <c r="T35" s="12">
+        <v>100</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="10"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G36" s="22"/>
+      <c r="J36" s="24"/>
+      <c r="P36" s="22"/>
+      <c r="S36" s="24"/>
+      <c r="Y36" s="22"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>29</v>
+      </c>
+      <c r="B37" s="12">
+        <v>19</v>
+      </c>
+      <c r="C37" s="9">
+        <f>SUM(A37+B38)/SUM(A37:B38)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" ref="D37" si="7">SUM(A38,B37)/SUM(A37:B38)</f>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="E37" s="9">
+        <f>A37/SUM(A37,A38)</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="F37" s="9">
+        <f>A37/SUM(A37,B37)</f>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G37" s="10">
+        <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
+        <v>0.68235294117647061</v>
+      </c>
+      <c r="J37" s="11">
+        <v>39</v>
+      </c>
+      <c r="K37" s="12">
+        <v>19</v>
+      </c>
+      <c r="L37" s="9">
+        <f>SUM(J37+K38)/SUM(J37:K38)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" ref="M37" si="8">SUM(J38,K37)/SUM(J37:K38)</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="N37" s="9">
+        <f>J37/SUM(J37,J38)</f>
+        <v>0.70909090909090911</v>
+      </c>
+      <c r="O37" s="9">
+        <f>J37/SUM(J37,K37)</f>
+        <v>0.67241379310344829</v>
+      </c>
+      <c r="P37" s="10">
+        <f xml:space="preserve"> (2*N37*O37)/(O37+N37)</f>
+        <v>0.69026548672566379</v>
+      </c>
+      <c r="S37" s="11">
+        <v>32</v>
+      </c>
+      <c r="T37" s="12">
+        <v>16</v>
+      </c>
+      <c r="U37" s="9">
+        <f>SUM(S37+T38)/SUM(S37:T38)</f>
+        <v>0.79746835443037978</v>
+      </c>
+      <c r="V37" s="9">
+        <f t="shared" ref="V37" si="9">SUM(S38,T37)/SUM(S37:T38)</f>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="W37" s="9">
+        <f>S37/SUM(S37,S38)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X37" s="9">
+        <f>S37/SUM(S37,T37)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y37" s="10">
+        <f xml:space="preserve"> (2*W37*X37)/(X37+W37)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>8</v>
+      </c>
+      <c r="B38" s="12">
+        <v>102</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="J38" s="11">
+        <v>16</v>
+      </c>
+      <c r="K38" s="12">
+        <v>94</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="10"/>
+      <c r="S38" s="11">
+        <v>16</v>
+      </c>
+      <c r="T38" s="12">
+        <v>94</v>
+      </c>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="10"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G39" s="22"/>
+      <c r="J39" s="24"/>
+      <c r="P39" s="22"/>
+      <c r="S39" s="24"/>
+      <c r="Y39" s="22"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="13">
+        <f>SUM(C10:C37)/10</f>
+        <v>0.82892931843254269</v>
+      </c>
+      <c r="D40" s="13">
+        <f>SUM(D10:D37)/10</f>
+        <v>0.17107068156745733</v>
+      </c>
+      <c r="E40" s="13">
+        <f>SUM(E10:E37)/10</f>
+        <v>0.82837793816920935</v>
+      </c>
+      <c r="F40" s="13">
+        <f>SUM(F10:F37)/10</f>
+        <v>0.57340519767616716</v>
+      </c>
+      <c r="G40" s="14">
+        <f>SUM(G10:G37)/10</f>
+        <v>0.67576746680347233</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="13">
+        <f>SUM(L10:L37)/10</f>
+        <v>0.80412487063131921</v>
+      </c>
+      <c r="M40" s="13">
+        <f>SUM(M10:M37)/10</f>
+        <v>0.19587512936868084</v>
+      </c>
+      <c r="N40" s="13">
+        <f>SUM(N10:N37)/10</f>
+        <v>0.72628700567724958</v>
+      </c>
+      <c r="O40" s="13">
+        <f>SUM(O10:O37)/10</f>
+        <v>0.6131853445232579</v>
+      </c>
+      <c r="P40" s="14">
+        <f>SUM(P10:P37)/10</f>
+        <v>0.66284078663433332</v>
+      </c>
+      <c r="S40" s="25"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="13">
+        <f>SUM(U10:U37)/10</f>
+        <v>0.80975638882254608</v>
+      </c>
+      <c r="V40" s="13">
+        <f>SUM(V10:V37)/10</f>
+        <v>0.190243611177454</v>
+      </c>
+      <c r="W40" s="13">
+        <f>SUM(W10:W37)/10</f>
+        <v>0.7353113328207197</v>
+      </c>
+      <c r="X40" s="13">
+        <f>SUM(X10:X37)/10</f>
+        <v>0.61337962250438838</v>
+      </c>
+      <c r="Y40" s="14">
+        <f>SUM(Y10:Y37)/10</f>
+        <v>0.66774619158459714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="J46" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="S46" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" s="29"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="10"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="10"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>32</v>
+      </c>
+      <c r="B49" s="12">
+        <v>21</v>
+      </c>
+      <c r="C49" s="9">
+        <f>SUM(A49+B50)/SUM(A49:B50)</f>
+        <v>0.79874213836477992</v>
+      </c>
+      <c r="D49" s="9">
+        <f>SUM(A50,B49)/SUM(A49:B50)</f>
+        <v>0.20125786163522014</v>
+      </c>
+      <c r="E49" s="9">
+        <f>A49/SUM(A49,A50)</f>
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="F49" s="9">
+        <f>A49/SUM(A49,B49)</f>
+        <v>0.60377358490566035</v>
+      </c>
+      <c r="G49" s="10">
+        <f xml:space="preserve"> (2*E49*F49)/(F49+E49)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J49" s="11">
+        <v>32</v>
+      </c>
+      <c r="K49" s="12">
+        <v>21</v>
+      </c>
+      <c r="L49" s="9">
+        <f>SUM(J49+K50)/SUM(J49:K50)</f>
+        <v>0.77987421383647804</v>
+      </c>
+      <c r="M49" s="9">
+        <f>SUM(J50,K49)/SUM(J49:K50)</f>
+        <v>0.22012578616352202</v>
+      </c>
+      <c r="N49" s="9">
+        <f>J49/SUM(J49,J50)</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="O49" s="9">
+        <f>J49/SUM(J49,K49)</f>
+        <v>0.60377358490566035</v>
+      </c>
+      <c r="P49" s="10">
+        <f xml:space="preserve"> (2*N49*O49)/(O49+N49)</f>
+        <v>0.64646464646464652</v>
+      </c>
+      <c r="S49" s="11">
+        <v>34</v>
+      </c>
+      <c r="T49" s="12">
+        <v>19</v>
+      </c>
+      <c r="U49" s="9">
+        <f>SUM(S49+T50)/SUM(S49:T50)</f>
+        <v>0.80503144654088055</v>
+      </c>
+      <c r="V49" s="9">
+        <f>SUM(S50,T49)/SUM(S49:T50)</f>
+        <v>0.19496855345911951</v>
+      </c>
+      <c r="W49" s="9">
+        <f>S49/SUM(S49,S50)</f>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="X49" s="9">
+        <f>S49/SUM(S49,T49)</f>
+        <v>0.64150943396226412</v>
+      </c>
+      <c r="Y49" s="10">
+        <f xml:space="preserve"> (2*W49*X49)/(X49+W49)</f>
+        <v>0.68686868686868674</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>11</v>
+      </c>
+      <c r="B50" s="12">
+        <v>95</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="J50" s="11">
+        <v>14</v>
+      </c>
+      <c r="K50" s="12">
+        <v>92</v>
+      </c>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="10"/>
+      <c r="S50" s="11">
+        <v>12</v>
+      </c>
+      <c r="T50" s="12">
+        <v>94</v>
+      </c>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="10"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="10"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="10"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>34</v>
+      </c>
+      <c r="B52" s="12">
+        <v>16</v>
+      </c>
+      <c r="C52" s="9">
+        <f>SUM(A52+B53)/SUM(A52:B53)</f>
+        <v>0.81132075471698117</v>
+      </c>
+      <c r="D52" s="9">
+        <f>SUM(A53,B52)/SUM(A52:B53)</f>
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="E52" s="9">
+        <f>A52/SUM(A52,A53)</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F52" s="9">
+        <f>A52/SUM(A52,B52)</f>
+        <v>0.68</v>
+      </c>
+      <c r="G52" s="10">
+        <f xml:space="preserve"> (2*E52*F52)/(F52+E52)</f>
+        <v>0.69387755102040827</v>
+      </c>
+      <c r="J52" s="11">
+        <v>37</v>
+      </c>
+      <c r="K52" s="12">
+        <v>13</v>
+      </c>
+      <c r="L52" s="9">
+        <f>SUM(J52+K53)/SUM(J52:K53)</f>
+        <v>0.82389937106918243</v>
+      </c>
+      <c r="M52" s="9">
+        <f>SUM(J53,K52)/SUM(J52:K53)</f>
+        <v>0.1761006289308176</v>
+      </c>
+      <c r="N52" s="9">
+        <f>J52/SUM(J52,J53)</f>
+        <v>0.71153846153846156</v>
+      </c>
+      <c r="O52" s="9">
+        <f>J52/SUM(J52,K52)</f>
+        <v>0.74</v>
+      </c>
+      <c r="P52" s="10">
+        <f xml:space="preserve"> (2*N52*O52)/(O52+N52)</f>
+        <v>0.72549019607843135</v>
+      </c>
+      <c r="S52" s="11">
+        <v>36</v>
+      </c>
+      <c r="T52" s="12">
+        <v>14</v>
+      </c>
+      <c r="U52" s="9">
+        <f>SUM(S52+T53)/SUM(S52:T53)</f>
+        <v>0.83018867924528306</v>
+      </c>
+      <c r="V52" s="9">
+        <f>SUM(S53,T52)/SUM(S52:T53)</f>
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="W52" s="9">
+        <f>S52/SUM(S52,S53)</f>
+        <v>0.73469387755102045</v>
+      </c>
+      <c r="X52" s="9">
+        <f>S52/SUM(S52,T52)</f>
+        <v>0.72</v>
+      </c>
+      <c r="Y52" s="10">
+        <f xml:space="preserve"> (2*W52*X52)/(X52+W52)</f>
+        <v>0.72727272727272718</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>14</v>
+      </c>
+      <c r="B53" s="12">
+        <v>95</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="J53" s="11">
+        <v>15</v>
+      </c>
+      <c r="K53" s="12">
+        <v>94</v>
+      </c>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="10"/>
+      <c r="S53" s="11">
+        <v>13</v>
+      </c>
+      <c r="T53" s="12">
+        <v>96</v>
+      </c>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="10"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="10"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="10"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>28</v>
+      </c>
+      <c r="B55" s="12">
+        <v>17</v>
+      </c>
+      <c r="C55" s="9">
+        <f>SUM(A55+B56)/SUM(A55:B56)</f>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="D55" s="9">
+        <f>SUM(A56,B55)/SUM(A55:B56)</f>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="E55" s="9">
+        <f>A55/SUM(A55,A56)</f>
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="F55" s="9">
+        <f>A55/SUM(A55,B55)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="G55" s="10">
+        <f xml:space="preserve"> (2*E55*F55)/(F55+E55)</f>
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="J55" s="11">
+        <v>32</v>
+      </c>
+      <c r="K55" s="12">
+        <v>13</v>
+      </c>
+      <c r="L55" s="9">
+        <f>SUM(J55+K56)/SUM(J55:K56)</f>
+        <v>0.879746835443038</v>
+      </c>
+      <c r="M55" s="9">
+        <f>SUM(J56,K55)/SUM(J55:K56)</f>
+        <v>0.12025316455696203</v>
+      </c>
+      <c r="N55" s="9">
+        <f>J55/SUM(J55,J56)</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="O55" s="9">
+        <f>J55/SUM(J55,K55)</f>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="P55" s="10">
+        <f xml:space="preserve"> (2*N55*O55)/(O55+N55)</f>
+        <v>0.77108433734939752</v>
+      </c>
+      <c r="S55" s="11">
+        <v>31</v>
+      </c>
+      <c r="T55" s="12">
+        <v>14</v>
+      </c>
+      <c r="U55" s="9">
+        <f>SUM(S55+T56)/SUM(S55:T56)</f>
+        <v>0.85443037974683544</v>
+      </c>
+      <c r="V55" s="9">
+        <f>SUM(S56,T55)/SUM(S55:T56)</f>
+        <v>0.14556962025316456</v>
+      </c>
+      <c r="W55" s="9">
+        <f>S55/SUM(S55,S56)</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="X55" s="9">
+        <f>S55/SUM(S55,T55)</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="Y55" s="10">
+        <f xml:space="preserve"> (2*W55*X55)/(X55+W55)</f>
+        <v>0.7294117647058822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>9</v>
+      </c>
+      <c r="B56" s="12">
+        <v>104</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10"/>
+      <c r="J56" s="11">
+        <v>6</v>
+      </c>
+      <c r="K56" s="12">
+        <v>107</v>
+      </c>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="10"/>
+      <c r="S56" s="11">
+        <v>9</v>
+      </c>
+      <c r="T56" s="12">
+        <v>104</v>
+      </c>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="10"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="10"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="10"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>29</v>
+      </c>
+      <c r="B58" s="12">
+        <v>26</v>
+      </c>
+      <c r="C58" s="9">
+        <f>SUM(A58+B59)/SUM(A58:B59)</f>
+        <v>0.78481012658227844</v>
+      </c>
+      <c r="D58" s="9">
+        <f>SUM(A59,B58)/SUM(A58:B59)</f>
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="E58" s="9">
+        <f>A58/SUM(A58,A59)</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="F58" s="9">
+        <f>A58/SUM(A58,B58)</f>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="G58" s="10">
+        <f xml:space="preserve"> (2*E58*F58)/(F58+E58)</f>
+        <v>0.63043478260869557</v>
+      </c>
+      <c r="J58" s="11">
+        <v>33</v>
+      </c>
+      <c r="K58" s="12">
+        <v>22</v>
+      </c>
+      <c r="L58" s="9">
+        <f>SUM(J58+K59)/SUM(J58:K59)</f>
+        <v>0.77215189873417722</v>
+      </c>
+      <c r="M58" s="9">
+        <f>SUM(J59,K58)/SUM(J58:K59)</f>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="N58" s="9">
+        <f>J58/SUM(J58,J59)</f>
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="O58" s="9">
+        <f>J58/SUM(J58,K58)</f>
+        <v>0.6</v>
+      </c>
+      <c r="P58" s="10">
+        <f xml:space="preserve"> (2*N58*O58)/(O58+N58)</f>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="S58" s="11">
+        <v>33</v>
+      </c>
+      <c r="T58" s="12">
+        <v>22</v>
+      </c>
+      <c r="U58" s="9">
+        <f>SUM(S58+T59)/SUM(S58:T59)</f>
+        <v>0.78481012658227844</v>
+      </c>
+      <c r="V58" s="9">
+        <f>SUM(S59,T58)/SUM(S58:T59)</f>
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="W58" s="9">
+        <f>S58/SUM(S58,S59)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="X58" s="9">
+        <f>S58/SUM(S58,T58)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Y58" s="10">
+        <f xml:space="preserve"> (2*W58*X58)/(X58+W58)</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>8</v>
+      </c>
+      <c r="B59" s="12">
+        <v>95</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+      <c r="J59" s="11">
+        <v>14</v>
+      </c>
+      <c r="K59" s="12">
+        <v>89</v>
+      </c>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="10"/>
+      <c r="S59" s="11">
+        <v>12</v>
+      </c>
+      <c r="T59" s="12">
+        <v>91</v>
+      </c>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="10"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="10"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="10"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>29</v>
+      </c>
+      <c r="B61" s="12">
+        <v>15</v>
+      </c>
+      <c r="C61" s="9">
+        <f>SUM(A61+B62)/SUM(A61:B62)</f>
+        <v>0.84177215189873422</v>
+      </c>
+      <c r="D61" s="9">
+        <f>SUM(A62,B61)/SUM(A61:B62)</f>
+        <v>0.15822784810126583</v>
+      </c>
+      <c r="E61" s="9">
+        <f>A61/SUM(A61,A62)</f>
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="F61" s="9">
+        <f>A61/SUM(A61,B61)</f>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="G61" s="10">
+        <f xml:space="preserve"> (2*E61*F61)/(F61+E61)</f>
+        <v>0.69879518072289148</v>
+      </c>
+      <c r="J61" s="11">
+        <v>31</v>
+      </c>
+      <c r="K61" s="12">
+        <v>13</v>
+      </c>
+      <c r="L61" s="9">
+        <f>SUM(J61+K62)/SUM(J61:K62)</f>
+        <v>0.84177215189873422</v>
+      </c>
+      <c r="M61" s="9">
+        <f>SUM(J62,K61)/SUM(J61:K62)</f>
+        <v>0.15822784810126583</v>
+      </c>
+      <c r="N61" s="9">
+        <f>J61/SUM(J61,J62)</f>
+        <v>0.72093023255813948</v>
+      </c>
+      <c r="O61" s="9">
+        <f>J61/SUM(J61,K61)</f>
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="P61" s="10">
+        <f xml:space="preserve"> (2*N61*O61)/(O61+N61)</f>
+        <v>0.71264367816091956</v>
+      </c>
+      <c r="S61" s="11">
+        <v>28</v>
+      </c>
+      <c r="T61" s="12">
+        <v>16</v>
+      </c>
+      <c r="U61" s="9">
+        <f>SUM(S61+T62)/SUM(S61:T62)</f>
+        <v>0.82278481012658233</v>
+      </c>
+      <c r="V61" s="9">
+        <f>SUM(S62,T61)/SUM(S61:T62)</f>
+        <v>0.17721518987341772</v>
+      </c>
+      <c r="W61" s="9">
+        <f>S61/SUM(S61,S62)</f>
+        <v>0.7</v>
+      </c>
+      <c r="X61" s="9">
+        <f>S61/SUM(S61,T61)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="Y61" s="10">
+        <f xml:space="preserve"> (2*W61*X61)/(X61+W61)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>10</v>
+      </c>
+      <c r="B62" s="12">
+        <v>104</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="10"/>
+      <c r="J62" s="11">
+        <v>12</v>
+      </c>
+      <c r="K62" s="12">
+        <v>102</v>
+      </c>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="10"/>
+      <c r="S62" s="11">
+        <v>12</v>
+      </c>
+      <c r="T62" s="12">
+        <v>102</v>
+      </c>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="10"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="10"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="10"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>35</v>
+      </c>
+      <c r="B64" s="12">
+        <v>21</v>
+      </c>
+      <c r="C64" s="9">
+        <f>SUM(A64+B65)/SUM(A64:B65)</f>
+        <v>0.8193548387096774</v>
+      </c>
+      <c r="D64" s="9">
+        <f>SUM(A65,B64)/SUM(A64:B65)</f>
+        <v>0.18064516129032257</v>
+      </c>
+      <c r="E64" s="9">
+        <f>A64/SUM(A64,A65)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F64" s="9">
+        <f>A64/SUM(A64,B64)</f>
+        <v>0.625</v>
+      </c>
+      <c r="G64" s="10">
+        <f xml:space="preserve"> (2*E64*F64)/(F64+E64)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J64" s="11">
+        <v>38</v>
+      </c>
+      <c r="K64" s="12">
+        <v>21</v>
+      </c>
+      <c r="L64" s="9">
+        <f>SUM(J64+K65)/SUM(J64:K65)</f>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="M64" s="9">
+        <f>SUM(J65,K64)/SUM(J64:K65)</f>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="N64" s="9">
+        <f>J64/SUM(J64,J65)</f>
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="O64" s="9">
+        <f>J64/SUM(J64,K64)</f>
+        <v>0.64406779661016944</v>
+      </c>
+      <c r="P64" s="10">
+        <f xml:space="preserve"> (2*N64*O64)/(O64+N64)</f>
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="S64" s="11">
+        <v>38</v>
+      </c>
+      <c r="T64" s="12">
+        <v>21</v>
+      </c>
+      <c r="U64" s="9">
+        <f>SUM(S64+T65)/SUM(S64:T65)</f>
+        <v>0.79746835443037978</v>
+      </c>
+      <c r="V64" s="9">
+        <f>SUM(S65,T64)/SUM(S64:T65)</f>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="W64" s="9">
+        <f>S64/SUM(S64,S65)</f>
+        <v>0.77551020408163263</v>
+      </c>
+      <c r="X64" s="9">
+        <f>S64/SUM(S64,T64)</f>
+        <v>0.64406779661016944</v>
+      </c>
+      <c r="Y64" s="10">
+        <f xml:space="preserve"> (2*W64*X64)/(X64+W64)</f>
+        <v>0.70370370370370361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>7</v>
+      </c>
+      <c r="B65" s="12">
+        <v>92</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="10"/>
+      <c r="J65" s="11">
+        <v>9</v>
+      </c>
+      <c r="K65" s="12">
+        <v>90</v>
+      </c>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="10"/>
+      <c r="S65" s="11">
+        <v>11</v>
+      </c>
+      <c r="T65" s="12">
+        <v>88</v>
+      </c>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="10"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="10"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="10"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>29</v>
+      </c>
+      <c r="B67" s="12">
+        <v>16</v>
+      </c>
+      <c r="C67" s="9">
+        <f>SUM(A67+B68)/SUM(A67:B68)</f>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="D67" s="9">
+        <f t="shared" ref="D67:D70" si="10">SUM(A68,B67)/SUM(A67:B68)</f>
+        <v>0.15189873417721519</v>
+      </c>
+      <c r="E67" s="9">
+        <f>A67/SUM(A67,A68)</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="F67" s="9">
+        <f>A67/SUM(A67,B67)</f>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="G67" s="10">
+        <f xml:space="preserve"> (2*E67*F67)/(F67+E67)</f>
+        <v>0.70731707317073178</v>
+      </c>
+      <c r="J67" s="11">
+        <v>31</v>
+      </c>
+      <c r="K67" s="12">
+        <v>14</v>
+      </c>
+      <c r="L67" s="9">
+        <f>SUM(J67+K68)/SUM(J67:K68)</f>
+        <v>0.85443037974683544</v>
+      </c>
+      <c r="M67" s="9">
+        <f t="shared" ref="M67:M70" si="11">SUM(J68,K67)/SUM(J67:K68)</f>
+        <v>0.14556962025316456</v>
+      </c>
+      <c r="N67" s="9">
+        <f>J67/SUM(J67,J68)</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="O67" s="9">
+        <f>J67/SUM(J67,K67)</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="P67" s="10">
+        <f xml:space="preserve"> (2*N67*O67)/(O67+N67)</f>
+        <v>0.7294117647058822</v>
+      </c>
+      <c r="S67" s="11">
+        <v>29</v>
+      </c>
+      <c r="T67" s="12">
+        <v>16</v>
+      </c>
+      <c r="U67" s="9">
+        <f>SUM(S67+T68)/SUM(S67:T68)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="V67" s="9">
+        <f t="shared" ref="V67:V70" si="12">SUM(S68,T67)/SUM(S67:T68)</f>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="W67" s="9">
+        <f>S67/SUM(S67,S68)</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="X67" s="9">
+        <f>S67/SUM(S67,T67)</f>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="Y67" s="10">
+        <f xml:space="preserve"> (2*W67*X67)/(X67+W67)</f>
+        <v>0.68235294117647061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>8</v>
+      </c>
+      <c r="B68" s="12">
+        <v>105</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
+      <c r="J68" s="11">
+        <v>9</v>
+      </c>
+      <c r="K68" s="12">
+        <v>104</v>
+      </c>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="10"/>
+      <c r="S68" s="11">
+        <v>11</v>
+      </c>
+      <c r="T68" s="12">
+        <v>102</v>
+      </c>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="10"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="10"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="10"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>28</v>
+      </c>
+      <c r="B70" s="12">
+        <v>17</v>
+      </c>
+      <c r="C70" s="9">
+        <f>SUM(A70+B71)/SUM(A70:B71)</f>
+        <v>0.84177215189873422</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" ref="D70:D73" si="13">SUM(A71,B70)/SUM(A70:B71)</f>
+        <v>0.15822784810126583</v>
+      </c>
+      <c r="E70" s="9">
+        <f>A70/SUM(A70,A71)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F70" s="9">
+        <f>A70/SUM(A70,B70)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="G70" s="10">
+        <f xml:space="preserve"> (2*E70*F70)/(F70+E70)</f>
+        <v>0.6913580246913581</v>
+      </c>
+      <c r="J70" s="11">
+        <v>28</v>
+      </c>
+      <c r="K70" s="12">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9">
+        <f>SUM(J70+K71)/SUM(J70:K71)</f>
+        <v>0.82278481012658233</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" ref="M70:M73" si="14">SUM(J71,K70)/SUM(J70:K71)</f>
+        <v>0.17721518987341772</v>
+      </c>
+      <c r="N70" s="9">
+        <f>J70/SUM(J70,J71)</f>
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="O70" s="9">
+        <f>J70/SUM(J70,K70)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="P70" s="10">
+        <f xml:space="preserve"> (2*N70*O70)/(O70+N70)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S70" s="11">
+        <v>28</v>
+      </c>
+      <c r="T70" s="12">
+        <v>17</v>
+      </c>
+      <c r="U70" s="9">
+        <f>SUM(S70+T71)/SUM(S70:T71)</f>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="V70" s="9">
+        <f t="shared" ref="V70:V73" si="15">SUM(S71,T70)/SUM(S70:T71)</f>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="W70" s="9">
+        <f>S70/SUM(S70,S71)</f>
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="X70" s="9">
+        <f>S70/SUM(S70,T70)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="Y70" s="10">
+        <f xml:space="preserve"> (2*W70*X70)/(X70+W70)</f>
+        <v>0.65116279069767435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>8</v>
+      </c>
+      <c r="B71" s="12">
+        <v>105</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="J71" s="11">
+        <v>11</v>
+      </c>
+      <c r="K71" s="12">
+        <v>102</v>
+      </c>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="10"/>
+      <c r="S71" s="11">
+        <v>13</v>
+      </c>
+      <c r="T71" s="12">
+        <v>100</v>
+      </c>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="10"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="10"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="10"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>30</v>
+      </c>
+      <c r="B73" s="12">
+        <v>19</v>
+      </c>
+      <c r="C73" s="9">
+        <f>SUM(A73+B74)/SUM(A73:B74)</f>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="D73" s="9">
+        <f t="shared" ref="D73" si="16">SUM(A74,B73)/SUM(A73:B74)</f>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="E73" s="9">
+        <f>A73/SUM(A73,A74)</f>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="F73" s="9">
+        <f>A73/SUM(A73,B73)</f>
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="G73" s="10">
+        <f xml:space="preserve"> (2*E73*F73)/(F73+E73)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J73" s="11">
+        <v>33</v>
+      </c>
+      <c r="K73" s="12">
+        <v>16</v>
+      </c>
+      <c r="L73" s="9">
+        <f>SUM(J73+K74)/SUM(J73:K74)</f>
+        <v>0.84177215189873422</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" ref="M73" si="17">SUM(J74,K73)/SUM(J73:K74)</f>
+        <v>0.15822784810126583</v>
+      </c>
+      <c r="N73" s="9">
+        <f>J73/SUM(J73,J74)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O73" s="9">
+        <f>J73/SUM(J73,K73)</f>
+        <v>0.67346938775510201</v>
+      </c>
+      <c r="P73" s="10">
+        <f xml:space="preserve"> (2*N73*O73)/(O73+N73)</f>
+        <v>0.72527472527472525</v>
+      </c>
+      <c r="S73" s="11">
+        <v>36</v>
+      </c>
+      <c r="T73" s="12">
+        <v>13</v>
+      </c>
+      <c r="U73" s="9">
+        <f>SUM(S73+T74)/SUM(S73:T74)</f>
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="V73" s="9">
+        <f t="shared" ref="V73" si="18">SUM(S74,T73)/SUM(S73:T74)</f>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="W73" s="9">
+        <f>S73/SUM(S73,S74)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="X73" s="9">
+        <f>S73/SUM(S73,T73)</f>
+        <v>0.73469387755102045</v>
+      </c>
+      <c r="Y73" s="10">
+        <f xml:space="preserve"> (2*W73*X73)/(X73+W73)</f>
+        <v>0.77419354838709675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>11</v>
+      </c>
+      <c r="B74" s="12">
+        <v>98</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
+      <c r="J74" s="11">
+        <v>9</v>
+      </c>
+      <c r="K74" s="12">
+        <v>100</v>
+      </c>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="10"/>
+      <c r="S74" s="11">
+        <v>8</v>
+      </c>
+      <c r="T74" s="12">
+        <v>101</v>
+      </c>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="10"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="G75" s="22"/>
+      <c r="J75" s="24"/>
+      <c r="P75" s="22"/>
+      <c r="S75" s="24"/>
+      <c r="Y75" s="22"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>31</v>
+      </c>
+      <c r="B76" s="12">
+        <v>17</v>
+      </c>
+      <c r="C76" s="9">
+        <f>SUM(A76+B77)/SUM(A76:B77)</f>
+        <v>0.80379746835443033</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" ref="D76" si="19">SUM(A77,B76)/SUM(A76:B77)</f>
+        <v>0.19620253164556961</v>
+      </c>
+      <c r="E76" s="9">
+        <f>A76/SUM(A76,A77)</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="F76" s="9">
+        <f>A76/SUM(A76,B76)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G76" s="10">
+        <f xml:space="preserve"> (2*E76*F76)/(F76+E76)</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J76" s="11">
+        <v>32</v>
+      </c>
+      <c r="K76" s="12">
+        <v>16</v>
+      </c>
+      <c r="L76" s="9">
+        <f>SUM(J76+K77)/SUM(J76:K77)</f>
+        <v>0.810126582278481</v>
+      </c>
+      <c r="M76" s="9">
+        <f t="shared" ref="M76" si="20">SUM(J77,K76)/SUM(J76:K77)</f>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="N76" s="9">
+        <f>J76/SUM(J76,J77)</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="O76" s="9">
+        <f>J76/SUM(J76,K76)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P76" s="10">
+        <f xml:space="preserve"> (2*N76*O76)/(O76+N76)</f>
+        <v>0.68085106382978722</v>
+      </c>
+      <c r="S76" s="11">
+        <v>32</v>
+      </c>
+      <c r="T76" s="12">
+        <v>16</v>
+      </c>
+      <c r="U76" s="9">
+        <f>SUM(S76+T77)/SUM(S76:T77)</f>
+        <v>0.79113924050632911</v>
+      </c>
+      <c r="V76" s="9">
+        <f t="shared" ref="V76" si="21">SUM(S77,T76)/SUM(S76:T77)</f>
+        <v>0.20886075949367089</v>
+      </c>
+      <c r="W76" s="9">
+        <f>S76/SUM(S76,S77)</f>
+        <v>0.65306122448979587</v>
+      </c>
+      <c r="X76" s="9">
+        <f>S76/SUM(S76,T76)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y76" s="10">
+        <f xml:space="preserve"> (2*W76*X76)/(X76+W76)</f>
+        <v>0.65979381443298968</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>14</v>
+      </c>
+      <c r="B77" s="12">
+        <v>96</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="10"/>
+      <c r="J77" s="11">
+        <v>14</v>
+      </c>
+      <c r="K77" s="12">
+        <v>96</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="10"/>
+      <c r="S77" s="11">
+        <v>17</v>
+      </c>
+      <c r="T77" s="12">
+        <v>93</v>
+      </c>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="10"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="G78" s="22"/>
+      <c r="J78" s="24"/>
+      <c r="P78" s="22"/>
+      <c r="S78" s="24"/>
+      <c r="Y78" s="22"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="13">
+        <f>SUM(C49:C76)/10</f>
+        <v>0.81952405166015652</v>
+      </c>
+      <c r="D79" s="13">
+        <f>SUM(D49:D76)/10</f>
+        <v>0.18047594833984351</v>
+      </c>
+      <c r="E79" s="13">
+        <f>SUM(E49:E76)/10</f>
+        <v>0.75521407648322003</v>
+      </c>
+      <c r="F79" s="13">
+        <f>SUM(F49:F76)/10</f>
+        <v>0.62421043414507038</v>
+      </c>
+      <c r="G79" s="14">
+        <f>SUM(G49:G76)/10</f>
+        <v>0.68189951557680928</v>
+      </c>
+      <c r="J79" s="25"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="13">
+        <f>SUM(L49:L76)/10</f>
+        <v>0.82366849773107254</v>
+      </c>
+      <c r="M79" s="13">
+        <f>SUM(M49:M76)/10</f>
+        <v>0.17633150226892763</v>
+      </c>
+      <c r="N79" s="13">
+        <f>SUM(N49:N76)/10</f>
+        <v>0.7455179606615927</v>
+      </c>
+      <c r="O79" s="13">
+        <f>SUM(O49:O76)/10</f>
+        <v>0.66547451127052759</v>
+      </c>
+      <c r="P79" s="14">
+        <f>SUM(P49:P76)/10</f>
+        <v>0.70219270341353401</v>
+      </c>
+      <c r="S79" s="25"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="13">
+        <f>SUM(U49:U76)/10</f>
+        <v>0.81921821511026194</v>
+      </c>
+      <c r="V79" s="13">
+        <f>SUM(V49:V76)/10</f>
+        <v>0.18078178488973809</v>
+      </c>
+      <c r="W79" s="13">
+        <f>SUM(W49:W76)/10</f>
+        <v>0.73368377216885017</v>
+      </c>
+      <c r="X79" s="13">
+        <f>SUM(X49:X76)/10</f>
+        <v>0.65988569667093144</v>
+      </c>
+      <c r="Y79" s="14">
+        <f>SUM(Y49:Y76)/10</f>
+        <v>0.69414266439118988</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="S46:T46"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7161284-094E-4C4F-ACD8-1F2E6D16DB2F}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6523AB4D-335A-49B9-8A29-61983E907687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE86B95-09B8-45DD-853B-7D1FF73117DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="49">
   <si>
     <t>ACC</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>COMBINED PCA 9</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>COMBINADO</t>
+  </si>
+  <si>
+    <t>matriz media</t>
   </si>
 </sst>
 </file>
@@ -316,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,13 +398,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,6 +424,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF993366"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -500,14 +526,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SIFT</c:v>
+                  <c:v>HOG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -545,19 +574,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.83389890399940647</c:v>
+                  <c:v>0.93674318571601733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24065237805187556</c:v>
+                  <c:v>6.325681428398261E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79213051681094049</c:v>
+                  <c:v>0.89065950998396004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63808709210578185</c:v>
+                  <c:v>0.91025809448850104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70508465745590798</c:v>
+                  <c:v>0.89964252930403377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,14 +606,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ORB</c:v>
+                  <c:v>SIFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="FF9999"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -622,19 +651,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.74767090790429602</c:v>
+                  <c:v>0.83252129607515324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25232909209570409</c:v>
+                  <c:v>0.16747870392484679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77094760137523288</c:v>
+                  <c:v>0.78276588908167855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27488976005981769</c:v>
+                  <c:v>0.64384938693039806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40341019982700099</c:v>
+                  <c:v>0.70549687854951249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,16 +683,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HOG</c:v>
+                  <c:v>SURF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -701,19 +728,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.93532585783085387</c:v>
+                  <c:v>0.85587532839742053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4674142169146062E-2</c:v>
+                  <c:v>0.14412467160257941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88986769434252555</c:v>
+                  <c:v>0.78861084762423495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90961140559408604</c:v>
+                  <c:v>0.73564880832894441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89860794583169834</c:v>
+                  <c:v>0.76043643917887604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,6 +748,160 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D13D-4EF7-888C-B8514D23D884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77832684607224845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2216731539277515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65788438343292788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61683965621309722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63446480093716406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27E3-4335-9AD1-7B03E5EFA21E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBINADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82366849773107254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17633150226892763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7455179606615927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66547451127052759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70219270341353401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27E3-4335-9AD1-7B03E5EFA21E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1467,16 +1648,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1801,17 +1982,1616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F53B51-EA83-431B-BFE4-6ED1A6830061}">
+  <dimension ref="A1:AA40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="I7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="Q7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="35"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10"/>
+      <c r="Z9" s="32">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>45</v>
+      </c>
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9">
+        <f>SUM(A10+B11)/SUM(A10:B11)</f>
+        <v>0.92452830188679247</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(A11,B10)/SUM(A10:B11)</f>
+        <v>7.5471698113207544E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <f>A10/SUM(A10,A11)</f>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="F10" s="9">
+        <f>A10/SUM(A10,B10)</f>
+        <v>0.84905660377358494</v>
+      </c>
+      <c r="G10" s="10">
+        <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
+        <v>0.88235294117647067</v>
+      </c>
+      <c r="I10" s="11">
+        <v>32</v>
+      </c>
+      <c r="J10" s="12">
+        <v>21</v>
+      </c>
+      <c r="K10" s="9">
+        <f>SUM(I10+J11)/SUM(I10:J11)</f>
+        <v>0.82389937106918243</v>
+      </c>
+      <c r="L10" s="9">
+        <f>SUM(I11,J10)/SUM(I10:J11)</f>
+        <v>0.1761006289308176</v>
+      </c>
+      <c r="M10" s="9">
+        <f>I10/SUM(I10,I11)</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="N10" s="9">
+        <f>I10/SUM(I10,J10)</f>
+        <v>0.60377358490566035</v>
+      </c>
+      <c r="O10" s="10">
+        <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>41</v>
+      </c>
+      <c r="R10" s="12">
+        <v>12</v>
+      </c>
+      <c r="S10" s="9">
+        <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
+        <v>0.89308176100628933</v>
+      </c>
+      <c r="T10" s="9">
+        <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
+        <v>0.1069182389937107</v>
+      </c>
+      <c r="U10" s="9">
+        <f>Q10/SUM(Q10,Q11)</f>
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="V10" s="9">
+        <f>Q10/SUM(Q10,R10)</f>
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="W10" s="10">
+        <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
+        <v>0.82828282828282829</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="32">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12">
+        <v>102</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="11">
+        <v>7</v>
+      </c>
+      <c r="J11" s="12">
+        <v>99</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="Q11" s="11">
+        <v>5</v>
+      </c>
+      <c r="R11" s="12">
+        <v>101</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>46</v>
+      </c>
+      <c r="B13" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUM(A13+B14)/SUM(A13:B14)</f>
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="D13" s="9">
+        <f>SUM(A14,B13)/SUM(A13:B14)</f>
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="E13" s="9">
+        <f>A13/SUM(A13,A14)</f>
+        <v>0.80701754385964908</v>
+      </c>
+      <c r="F13" s="9">
+        <f>A13/SUM(A13,B13)</f>
+        <v>0.92</v>
+      </c>
+      <c r="G13" s="10">
+        <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
+        <v>0.85981308411214952</v>
+      </c>
+      <c r="I13" s="11">
+        <v>28</v>
+      </c>
+      <c r="J13" s="12">
+        <v>22</v>
+      </c>
+      <c r="K13" s="9">
+        <f>SUM(I13+J14)/SUM(I13:J14)</f>
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="L13" s="9">
+        <f>SUM(I14,J13)/SUM(I13:J14)</f>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="M13" s="9">
+        <f>I13/SUM(I13,I14)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N13" s="9">
+        <f>I13/SUM(I13,J13)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O13" s="10">
+        <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>36</v>
+      </c>
+      <c r="R13" s="12">
+        <v>14</v>
+      </c>
+      <c r="S13" s="9">
+        <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
+        <v>0.87421383647798745</v>
+      </c>
+      <c r="T13" s="9">
+        <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
+        <v>0.12578616352201258</v>
+      </c>
+      <c r="U13" s="9">
+        <f>Q13/SUM(Q13,Q14)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V13" s="9">
+        <f>Q13/SUM(Q13,R13)</f>
+        <v>0.72</v>
+      </c>
+      <c r="W13" s="10">
+        <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="11">
+        <v>14</v>
+      </c>
+      <c r="J14" s="12">
+        <v>95</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="Q14" s="11">
+        <v>6</v>
+      </c>
+      <c r="R14" s="12">
+        <v>103</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>42</v>
+      </c>
+      <c r="B16" s="12">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <f>SUM(A16+B17)/SUM(A16:B17)</f>
+        <v>0.96202531645569622</v>
+      </c>
+      <c r="D16" s="9">
+        <f>SUM(A17,B16)/SUM(A16:B17)</f>
+        <v>3.7974683544303799E-2</v>
+      </c>
+      <c r="E16" s="9">
+        <f>A16/SUM(A16,A17)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F16" s="9">
+        <f>A16/SUM(A16,B16)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G16" s="10">
+        <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="I16" s="11">
+        <v>28</v>
+      </c>
+      <c r="J16" s="12">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9">
+        <f>SUM(I16+J17)/SUM(I16:J17)</f>
+        <v>0.84810126582278478</v>
+      </c>
+      <c r="L16" s="9">
+        <f>SUM(I17,J16)/SUM(I16:J17)</f>
+        <v>0.15189873417721519</v>
+      </c>
+      <c r="M16" s="9">
+        <f>I16/SUM(I16,I17)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="9">
+        <f>I16/SUM(I16,J16)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="O16" s="10">
+        <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>34</v>
+      </c>
+      <c r="R16" s="12">
+        <v>11</v>
+      </c>
+      <c r="S16" s="9">
+        <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
+        <v>0.88607594936708856</v>
+      </c>
+      <c r="T16" s="9">
+        <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
+        <v>0.11392405063291139</v>
+      </c>
+      <c r="U16" s="9">
+        <f>Q16/SUM(Q16,Q17)</f>
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="V16" s="9">
+        <f>Q16/SUM(Q16,R16)</f>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="W16" s="10">
+        <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
+        <v>0.79069767441860472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12">
+        <v>110</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="I17" s="11">
+        <v>7</v>
+      </c>
+      <c r="J17" s="12">
+        <v>106</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="Q17" s="11">
+        <v>7</v>
+      </c>
+      <c r="R17" s="12">
+        <v>106</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>55</v>
+      </c>
+      <c r="B19" s="12">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9">
+        <f>SUM(A19+B20)/SUM(A19:B20)</f>
+        <v>0.92964824120603018</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(A20,B19)/SUM(A19:B20)</f>
+        <v>7.0351758793969849E-2</v>
+      </c>
+      <c r="E19" s="9">
+        <f>A19/SUM(A19,A20)</f>
+        <v>0.88709677419354838</v>
+      </c>
+      <c r="F19" s="9">
+        <f>A19/SUM(A19,B19)</f>
+        <v>0.88709677419354838</v>
+      </c>
+      <c r="G19" s="10">
+        <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
+        <v>0.88709677419354838</v>
+      </c>
+      <c r="I19" s="11">
+        <v>42</v>
+      </c>
+      <c r="J19" s="12">
+        <v>13</v>
+      </c>
+      <c r="K19" s="9">
+        <f>SUM(I19+J20)/SUM(I19:J20)</f>
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="L19" s="9">
+        <f>SUM(I20,J19)/SUM(I19:J20)</f>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="M19" s="9">
+        <f>I19/SUM(I19,I20)</f>
+        <v>0.84</v>
+      </c>
+      <c r="N19" s="9">
+        <f>I19/SUM(I19,J19)</f>
+        <v>0.76363636363636367</v>
+      </c>
+      <c r="O19" s="10">
+        <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>44</v>
+      </c>
+      <c r="R19" s="12">
+        <v>11</v>
+      </c>
+      <c r="S19" s="9">
+        <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
+        <v>0.89873417721518989</v>
+      </c>
+      <c r="T19" s="9">
+        <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
+        <v>0.10126582278481013</v>
+      </c>
+      <c r="U19" s="9">
+        <f>Q19/SUM(Q19,Q20)</f>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="V19" s="9">
+        <f>Q19/SUM(Q19,R19)</f>
+        <v>0.8</v>
+      </c>
+      <c r="W19" s="10">
+        <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
+        <v>0.84615384615384626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12">
+        <v>130</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="11">
+        <v>8</v>
+      </c>
+      <c r="J20" s="12">
+        <v>95</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="Q20" s="11">
+        <v>5</v>
+      </c>
+      <c r="R20" s="12">
+        <v>98</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9">
+        <f>SUM(A22+B23)/SUM(A22:B23)</f>
+        <v>0.94303797468354433</v>
+      </c>
+      <c r="D22" s="9">
+        <f>SUM(A23,B22)/SUM(A22:B23)</f>
+        <v>5.6962025316455694E-2</v>
+      </c>
+      <c r="E22" s="9">
+        <f>A22/SUM(A22,A23)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F22" s="9">
+        <f>A22/SUM(A22,B22)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G22" s="10">
+        <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
+        <v>0.89887640449438189</v>
+      </c>
+      <c r="I22" s="11">
+        <v>25</v>
+      </c>
+      <c r="J22" s="12">
+        <v>19</v>
+      </c>
+      <c r="K22" s="9">
+        <f>SUM(I22+J23)/SUM(I22:J23)</f>
+        <v>0.82911392405063289</v>
+      </c>
+      <c r="L22" s="9">
+        <f>SUM(I23,J22)/SUM(I22:J23)</f>
+        <v>0.17088607594936708</v>
+      </c>
+      <c r="M22" s="9">
+        <f>I22/SUM(I22,I23)</f>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="N22" s="9">
+        <f>I22/SUM(I22,J22)</f>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="O22" s="10">
+        <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
+        <v>0.64935064935064946</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>31</v>
+      </c>
+      <c r="R22" s="12">
+        <v>13</v>
+      </c>
+      <c r="S22" s="9">
+        <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="T22" s="9">
+        <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="U22" s="9">
+        <f>Q22/SUM(Q22,Q23)</f>
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="V22" s="9">
+        <f>Q22/SUM(Q22,R22)</f>
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="W22" s="10">
+        <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
+        <v>0.74698795180722899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12">
+        <v>109</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="I23" s="11">
+        <v>8</v>
+      </c>
+      <c r="J23" s="12">
+        <v>106</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="Q23" s="11">
+        <v>8</v>
+      </c>
+      <c r="R23" s="12">
+        <v>106</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>52</v>
+      </c>
+      <c r="B25" s="12">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9">
+        <f>SUM(A25+B26)/SUM(A25:B26)</f>
+        <v>0.92405063291139244</v>
+      </c>
+      <c r="D25" s="9">
+        <f>SUM(A26,B25)/SUM(A25:B26)</f>
+        <v>7.5949367088607597E-2</v>
+      </c>
+      <c r="E25" s="9">
+        <f>A25/SUM(A25,A26)</f>
+        <v>0.91228070175438591</v>
+      </c>
+      <c r="F25" s="9">
+        <f>A25/SUM(A25,B25)</f>
+        <v>0.88135593220338981</v>
+      </c>
+      <c r="G25" s="10">
+        <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
+        <v>0.89655172413793094</v>
+      </c>
+      <c r="I25" s="11">
+        <v>34</v>
+      </c>
+      <c r="J25" s="12">
+        <v>25</v>
+      </c>
+      <c r="K25" s="9">
+        <f>SUM(I25+J26)/SUM(I25:J26)</f>
+        <v>0.81645569620253167</v>
+      </c>
+      <c r="L25" s="9">
+        <f>SUM(I26,J25)/SUM(I25:J26)</f>
+        <v>0.18354430379746836</v>
+      </c>
+      <c r="M25" s="9">
+        <f>I25/SUM(I25,I26)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="N25" s="9">
+        <f>I25/SUM(I25,J25)</f>
+        <v>0.57627118644067798</v>
+      </c>
+      <c r="O25" s="10">
+        <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
+        <v>0.70103092783505172</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>39</v>
+      </c>
+      <c r="R25" s="12">
+        <v>20</v>
+      </c>
+      <c r="S25" s="9">
+        <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="T25" s="9">
+        <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="U25" s="9">
+        <f>Q25/SUM(Q25,Q26)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V25" s="9">
+        <f>Q25/SUM(Q25,R25)</f>
+        <v>0.66101694915254239</v>
+      </c>
+      <c r="W25" s="10">
+        <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
+        <v>0.75000000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>5</v>
+      </c>
+      <c r="B26" s="12">
+        <v>94</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="11">
+        <v>4</v>
+      </c>
+      <c r="J26" s="12">
+        <v>95</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="Q26" s="11">
+        <v>6</v>
+      </c>
+      <c r="R26" s="12">
+        <v>93</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>44</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <f>SUM(A28+B29)/SUM(A28:B29)</f>
+        <v>0.98734177215189878</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <f>A28/SUM(A28,A29)</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="F28" s="9">
+        <f>A28/SUM(A28,B28)</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="G28" s="10">
+        <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="I28" s="11">
+        <v>39</v>
+      </c>
+      <c r="J28" s="12">
+        <v>16</v>
+      </c>
+      <c r="K28" s="9">
+        <f>SUM(I28+J29)/SUM(I28:J29)</f>
+        <v>0.875</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M28" s="9">
+        <f>I28/SUM(I28,I29)</f>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="N28" s="9">
+        <f>I28/SUM(I28,J28)</f>
+        <v>0.70909090909090911</v>
+      </c>
+      <c r="O28" s="10">
+        <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>31</v>
+      </c>
+      <c r="R28" s="12">
+        <v>17</v>
+      </c>
+      <c r="S28" s="9">
+        <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
+        <v>0.88819875776397517</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>0.11180124223602485</v>
+      </c>
+      <c r="U28" s="9">
+        <f>Q28/SUM(Q28,Q29)</f>
+        <v>0.96875</v>
+      </c>
+      <c r="V28" s="9">
+        <f>Q28/SUM(Q28,R28)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="W28" s="10">
+        <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>1</v>
+      </c>
+      <c r="B29" s="12">
+        <v>112</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="I29" s="11">
+        <v>5</v>
+      </c>
+      <c r="J29" s="12">
+        <v>108</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
+      <c r="Q29" s="11">
+        <v>1</v>
+      </c>
+      <c r="R29" s="12">
+        <v>112</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="10"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>41</v>
+      </c>
+      <c r="B31" s="12">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9">
+        <f>SUM(A31+B32)/SUM(A31:B32)</f>
+        <v>0.92405063291139244</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5949367088607597E-2</v>
+      </c>
+      <c r="E31" s="9">
+        <f>A31/SUM(A31,A32)</f>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="F31" s="9">
+        <f>A31/SUM(A31,B31)</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="G31" s="10">
+        <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
+        <v>0.87234042553191482</v>
+      </c>
+      <c r="I31" s="11">
+        <v>32</v>
+      </c>
+      <c r="J31" s="12">
+        <v>13</v>
+      </c>
+      <c r="K31" s="9">
+        <f>SUM(I31+J32)/SUM(I31:J32)</f>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" ref="L31" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="M31" s="9">
+        <f>I31/SUM(I31,I32)</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="N31" s="9">
+        <f>I31/SUM(I31,J31)</f>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="O31" s="10">
+        <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>34</v>
+      </c>
+      <c r="R31" s="12">
+        <v>11</v>
+      </c>
+      <c r="S31" s="9">
+        <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
+        <v>0.879746835443038</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" ref="T31" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
+        <v>0.12025316455696203</v>
+      </c>
+      <c r="U31" s="9">
+        <f>Q31/SUM(Q31,Q32)</f>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="V31" s="9">
+        <f>Q31/SUM(Q31,R31)</f>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="W31" s="10">
+        <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
+        <v>0.7816091954022989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12">
+        <v>105</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="I32" s="11">
+        <v>7</v>
+      </c>
+      <c r="J32" s="12">
+        <v>106</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="Q32" s="11">
+        <v>8</v>
+      </c>
+      <c r="R32" s="12">
+        <v>105</v>
+      </c>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="10"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>48</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <f>SUM(A34+B35)/SUM(A34:B35)</f>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34" si="5">SUM(A35,B34)/SUM(A34:B35)</f>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="E34" s="9">
+        <f>A34/SUM(A34,A35)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F34" s="9">
+        <f>A34/SUM(A34,B34)</f>
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="G34" s="10">
+        <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
+        <v>0.96</v>
+      </c>
+      <c r="I34" s="11">
+        <v>30</v>
+      </c>
+      <c r="J34" s="12">
+        <v>19</v>
+      </c>
+      <c r="K34" s="9">
+        <f>SUM(I34+J35)/SUM(I34:J35)</f>
+        <v>0.86075949367088611</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" ref="L34" si="6">SUM(I35,J34)/SUM(I34:J35)</f>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="M34" s="9">
+        <f>I34/SUM(I34,I35)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="N34" s="9">
+        <f>I34/SUM(I34,J34)</f>
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="O34" s="10">
+        <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
+        <v>0.73170731707317083</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>37</v>
+      </c>
+      <c r="R34" s="12">
+        <v>12</v>
+      </c>
+      <c r="S34" s="9">
+        <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
+        <v>0.91139240506329111</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" ref="T34" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
+        <v>8.8607594936708861E-2</v>
+      </c>
+      <c r="U34" s="9">
+        <f>Q34/SUM(Q34,Q35)</f>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="V34" s="9">
+        <f>Q34/SUM(Q34,R34)</f>
+        <v>0.75510204081632648</v>
+      </c>
+      <c r="W34" s="10">
+        <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
+        <v>0.84090909090909083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>3</v>
+      </c>
+      <c r="B35" s="12">
+        <v>106</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="I35" s="11">
+        <v>3</v>
+      </c>
+      <c r="J35" s="12">
+        <v>106</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="Q35" s="11">
+        <v>2</v>
+      </c>
+      <c r="R35" s="12">
+        <v>107</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G36" s="22"/>
+      <c r="I36" s="24"/>
+      <c r="O36" s="22"/>
+      <c r="Q36" s="24"/>
+      <c r="W36" s="22"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>41</v>
+      </c>
+      <c r="B37" s="12">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9">
+        <f>SUM(A37+B38)/SUM(A37:B38)</f>
+        <v>0.89240506329113922</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" ref="D37" si="8">SUM(A38,B37)/SUM(A37:B38)</f>
+        <v>0.10759493670886076</v>
+      </c>
+      <c r="E37" s="9">
+        <f>A37/SUM(A37,A38)</f>
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="F37" s="9">
+        <f>A37/SUM(A37,B37)</f>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="G37" s="10">
+        <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
+        <v>0.82828282828282829</v>
+      </c>
+      <c r="I37" s="11">
+        <v>29</v>
+      </c>
+      <c r="J37" s="12">
+        <v>19</v>
+      </c>
+      <c r="K37" s="9">
+        <f>SUM(I37+J38)/SUM(I37:J38)</f>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37" si="9">SUM(I38,J37)/SUM(I37:J38)</f>
+        <v>0.16455696202531644</v>
+      </c>
+      <c r="M37" s="9">
+        <f>I37/SUM(I37,I38)</f>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="N37" s="9">
+        <f>I37/SUM(I37,J37)</f>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O37" s="10">
+        <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>35</v>
+      </c>
+      <c r="R37" s="12">
+        <v>13</v>
+      </c>
+      <c r="S37" s="9">
+        <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
+        <v>0.86708860759493667</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" ref="T37" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="U37" s="9">
+        <f>Q37/SUM(Q37,Q38)</f>
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="V37" s="9">
+        <f>Q37/SUM(Q37,R37)</f>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="W37" s="10">
+        <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>10</v>
+      </c>
+      <c r="B38" s="12">
+        <v>100</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="11">
+        <v>7</v>
+      </c>
+      <c r="J38" s="12">
+        <v>103</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="Q38" s="11">
+        <v>8</v>
+      </c>
+      <c r="R38" s="12">
+        <v>102</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G39" s="22"/>
+      <c r="I39" s="24"/>
+      <c r="O39" s="22"/>
+      <c r="Q39" s="24"/>
+      <c r="W39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="13">
+        <f>SUM(C10:C37)/10</f>
+        <v>0.93674318571601733</v>
+      </c>
+      <c r="D40" s="13">
+        <f>SUM(D10:D37)/10</f>
+        <v>6.325681428398261E-2</v>
+      </c>
+      <c r="E40" s="13">
+        <f>SUM(E10:E37)/10</f>
+        <v>0.89065950998395971</v>
+      </c>
+      <c r="F40" s="13">
+        <f>SUM(F10:F37)/10</f>
+        <v>0.91025809448850148</v>
+      </c>
+      <c r="G40" s="14">
+        <f>SUM(G10:G37)/10</f>
+        <v>0.89964252930403377</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="13">
+        <f>SUM(K10:K37)/10</f>
+        <v>0.84028640235650032</v>
+      </c>
+      <c r="L40" s="13">
+        <f>SUM(L10:L37)/10</f>
+        <v>0.15971359764349974</v>
+      </c>
+      <c r="M40" s="13">
+        <f>SUM(M10:M37)/10</f>
+        <v>0.82010150083834288</v>
+      </c>
+      <c r="N40" s="13">
+        <f>SUM(N10:N37)/10</f>
+        <v>0.63306987602146136</v>
+      </c>
+      <c r="O40" s="14">
+        <f>SUM(O10:O37)/10</f>
+        <v>0.71266964606055683</v>
+      </c>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="13">
+        <f>SUM(S10:S37)/10</f>
+        <v>0.88010639755014175</v>
+      </c>
+      <c r="T40" s="13">
+        <f>SUM(T10:T37)/10</f>
+        <v>0.11989360244985836</v>
+      </c>
+      <c r="U40" s="13">
+        <f>SUM(U10:U37)/10</f>
+        <v>0.86781583894776537</v>
+      </c>
+      <c r="V40" s="13">
+        <f>SUM(V10:V37)/10</f>
+        <v>0.73003604612858108</v>
+      </c>
+      <c r="W40" s="14">
+        <f>SUM(W10:W37)/10</f>
+        <v>0.79114800518568418</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Z8:AA8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824C85A-E8DA-43CC-A471-E8F922303662}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
@@ -1828,13 +3608,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>19</v>
       </c>
       <c r="D2" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1856,28 +3636,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="I7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="Q7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="29"/>
+      <c r="A7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="I7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="Q7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1957,30 +3737,30 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B10" s="12">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9">
         <f>SUM(A10+B11)/SUM(A10:B11)</f>
-        <v>0.92452830188679247</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="D10" s="9">
         <f>SUM(A11,B10)/SUM(A10:B11)</f>
-        <v>7.5471698113207544E-2</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="E10" s="9">
         <f>A10/SUM(A10,A11)</f>
-        <v>0.91836734693877553</v>
+        <v>0.75</v>
       </c>
       <c r="F10" s="9">
         <f>A10/SUM(A10,B10)</f>
-        <v>0.84905660377358494</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="G10" s="10">
         <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
-        <v>0.88235294117647067</v>
+        <v>0.64516129032258074</v>
       </c>
       <c r="I10" s="11">
         <v>32</v>
@@ -1990,15 +3770,15 @@
       </c>
       <c r="K10" s="9">
         <f>SUM(I10+J11)/SUM(I10:J11)</f>
-        <v>0.82389937106918243</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="L10" s="9">
         <f>SUM(I11,J10)/SUM(I10:J11)</f>
-        <v>0.1761006289308176</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="M10" s="9">
         <f>I10/SUM(I10,I11)</f>
-        <v>0.82051282051282048</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="N10" s="9">
         <f>I10/SUM(I10,J10)</f>
@@ -2006,41 +3786,41 @@
       </c>
       <c r="O10" s="10">
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
-        <v>0.69565217391304346</v>
+        <v>0.65979381443298968</v>
       </c>
       <c r="Q10" s="11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="R10" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>0.89308176100628933</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="T10" s="9">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>0.1069182389937107</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="U10" s="9">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>0.89130434782608692</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="V10" s="9">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>0.77358490566037741</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="W10" s="10">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>0.82828282828282829</v>
+        <v>0.68085106382978722</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2048,10 +3828,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="I11" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J11" s="12">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -2059,10 +3839,10 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="Q11" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R11" s="12">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -2095,90 +3875,90 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9">
         <f>SUM(A13+B14)/SUM(A13:B14)</f>
-        <v>0.90566037735849059</v>
+        <v>0.82389937106918243</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(A14,B13)/SUM(A13:B14)</f>
-        <v>9.4339622641509441E-2</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="E13" s="9">
         <f>A13/SUM(A13,A14)</f>
-        <v>0.80701754385964908</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="F13" s="9">
         <f>A13/SUM(A13,B13)</f>
-        <v>0.92</v>
+        <v>0.64</v>
       </c>
       <c r="G13" s="10">
         <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
-        <v>0.85981308411214952</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="I13" s="11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J13" s="12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K13" s="9">
         <f>SUM(I13+J14)/SUM(I13:J14)</f>
-        <v>0.77358490566037741</v>
+        <v>0.79874213836477992</v>
       </c>
       <c r="L13" s="9">
         <f>SUM(I14,J13)/SUM(I13:J14)</f>
-        <v>0.22641509433962265</v>
+        <v>0.20125786163522014</v>
       </c>
       <c r="M13" s="9">
         <f>I13/SUM(I13,I14)</f>
-        <v>0.66666666666666663</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="N13" s="9">
         <f>I13/SUM(I13,J13)</f>
-        <v>0.56000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="O13" s="10">
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
-        <v>0.60869565217391308</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="Q13" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R13" s="12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S13" s="9">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>0.87421383647798745</v>
+        <v>0.82389937106918243</v>
       </c>
       <c r="T13" s="9">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>0.12578616352201258</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="U13" s="9">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="V13" s="9">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="W13" s="10">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>0.78260869565217395</v>
+        <v>0.70212765957446799</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2186,10 +3966,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="I14" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2197,10 +3977,10 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="Q14" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R14" s="12">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -2233,30 +4013,30 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" s="12">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9">
         <f>SUM(A16+B17)/SUM(A16:B17)</f>
-        <v>0.96202531645569622</v>
+        <v>0.84177215189873422</v>
       </c>
       <c r="D16" s="9">
         <f>SUM(A17,B16)/SUM(A16:B17)</f>
-        <v>3.7974683544303799E-2</v>
+        <v>0.15822784810126583</v>
       </c>
       <c r="E16" s="9">
         <f>A16/SUM(A16,A17)</f>
-        <v>0.93333333333333335</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="F16" s="9">
         <f>A16/SUM(A16,B16)</f>
-        <v>0.93333333333333335</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="G16" s="10">
         <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
-        <v>0.93333333333333335</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="I16" s="11">
         <v>28</v>
@@ -2266,15 +4046,15 @@
       </c>
       <c r="K16" s="9">
         <f>SUM(I16+J17)/SUM(I16:J17)</f>
-        <v>0.84810126582278478</v>
+        <v>0.82278481012658233</v>
       </c>
       <c r="L16" s="9">
         <f>SUM(I17,J16)/SUM(I16:J17)</f>
-        <v>0.15189873417721519</v>
+        <v>0.17721518987341772</v>
       </c>
       <c r="M16" s="9">
         <f>I16/SUM(I16,I17)</f>
-        <v>0.8</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="N16" s="9">
         <f>I16/SUM(I16,J16)</f>
@@ -2282,7 +4062,7 @@
       </c>
       <c r="O16" s="10">
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
-        <v>0.70000000000000007</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q16" s="11">
         <v>34</v>
@@ -2292,15 +4072,15 @@
       </c>
       <c r="S16" s="9">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>0.88607594936708856</v>
+        <v>0.86075949367088611</v>
       </c>
       <c r="T16" s="9">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>0.11392405063291139</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="U16" s="9">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>0.82926829268292679</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="V16" s="9">
         <f>Q16/SUM(Q16,R16)</f>
@@ -2308,15 +4088,15 @@
       </c>
       <c r="W16" s="10">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>0.79069767441860472</v>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" s="12">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2324,10 +4104,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="I17" s="11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J17" s="12">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2335,10 +4115,10 @@
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="Q17" s="11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R17" s="12">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -2371,82 +4151,82 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B19" s="12">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9">
         <f>SUM(A19+B20)/SUM(A19:B20)</f>
-        <v>0.92964824120603018</v>
+        <v>0.810126582278481</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(A20,B19)/SUM(A19:B20)</f>
-        <v>7.0351758793969849E-2</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="E19" s="9">
         <f>A19/SUM(A19,A20)</f>
-        <v>0.88709677419354838</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="F19" s="9">
         <f>A19/SUM(A19,B19)</f>
-        <v>0.88709677419354838</v>
+        <v>0.58181818181818179</v>
       </c>
       <c r="G19" s="10">
         <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
-        <v>0.88709677419354838</v>
+        <v>0.68085106382978722</v>
       </c>
       <c r="I19" s="11">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J19" s="12">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K19" s="9">
         <f>SUM(I19+J20)/SUM(I19:J20)</f>
-        <v>0.86708860759493667</v>
+        <v>0.79113924050632911</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(I20,J19)/SUM(I19:J20)</f>
-        <v>0.13291139240506328</v>
+        <v>0.20886075949367089</v>
       </c>
       <c r="M19" s="9">
         <f>I19/SUM(I19,I20)</f>
-        <v>0.84</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="N19" s="9">
         <f>I19/SUM(I19,J19)</f>
-        <v>0.76363636363636367</v>
+        <v>0.52727272727272723</v>
       </c>
       <c r="O19" s="10">
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
-        <v>0.80000000000000016</v>
+        <v>0.63736263736263732</v>
       </c>
       <c r="Q19" s="11">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="R19" s="12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S19" s="9">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>0.89873417721518989</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="T19" s="9">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>0.10126582278481013</v>
+        <v>0.16455696202531644</v>
       </c>
       <c r="U19" s="9">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>0.89795918367346939</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="V19" s="9">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W19" s="10">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>0.84615384615384626</v>
+        <v>0.71739130434782616</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2454,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="12">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2462,10 +4242,10 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="I20" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -2473,10 +4253,10 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="Q20" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -2509,90 +4289,90 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B22" s="12">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9">
         <f>SUM(A22+B23)/SUM(A22:B23)</f>
-        <v>0.94303797468354433</v>
+        <v>0.84810126582278478</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(A23,B22)/SUM(A22:B23)</f>
-        <v>5.6962025316455694E-2</v>
+        <v>0.15189873417721519</v>
       </c>
       <c r="E22" s="9">
         <f>A22/SUM(A22,A23)</f>
-        <v>0.88888888888888884</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="F22" s="9">
         <f>A22/SUM(A22,B22)</f>
-        <v>0.90909090909090906</v>
+        <v>0.65909090909090906</v>
       </c>
       <c r="G22" s="10">
         <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
-        <v>0.89887640449438189</v>
+        <v>0.70731707317073167</v>
       </c>
       <c r="I22" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J22" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K22" s="9">
         <f>SUM(I22+J23)/SUM(I22:J23)</f>
-        <v>0.82911392405063289</v>
+        <v>0.81645569620253167</v>
       </c>
       <c r="L22" s="9">
         <f>SUM(I23,J22)/SUM(I22:J23)</f>
-        <v>0.17088607594936708</v>
+        <v>0.18354430379746836</v>
       </c>
       <c r="M22" s="9">
         <f>I22/SUM(I22,I23)</f>
-        <v>0.75757575757575757</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="N22" s="9">
         <f>I22/SUM(I22,J22)</f>
-        <v>0.56818181818181823</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="O22" s="10">
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
-        <v>0.64935064935064946</v>
+        <v>0.65060240963855431</v>
       </c>
       <c r="Q22" s="11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R22" s="12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>0.86708860759493667</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="T22" s="9">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>0.13291139240506328</v>
+        <v>0.17088607594936708</v>
       </c>
       <c r="U22" s="9">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>0.79487179487179482</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="V22" s="9">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>0.70454545454545459</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="W22" s="10">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>0.74698795180722899</v>
+        <v>0.67469879518072295</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" s="12">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2600,10 +4380,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="I23" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J23" s="12">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -2611,10 +4391,10 @@
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="Q23" s="11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R23" s="12">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -2647,30 +4427,30 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B25" s="12">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9">
         <f>SUM(A25+B26)/SUM(A25:B26)</f>
-        <v>0.92405063291139244</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(A26,B25)/SUM(A25:B26)</f>
-        <v>7.5949367088607597E-2</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="E25" s="9">
         <f>A25/SUM(A25,A26)</f>
-        <v>0.91228070175438591</v>
+        <v>0.8</v>
       </c>
       <c r="F25" s="9">
         <f>A25/SUM(A25,B25)</f>
-        <v>0.88135593220338981</v>
+        <v>0.61016949152542377</v>
       </c>
       <c r="G25" s="10">
         <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
-        <v>0.89655172413793094</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="I25" s="11">
         <v>34</v>
@@ -2680,15 +4460,15 @@
       </c>
       <c r="K25" s="9">
         <f>SUM(I25+J26)/SUM(I25:J26)</f>
-        <v>0.81645569620253167</v>
+        <v>0.79113924050632911</v>
       </c>
       <c r="L25" s="9">
         <f>SUM(I26,J25)/SUM(I25:J26)</f>
-        <v>0.18354430379746836</v>
+        <v>0.20886075949367089</v>
       </c>
       <c r="M25" s="9">
         <f>I25/SUM(I25,I26)</f>
-        <v>0.89473684210526316</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="N25" s="9">
         <f>I25/SUM(I25,J25)</f>
@@ -2696,41 +4476,41 @@
       </c>
       <c r="O25" s="10">
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
-        <v>0.70103092783505172</v>
+        <v>0.67326732673267331</v>
       </c>
       <c r="Q25" s="11">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R25" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="S25" s="9">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>0.83544303797468356</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="T25" s="9">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>0.16455696202531644</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="U25" s="9">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>0.8666666666666667</v>
+        <v>0.79487179487179482</v>
       </c>
       <c r="V25" s="9">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>0.66101694915254239</v>
+        <v>0.52542372881355937</v>
       </c>
       <c r="W25" s="10">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>0.75000000000000011</v>
+        <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B26" s="12">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2738,10 +4518,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="I26" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J26" s="12">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -2749,10 +4529,10 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="Q26" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R26" s="12">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -2785,90 +4565,90 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B28" s="12">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C28" s="9">
         <f>SUM(A28+B29)/SUM(A28:B29)</f>
-        <v>0.98734177215189878</v>
+        <v>0.85443037974683544</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
-        <v>1.2658227848101266E-2</v>
+        <v>0.14556962025316456</v>
       </c>
       <c r="E28" s="9">
         <f>A28/SUM(A28,A29)</f>
-        <v>0.97777777777777775</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F28" s="9">
         <f>A28/SUM(A28,B28)</f>
-        <v>0.97777777777777775</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="G28" s="10">
         <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
-        <v>0.97777777777777775</v>
+        <v>0.71604938271604934</v>
       </c>
       <c r="I28" s="11">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J28" s="12">
         <v>16</v>
       </c>
       <c r="K28" s="9">
         <f>SUM(I28+J29)/SUM(I28:J29)</f>
-        <v>0.875</v>
+        <v>0.81645569620253167</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
-        <v>0.125</v>
+        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <v>0.18354430379746836</v>
       </c>
       <c r="M28" s="9">
         <f>I28/SUM(I28,I29)</f>
-        <v>0.88636363636363635</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="N28" s="9">
         <f>I28/SUM(I28,J28)</f>
-        <v>0.70909090909090911</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="O28" s="10">
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
-        <v>0.78787878787878785</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q28" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R28" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S28" s="9">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>0.88819875776397517</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>0.11180124223602485</v>
+        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>0.16455696202531644</v>
       </c>
       <c r="U28" s="9">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>0.96875</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="V28" s="9">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>0.64583333333333337</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="W28" s="10">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>0.77500000000000002</v>
+        <v>0.69047619047619058</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B29" s="12">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2876,10 +4656,10 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="I29" s="11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J29" s="12">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -2887,10 +4667,10 @@
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
       <c r="Q29" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R29" s="12">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -2923,90 +4703,90 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B31" s="12">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9">
         <f>SUM(A31+B32)/SUM(A31:B32)</f>
-        <v>0.92405063291139244</v>
+        <v>0.87341772151898733</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>7.5949367088607597E-2</v>
+        <v>0.12658227848101267</v>
       </c>
       <c r="E31" s="9">
         <f>A31/SUM(A31,A32)</f>
-        <v>0.83673469387755106</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="F31" s="9">
         <f>A31/SUM(A31,B31)</f>
-        <v>0.91111111111111109</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="G31" s="10">
         <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
-        <v>0.87234042553191482</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="I31" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J31" s="12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K31" s="9">
         <f>SUM(I31+J32)/SUM(I31:J32)</f>
-        <v>0.87341772151898733</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" ref="L31" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
-        <v>0.12658227848101267</v>
+        <f t="shared" si="1"/>
+        <v>0.17088607594936708</v>
       </c>
       <c r="M31" s="9">
         <f>I31/SUM(I31,I32)</f>
-        <v>0.82051282051282048</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N31" s="9">
         <f>I31/SUM(I31,J31)</f>
-        <v>0.71111111111111114</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O31" s="10">
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
-        <v>0.76190476190476186</v>
+        <v>0.68965517241379304</v>
       </c>
       <c r="Q31" s="11">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="R31" s="12">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="S31" s="9">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>0.879746835443038</v>
+        <v>0.82278481012658233</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
-        <v>0.12025316455696203</v>
+        <f t="shared" si="2"/>
+        <v>0.17721518987341772</v>
       </c>
       <c r="U31" s="9">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>0.80952380952380953</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="V31" s="9">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>0.75555555555555554</v>
+        <v>0.6</v>
       </c>
       <c r="W31" s="10">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>0.7816091954022989</v>
+        <v>0.65853658536585358</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="12">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3014,10 +4794,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="I32" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J32" s="12">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -3025,10 +4805,10 @@
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
       <c r="Q32" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R32" s="12">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -3061,30 +4841,30 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B34" s="12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C34" s="9">
         <f>SUM(A34+B35)/SUM(A34:B35)</f>
-        <v>0.97468354430379744</v>
+        <v>0.85443037974683544</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ref="D34" si="5">SUM(A35,B34)/SUM(A34:B35)</f>
-        <v>2.5316455696202531E-2</v>
+        <f t="shared" ref="D34" si="3">SUM(A35,B34)/SUM(A34:B35)</f>
+        <v>0.14556962025316456</v>
       </c>
       <c r="E34" s="9">
         <f>A34/SUM(A34,A35)</f>
-        <v>0.94117647058823528</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="F34" s="9">
         <f>A34/SUM(A34,B34)</f>
-        <v>0.97959183673469385</v>
+        <v>0.69387755102040816</v>
       </c>
       <c r="G34" s="10">
         <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
-        <v>0.96</v>
+        <v>0.74725274725274715</v>
       </c>
       <c r="I34" s="11">
         <v>30</v>
@@ -3094,15 +4874,15 @@
       </c>
       <c r="K34" s="9">
         <f>SUM(I34+J35)/SUM(I34:J35)</f>
-        <v>0.86075949367088611</v>
+        <v>0.84177215189873422</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" ref="L34" si="6">SUM(I35,J34)/SUM(I34:J35)</f>
-        <v>0.13924050632911392</v>
+        <f t="shared" ref="L34" si="4">SUM(I35,J34)/SUM(I34:J35)</f>
+        <v>0.15822784810126583</v>
       </c>
       <c r="M34" s="9">
         <f>I34/SUM(I34,I35)</f>
-        <v>0.90909090909090906</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N34" s="9">
         <f>I34/SUM(I34,J34)</f>
@@ -3110,41 +4890,41 @@
       </c>
       <c r="O34" s="10">
         <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
-        <v>0.73170731707317083</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="Q34" s="11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S34" s="9">
         <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
-        <v>0.91139240506329111</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="T34" s="9">
-        <f t="shared" ref="T34" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
-        <v>8.8607594936708861E-2</v>
+        <f t="shared" ref="T34" si="5">SUM(Q35,R34)/SUM(Q34:R35)</f>
+        <v>0.16455696202531644</v>
       </c>
       <c r="U34" s="9">
         <f>Q34/SUM(Q34,Q35)</f>
-        <v>0.94871794871794868</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="V34" s="9">
         <f>Q34/SUM(Q34,R34)</f>
-        <v>0.75510204081632648</v>
+        <v>0.67346938775510201</v>
       </c>
       <c r="W34" s="10">
         <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
-        <v>0.84090909090909083</v>
+        <v>0.71739130434782594</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B35" s="12">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -3152,10 +4932,10 @@
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="I35" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J35" s="12">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -3163,10 +4943,10 @@
       <c r="N35" s="9"/>
       <c r="O35" s="10"/>
       <c r="Q35" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R35" s="12">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -3176,97 +4956,95 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G36" s="22"/>
-      <c r="I36" s="24"/>
       <c r="O36" s="22"/>
-      <c r="Q36" s="24"/>
       <c r="W36" s="22"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B37" s="12">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C37" s="9">
         <f>SUM(A37+B38)/SUM(A37:B38)</f>
-        <v>0.89240506329113922</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" ref="D37" si="8">SUM(A38,B37)/SUM(A37:B38)</f>
-        <v>0.10759493670886076</v>
+        <f t="shared" ref="D37" si="6">SUM(A38,B37)/SUM(A37:B38)</f>
+        <v>0.17088607594936708</v>
       </c>
       <c r="E37" s="9">
         <f>A37/SUM(A37,A38)</f>
-        <v>0.80392156862745101</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="F37" s="9">
         <f>A37/SUM(A37,B37)</f>
-        <v>0.85416666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="G37" s="10">
         <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
-        <v>0.82828282828282829</v>
+        <v>0.70967741935483863</v>
       </c>
       <c r="I37" s="11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J37" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K37" s="9">
         <f>SUM(I37+J38)/SUM(I37:J38)</f>
-        <v>0.83544303797468356</v>
+        <v>0.810126582278481</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" ref="L37" si="9">SUM(I38,J37)/SUM(I37:J38)</f>
-        <v>0.16455696202531644</v>
+        <f t="shared" ref="L37" si="7">SUM(I38,J37)/SUM(I37:J38)</f>
+        <v>0.189873417721519</v>
       </c>
       <c r="M37" s="9">
         <f>I37/SUM(I37,I38)</f>
-        <v>0.80555555555555558</v>
+        <v>0.6875</v>
       </c>
       <c r="N37" s="9">
         <f>I37/SUM(I37,J37)</f>
-        <v>0.60416666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="O37" s="10">
         <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
-        <v>0.69047619047619047</v>
+        <v>0.6875</v>
       </c>
       <c r="Q37" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R37" s="12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S37" s="9">
         <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
-        <v>0.86708860759493667</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" ref="T37" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
-        <v>0.13291139240506328</v>
+        <f t="shared" ref="T37" si="8">SUM(Q38,R37)/SUM(Q37:R38)</f>
+        <v>0.20253164556962025</v>
       </c>
       <c r="U37" s="9">
         <f>Q37/SUM(Q37,Q38)</f>
-        <v>0.81395348837209303</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V37" s="9">
         <f>Q37/SUM(Q37,R37)</f>
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W37" s="10">
         <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
-        <v>0.76923076923076916</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B38" s="12">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3274,10 +5052,10 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="I38" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J38" s="12">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -3285,10 +5063,10 @@
       <c r="N38" s="9"/>
       <c r="O38" s="10"/>
       <c r="Q38" s="11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R38" s="12">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -3298,9 +5076,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G39" s="22"/>
-      <c r="I39" s="24"/>
       <c r="O39" s="22"/>
-      <c r="Q39" s="24"/>
       <c r="W39" s="22"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -3308,67 +5084,67 @@
       <c r="B40" s="23"/>
       <c r="C40" s="13">
         <f>SUM(C10:C37)/10</f>
-        <v>0.93674318571601733</v>
+        <v>0.83252129607515324</v>
       </c>
       <c r="D40" s="13">
         <f>SUM(D10:D37)/10</f>
-        <v>6.325681428398261E-2</v>
+        <v>0.16747870392484679</v>
       </c>
       <c r="E40" s="13">
         <f>SUM(E10:E37)/10</f>
-        <v>0.89065950998395971</v>
+        <v>0.78276588908167855</v>
       </c>
       <c r="F40" s="13">
         <f>SUM(F10:F37)/10</f>
-        <v>0.91025809448850148</v>
+        <v>0.64384938693039806</v>
       </c>
       <c r="G40" s="14">
         <f>SUM(G10:G37)/10</f>
-        <v>0.89964252930403377</v>
-      </c>
-      <c r="I40" s="25"/>
+        <v>0.70549687854951249</v>
+      </c>
+      <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="13">
         <f>SUM(K10:K37)/10</f>
-        <v>0.84028640235650032</v>
+        <v>0.8110182310325611</v>
       </c>
       <c r="L40" s="13">
         <f>SUM(L10:L37)/10</f>
-        <v>0.15971359764349974</v>
+        <v>0.1889817689674389</v>
       </c>
       <c r="M40" s="13">
         <f>SUM(M10:M37)/10</f>
-        <v>0.82010150083834288</v>
+        <v>0.73827491952491953</v>
       </c>
       <c r="N40" s="13">
         <f>SUM(N10:N37)/10</f>
-        <v>0.63306987602146136</v>
+        <v>0.61740320935479476</v>
       </c>
       <c r="O40" s="14">
         <f>SUM(O10:O37)/10</f>
-        <v>0.71266964606055683</v>
-      </c>
-      <c r="Q40" s="25"/>
+        <v>0.66969715149402631</v>
+      </c>
+      <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="13">
         <f>SUM(S10:S37)/10</f>
-        <v>0.88010639755014175</v>
+        <v>0.82238277207228738</v>
       </c>
       <c r="T40" s="13">
         <f>SUM(T10:T37)/10</f>
-        <v>0.11989360244985836</v>
+        <v>0.17761722792771278</v>
       </c>
       <c r="U40" s="13">
         <f>SUM(U10:U37)/10</f>
-        <v>0.86781583894776537</v>
+        <v>0.7598183765597265</v>
       </c>
       <c r="V40" s="13">
         <f>SUM(V10:V37)/10</f>
-        <v>0.73003604612858108</v>
+        <v>0.63656970045046246</v>
       </c>
       <c r="W40" s="14">
         <f>SUM(W10:W37)/10</f>
-        <v>0.79114800518568418</v>
+        <v>0.68963481865693876</v>
       </c>
     </row>
   </sheetData>
@@ -3378,88 +5154,1205 @@
     <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824C85A-E8DA-43CC-A471-E8F922303662}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8673CE9-A6DF-476B-A37A-57C8EF98BFE2}">
+  <dimension ref="A1:AA38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.93674318571601733</v>
+      </c>
+      <c r="C2" s="28">
+        <v>6.325681428398261E-2</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.89065950998396004</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0.91025809448850104</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0.89964252930403377</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0.83252129607515324</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0.16747870392484679</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.78276588908167855</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0.64384938693039806</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0.70549687854951249</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.85587532839742053</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.14412467160257941</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.78861084762423495</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.73564880832894441</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.76043643917887604</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.77832684607224845</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.2216731539277515</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.65788438343292788</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.61683965621309722</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.63446480093716406</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28">
+        <v>3</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.82366849773107254</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.17633150226892763</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.7455179606615927</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.66547451127052759</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.70219270341353401</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="31">
+        <v>7</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:K32"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC563E11-1FB9-47B5-8C85-3EF2B82BA748}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W40" sqref="S40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="4">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="I7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="Q7" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="29"/>
+      <c r="A7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="I7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="Q7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -3539,90 +6432,90 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B10" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9">
         <f>SUM(A10+B11)/SUM(A10:B11)</f>
-        <v>0.79245283018867929</v>
+        <v>0.72327044025157228</v>
       </c>
       <c r="D10" s="9">
         <f>SUM(A11,B10)/SUM(A10:B11)</f>
-        <v>0.20754716981132076</v>
+        <v>0.27672955974842767</v>
       </c>
       <c r="E10" s="9">
         <f>A10/SUM(A10,A11)</f>
-        <v>0.75</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="F10" s="9">
         <f>A10/SUM(A10,B10)</f>
-        <v>0.56603773584905659</v>
+        <v>0.26415094339622641</v>
       </c>
       <c r="G10" s="10">
         <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
-        <v>0.64516129032258074</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="I10" s="11">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J10" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K10" s="9">
         <f>SUM(I10+J11)/SUM(I10:J11)</f>
-        <v>0.79245283018867929</v>
+        <v>0.70440251572327039</v>
       </c>
       <c r="L10" s="9">
         <f>SUM(I11,J10)/SUM(I10:J11)</f>
-        <v>0.20754716981132076</v>
+        <v>0.29559748427672955</v>
       </c>
       <c r="M10" s="9">
         <f>I10/SUM(I10,I11)</f>
-        <v>0.72727272727272729</v>
+        <v>0.5625</v>
       </c>
       <c r="N10" s="9">
         <f>I10/SUM(I10,J10)</f>
-        <v>0.60377358490566035</v>
+        <v>0.50943396226415094</v>
       </c>
       <c r="O10" s="10">
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
-        <v>0.65979381443298968</v>
+        <v>0.53465346534653457</v>
       </c>
       <c r="Q10" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>0.81132075471698117</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="T10" s="9">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>0.18867924528301888</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="U10" s="9">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>0.78048780487804881</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="V10" s="9">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>0.60377358490566035</v>
+        <v>0.58490566037735847</v>
       </c>
       <c r="W10" s="10">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>0.68085106382978722</v>
+        <v>0.61386138613861385</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="12">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3630,10 +6523,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="I11" s="11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J11" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -3641,10 +6534,10 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="Q11" s="11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R11" s="12">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -3677,90 +6570,90 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B13" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9">
         <f>SUM(A13+B14)/SUM(A13:B14)</f>
-        <v>0.82389937106918243</v>
+        <v>0.73584905660377353</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(A14,B13)/SUM(A13:B14)</f>
-        <v>0.1761006289308176</v>
+        <v>0.26415094339622641</v>
       </c>
       <c r="E13" s="9">
         <f>A13/SUM(A13,A14)</f>
-        <v>0.76190476190476186</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F13" s="9">
         <f>A13/SUM(A13,B13)</f>
-        <v>0.64</v>
+        <v>0.26</v>
       </c>
       <c r="G13" s="10">
         <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
-        <v>0.69565217391304346</v>
+        <v>0.38235294117647062</v>
       </c>
       <c r="I13" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" s="9">
         <f>SUM(I13+J14)/SUM(I13:J14)</f>
-        <v>0.79874213836477992</v>
+        <v>0.76100628930817615</v>
       </c>
       <c r="L13" s="9">
         <f>SUM(I14,J13)/SUM(I13:J14)</f>
-        <v>0.20125786163522014</v>
+        <v>0.2389937106918239</v>
       </c>
       <c r="M13" s="9">
         <f>I13/SUM(I13,I14)</f>
-        <v>0.70454545454545459</v>
+        <v>0.625</v>
       </c>
       <c r="N13" s="9">
         <f>I13/SUM(I13,J13)</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="O13" s="10">
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
-        <v>0.65957446808510634</v>
+        <v>0.61224489795918358</v>
       </c>
       <c r="Q13" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S13" s="9">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>0.82389937106918243</v>
+        <v>0.78616352201257866</v>
       </c>
       <c r="T13" s="9">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>0.1761006289308176</v>
+        <v>0.21383647798742139</v>
       </c>
       <c r="U13" s="9">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V13" s="9">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="W13" s="10">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>0.70212765957446799</v>
+        <v>0.65306122448979587</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" s="12">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3768,10 +6661,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="I14" s="11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J14" s="12">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -3779,10 +6672,10 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="Q14" s="11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R14" s="12">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -3815,90 +6708,90 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B16" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9">
         <f>SUM(A16+B17)/SUM(A16:B17)</f>
-        <v>0.84177215189873422</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="D16" s="9">
         <f>SUM(A17,B16)/SUM(A16:B17)</f>
-        <v>0.15822784810126583</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="E16" s="9">
         <f>A16/SUM(A16,A17)</f>
-        <v>0.76315789473684215</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="F16" s="9">
         <f>A16/SUM(A16,B16)</f>
-        <v>0.64444444444444449</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G16" s="10">
         <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
-        <v>0.6987951807228916</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="I16" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J16" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="9">
         <f>SUM(I16+J17)/SUM(I16:J17)</f>
-        <v>0.82278481012658233</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="L16" s="9">
         <f>SUM(I17,J16)/SUM(I16:J17)</f>
-        <v>0.17721518987341772</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="M16" s="9">
         <f>I16/SUM(I16,I17)</f>
-        <v>0.71794871794871795</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="N16" s="9">
         <f>I16/SUM(I16,J16)</f>
-        <v>0.62222222222222223</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="O16" s="10">
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
-        <v>0.66666666666666663</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="Q16" s="11">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="R16" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S16" s="9">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>0.86075949367088611</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="T16" s="9">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>0.13924050632911392</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="U16" s="9">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>0.75555555555555554</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="V16" s="9">
         <f>Q16/SUM(Q16,R16)</f>
-        <v>0.75555555555555554</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="W16" s="10">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>0.75555555555555554</v>
+        <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B17" s="12">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3906,10 +6799,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="I17" s="11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J17" s="12">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -3917,10 +6810,10 @@
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="Q17" s="11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R17" s="12">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -3953,90 +6846,90 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B19" s="12">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C19" s="9">
         <f>SUM(A19+B20)/SUM(A19:B20)</f>
-        <v>0.810126582278481</v>
+        <v>0.689873417721519</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(A20,B19)/SUM(A19:B20)</f>
-        <v>0.189873417721519</v>
+        <v>0.310126582278481</v>
       </c>
       <c r="E19" s="9">
         <f>A19/SUM(A19,A20)</f>
-        <v>0.82051282051282048</v>
+        <v>0.75</v>
       </c>
       <c r="F19" s="9">
         <f>A19/SUM(A19,B19)</f>
-        <v>0.58181818181818179</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="G19" s="10">
         <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
-        <v>0.68085106382978722</v>
+        <v>0.26865671641791045</v>
       </c>
       <c r="I19" s="11">
+        <v>26</v>
+      </c>
+      <c r="J19" s="12">
         <v>29</v>
-      </c>
-      <c r="J19" s="12">
-        <v>26</v>
       </c>
       <c r="K19" s="9">
         <f>SUM(I19+J20)/SUM(I19:J20)</f>
-        <v>0.79113924050632911</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(I20,J19)/SUM(I19:J20)</f>
-        <v>0.20886075949367089</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="M19" s="9">
         <f>I19/SUM(I19,I20)</f>
-        <v>0.80555555555555558</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="N19" s="9">
         <f>I19/SUM(I19,J19)</f>
-        <v>0.52727272727272723</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="O19" s="10">
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
-        <v>0.63736263736263732</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="Q19" s="11">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R19" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S19" s="9">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>0.83544303797468356</v>
+        <v>0.75316455696202533</v>
       </c>
       <c r="T19" s="9">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>0.16455696202531644</v>
+        <v>0.24683544303797469</v>
       </c>
       <c r="U19" s="9">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>0.89189189189189189</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="V19" s="9">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>0.6</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="W19" s="10">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>0.71739130434782616</v>
+        <v>0.58064516129032251</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" s="12">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4044,10 +6937,10 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="I20" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J20" s="12">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -4055,10 +6948,10 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="Q20" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R20" s="12">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -4091,90 +6984,90 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B22" s="12">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9">
         <f>SUM(A22+B23)/SUM(A22:B23)</f>
-        <v>0.84810126582278478</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(A23,B22)/SUM(A22:B23)</f>
-        <v>0.15189873417721519</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="E22" s="9">
         <f>A22/SUM(A22,A23)</f>
-        <v>0.76315789473684215</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F22" s="9">
         <f>A22/SUM(A22,B22)</f>
-        <v>0.65909090909090906</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="G22" s="10">
         <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
-        <v>0.70731707317073167</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I22" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J22" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K22" s="9">
         <f>SUM(I22+J23)/SUM(I22:J23)</f>
-        <v>0.81645569620253167</v>
+        <v>0.75</v>
       </c>
       <c r="L22" s="9">
         <f>SUM(I23,J22)/SUM(I22:J23)</f>
-        <v>0.18354430379746836</v>
+        <v>0.25</v>
       </c>
       <c r="M22" s="9">
         <f>I22/SUM(I22,I23)</f>
-        <v>0.69230769230769229</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="N22" s="9">
         <f>I22/SUM(I22,J22)</f>
-        <v>0.61363636363636365</v>
+        <v>0.56818181818181823</v>
       </c>
       <c r="O22" s="10">
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
-        <v>0.65060240963855431</v>
+        <v>0.57471264367816088</v>
       </c>
       <c r="Q22" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>0.82911392405063289</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="T22" s="9">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>0.17088607594936708</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="U22" s="9">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>0.71794871794871795</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="V22" s="9">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="W22" s="10">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>0.67469879518072295</v>
+        <v>0.57777777777777783</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B23" s="12">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4182,10 +7075,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="I23" s="11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J23" s="12">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -4193,10 +7086,10 @@
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="Q23" s="11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="R23" s="12">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -4229,30 +7122,30 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B25" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9">
         <f>SUM(A25+B26)/SUM(A25:B26)</f>
-        <v>0.79746835443037978</v>
+        <v>0.72784810126582278</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(A26,B25)/SUM(A25:B26)</f>
-        <v>0.20253164556962025</v>
+        <v>0.27215189873417722</v>
       </c>
       <c r="E25" s="9">
         <f>A25/SUM(A25,A26)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F25" s="9">
         <f>A25/SUM(A25,B25)</f>
-        <v>0.61016949152542377</v>
+        <v>0.33898305084745761</v>
       </c>
       <c r="G25" s="10">
         <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
-        <v>0.6923076923076924</v>
+        <v>0.48192771084337344</v>
       </c>
       <c r="I25" s="11">
         <v>34</v>
@@ -4262,15 +7155,15 @@
       </c>
       <c r="K25" s="9">
         <f>SUM(I25+J26)/SUM(I25:J26)</f>
-        <v>0.79113924050632911</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="L25" s="9">
         <f>SUM(I26,J25)/SUM(I25:J26)</f>
-        <v>0.20886075949367089</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="M25" s="9">
         <f>I25/SUM(I25,I26)</f>
-        <v>0.80952380952380953</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="N25" s="9">
         <f>I25/SUM(I25,J25)</f>
@@ -4278,41 +7171,41 @@
       </c>
       <c r="O25" s="10">
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
-        <v>0.67326732673267331</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="Q25" s="11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R25" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S25" s="9">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>0.77215189873417722</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="T25" s="9">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>0.22784810126582278</v>
+        <v>0.24050632911392406</v>
       </c>
       <c r="U25" s="9">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>0.79487179487179482</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V25" s="9">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>0.52542372881355937</v>
+        <v>0.59322033898305082</v>
       </c>
       <c r="W25" s="10">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>0.63265306122448983</v>
+        <v>0.64814814814814814</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B26" s="12">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4320,10 +7213,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="I26" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J26" s="12">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -4331,10 +7224,10 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="Q26" s="11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R26" s="12">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -4367,90 +7260,90 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C28" s="9">
         <f>SUM(A28+B29)/SUM(A28:B29)</f>
-        <v>0.85443037974683544</v>
+        <v>0.76582278481012656</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
-        <v>0.14556962025316456</v>
+        <v>0.23417721518987342</v>
       </c>
       <c r="E28" s="9">
         <f>A28/SUM(A28,A29)</f>
-        <v>0.80555555555555558</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F28" s="9">
         <f>A28/SUM(A28,B28)</f>
-        <v>0.64444444444444449</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="G28" s="10">
         <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
-        <v>0.71604938271604934</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="I28" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J28" s="12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K28" s="9">
         <f>SUM(I28+J29)/SUM(I28:J29)</f>
-        <v>0.81645569620253167</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
-        <v>0.18354430379746836</v>
+        <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <v>0.20253164556962025</v>
       </c>
       <c r="M28" s="9">
         <f>I28/SUM(I28,I29)</f>
-        <v>0.69047619047619047</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N28" s="9">
         <f>I28/SUM(I28,J28)</f>
-        <v>0.64444444444444449</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="O28" s="10">
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
-        <v>0.66666666666666663</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q28" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R28" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S28" s="9">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>0.83544303797468356</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>0.16455696202531644</v>
+        <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>0.20253164556962025</v>
       </c>
       <c r="U28" s="9">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>0.74358974358974361</v>
+        <v>0.65116279069767447</v>
       </c>
       <c r="V28" s="9">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>0.64444444444444449</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="W28" s="10">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>0.69047619047619058</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B29" s="12">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4469,10 +7362,10 @@
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
       <c r="Q29" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R29" s="12">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -4505,90 +7398,90 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B31" s="12">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C31" s="9">
         <f>SUM(A31+B32)/SUM(A31:B32)</f>
-        <v>0.87341772151898733</v>
+        <v>0.80379746835443033</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>0.12658227848101267</v>
+        <v>0.19620253164556961</v>
       </c>
       <c r="E31" s="9">
         <f>A31/SUM(A31,A32)</f>
-        <v>0.82051282051282048</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F31" s="9">
         <f>A31/SUM(A31,B31)</f>
-        <v>0.71111111111111114</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="G31" s="10">
         <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
-        <v>0.76190476190476186</v>
+        <v>0.50793650793650791</v>
       </c>
       <c r="I31" s="11">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J31" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K31" s="9">
         <f>SUM(I31+J32)/SUM(I31:J32)</f>
-        <v>0.82911392405063289</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="1"/>
-        <v>0.17088607594936708</v>
+        <f t="shared" ref="L31" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
+        <v>0.22784810126582278</v>
       </c>
       <c r="M31" s="9">
         <f>I31/SUM(I31,I32)</f>
-        <v>0.7142857142857143</v>
+        <v>0.60465116279069764</v>
       </c>
       <c r="N31" s="9">
         <f>I31/SUM(I31,J31)</f>
-        <v>0.66666666666666663</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="O31" s="10">
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
-        <v>0.68965517241379304</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="Q31" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R31" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S31" s="9">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
         <v>0.82278481012658233</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T31" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
         <v>0.17721518987341772</v>
       </c>
       <c r="U31" s="9">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>0.72972972972972971</v>
+        <v>0.69767441860465118</v>
       </c>
       <c r="V31" s="9">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W31" s="10">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>0.65853658536585358</v>
+        <v>0.68181818181818177</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B32" s="12">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4596,10 +7489,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="I32" s="11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J32" s="12">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -4607,10 +7500,10 @@
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
       <c r="Q32" s="11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R32" s="12">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -4643,90 +7536,90 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B34" s="12">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9">
         <f>SUM(A34+B35)/SUM(A34:B35)</f>
-        <v>0.85443037974683544</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ref="D34" si="3">SUM(A35,B34)/SUM(A34:B35)</f>
-        <v>0.14556962025316456</v>
+        <f t="shared" ref="D34" si="5">SUM(A35,B34)/SUM(A34:B35)</f>
+        <v>0.24050632911392406</v>
       </c>
       <c r="E34" s="9">
         <f>A34/SUM(A34,A35)</f>
-        <v>0.80952380952380953</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="F34" s="9">
         <f>A34/SUM(A34,B34)</f>
-        <v>0.69387755102040816</v>
+        <v>0.32653061224489793</v>
       </c>
       <c r="G34" s="10">
         <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
-        <v>0.74725274725274715</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="I34" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J34" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K34" s="9">
         <f>SUM(I34+J35)/SUM(I34:J35)</f>
-        <v>0.84177215189873422</v>
+        <v>0.80379746835443033</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" ref="L34" si="4">SUM(I35,J34)/SUM(I34:J35)</f>
-        <v>0.15822784810126583</v>
+        <f t="shared" ref="L34" si="6">SUM(I35,J34)/SUM(I34:J35)</f>
+        <v>0.19620253164556961</v>
       </c>
       <c r="M34" s="9">
         <f>I34/SUM(I34,I35)</f>
-        <v>0.83333333333333337</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="N34" s="9">
         <f>I34/SUM(I34,J34)</f>
-        <v>0.61224489795918369</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="O34" s="10">
         <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
-        <v>0.70588235294117652</v>
+        <v>0.67368421052631577</v>
       </c>
       <c r="Q34" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R34" s="12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S34" s="9">
         <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
-        <v>0.83544303797468356</v>
+        <v>0.82278481012658233</v>
       </c>
       <c r="T34" s="9">
-        <f t="shared" ref="T34" si="5">SUM(Q35,R34)/SUM(Q34:R35)</f>
-        <v>0.16455696202531644</v>
+        <f t="shared" ref="T34" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
+        <v>0.17721518987341772</v>
       </c>
       <c r="U34" s="9">
         <f>Q34/SUM(Q34,Q35)</f>
-        <v>0.76744186046511631</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V34" s="9">
         <f>Q34/SUM(Q34,R34)</f>
-        <v>0.67346938775510201</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="W34" s="10">
         <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
-        <v>0.71739130434782594</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B35" s="12">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -4734,10 +7627,10 @@
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="I35" s="11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J35" s="12">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -4745,10 +7638,10 @@
       <c r="N35" s="9"/>
       <c r="O35" s="10"/>
       <c r="Q35" s="11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R35" s="12">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -4763,90 +7656,90 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B37" s="12">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C37" s="9">
         <f>SUM(A37+B38)/SUM(A37:B38)</f>
-        <v>0.82911392405063289</v>
+        <v>0.73417721518987344</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" ref="D37" si="6">SUM(A38,B37)/SUM(A37:B38)</f>
-        <v>0.17088607594936708</v>
+        <f t="shared" ref="D37" si="8">SUM(A38,B37)/SUM(A37:B38)</f>
+        <v>0.26582278481012656</v>
       </c>
       <c r="E37" s="9">
         <f>A37/SUM(A37,A38)</f>
-        <v>0.73333333333333328</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F37" s="9">
         <f>A37/SUM(A37,B37)</f>
-        <v>0.6875</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G37" s="10">
         <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
-        <v>0.70967741935483863</v>
+        <v>0.4</v>
       </c>
       <c r="I37" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J37" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K37" s="9">
         <f>SUM(I37+J38)/SUM(I37:J38)</f>
-        <v>0.810126582278481</v>
+        <v>0.75316455696202533</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" ref="L37" si="7">SUM(I38,J37)/SUM(I37:J38)</f>
-        <v>0.189873417721519</v>
+        <f t="shared" ref="L37" si="9">SUM(I38,J37)/SUM(I37:J38)</f>
+        <v>0.24683544303797469</v>
       </c>
       <c r="M37" s="9">
         <f>I37/SUM(I37,I38)</f>
-        <v>0.6875</v>
+        <v>0.58490566037735847</v>
       </c>
       <c r="N37" s="9">
         <f>I37/SUM(I37,J37)</f>
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="O37" s="10">
         <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
-        <v>0.6875</v>
+        <v>0.61386138613861385</v>
       </c>
       <c r="Q37" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R37" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S37" s="9">
         <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
         <v>0.79746835443037978</v>
       </c>
       <c r="T37" s="9">
-        <f t="shared" ref="T37" si="8">SUM(Q38,R37)/SUM(Q37:R38)</f>
+        <f t="shared" ref="T37" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
         <v>0.20253164556962025</v>
       </c>
       <c r="U37" s="9">
         <f>Q37/SUM(Q37,Q38)</f>
-        <v>0.66666666666666663</v>
+        <v>0.66</v>
       </c>
       <c r="V37" s="9">
         <f>Q37/SUM(Q37,R37)</f>
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="W37" s="10">
         <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
-        <v>0.66666666666666663</v>
+        <v>0.67346938775510201</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B38" s="12">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -4854,10 +7747,10 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="I38" s="11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J38" s="12">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -4865,10 +7758,10 @@
       <c r="N38" s="9"/>
       <c r="O38" s="10"/>
       <c r="Q38" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R38" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -4886,67 +7779,67 @@
       <c r="B40" s="23"/>
       <c r="C40" s="13">
         <f>SUM(C10:C37)/10</f>
-        <v>0.83252129607515324</v>
+        <v>0.74717777247034467</v>
       </c>
       <c r="D40" s="13">
         <f>SUM(D10:D37)/10</f>
-        <v>0.16747870392484679</v>
+        <v>0.25282222752965533</v>
       </c>
       <c r="E40" s="13">
         <f>SUM(E10:E37)/10</f>
-        <v>0.78276588908167855</v>
+        <v>0.77178333362543894</v>
       </c>
       <c r="F40" s="13">
         <f>SUM(F10:F37)/10</f>
-        <v>0.64384938693039806</v>
+        <v>0.26944625862865618</v>
       </c>
       <c r="G40" s="14">
         <f>SUM(G10:G37)/10</f>
-        <v>0.70549687854951249</v>
+        <v>0.39617574216879653</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="13">
         <f>SUM(K10:K37)/10</f>
-        <v>0.8110182310325611</v>
+        <v>0.76331303240187887</v>
       </c>
       <c r="L40" s="13">
         <f>SUM(L10:L37)/10</f>
-        <v>0.1889817689674389</v>
+        <v>0.23668696759812119</v>
       </c>
       <c r="M40" s="13">
         <f>SUM(M10:M37)/10</f>
-        <v>0.73827491952491953</v>
+        <v>0.64024170261458824</v>
       </c>
       <c r="N40" s="13">
         <f>SUM(N10:N37)/10</f>
-        <v>0.61740320935479476</v>
+        <v>0.57143976863259371</v>
       </c>
       <c r="O40" s="14">
         <f>SUM(O10:O37)/10</f>
-        <v>0.66969715149402631</v>
+        <v>0.60098290967741319</v>
       </c>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="13">
         <f>SUM(S10:S37)/10</f>
-        <v>0.82238277207228738</v>
+        <v>0.77832684607224845</v>
       </c>
       <c r="T40" s="13">
         <f>SUM(T10:T37)/10</f>
-        <v>0.17761722792771278</v>
+        <v>0.2216731539277515</v>
       </c>
       <c r="U40" s="13">
         <f>SUM(U10:U37)/10</f>
-        <v>0.7598183765597265</v>
+        <v>0.65788438343292788</v>
       </c>
       <c r="V40" s="13">
         <f>SUM(V10:V37)/10</f>
-        <v>0.63656970045046246</v>
+        <v>0.61683965621309722</v>
       </c>
       <c r="W40" s="14">
         <f>SUM(W10:W37)/10</f>
-        <v>0.68963481865693876</v>
+        <v>0.63446480093716406</v>
       </c>
     </row>
   </sheetData>
@@ -4956,729 +7849,88 @@
     <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8673CE9-A6DF-476B-A37A-57C8EF98BFE2}">
-  <dimension ref="A1:AA38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:AA38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.83389890399940647</v>
-      </c>
-      <c r="C2">
-        <v>0.24065237805187556</v>
-      </c>
-      <c r="D2">
-        <v>0.79213051681094049</v>
-      </c>
-      <c r="E2">
-        <v>0.63808709210578185</v>
-      </c>
-      <c r="F2">
-        <v>0.70508465745590798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.74767090790429602</v>
-      </c>
-      <c r="C3">
-        <v>0.25232909209570409</v>
-      </c>
-      <c r="D3">
-        <v>0.77094760137523288</v>
-      </c>
-      <c r="E3">
-        <v>0.27488976005981769</v>
-      </c>
-      <c r="F3">
-        <v>0.40341019982700099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.93532585783085387</v>
-      </c>
-      <c r="C4">
-        <v>6.4674142169146062E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.88986769434252555</v>
-      </c>
-      <c r="E4">
-        <v>0.90961140559408604</v>
-      </c>
-      <c r="F4">
-        <v>0.89860794583169834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-    </row>
-    <row r="17" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-    </row>
-    <row r="18" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-    </row>
-    <row r="19" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-    </row>
-    <row r="20" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-    </row>
-    <row r="21" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-    </row>
-    <row r="22" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-    </row>
-    <row r="23" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-    </row>
-    <row r="24" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-    </row>
-    <row r="25" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-    </row>
-    <row r="26" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-    </row>
-    <row r="27" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-    </row>
-    <row r="28" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-    </row>
-    <row r="29" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-    </row>
-    <row r="30" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-    </row>
-    <row r="31" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-    </row>
-    <row r="32" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-    </row>
-    <row r="33" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-    </row>
-    <row r="34" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-    </row>
-    <row r="35" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-    </row>
-    <row r="36" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-    </row>
-    <row r="37" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-    </row>
-    <row r="38" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N5:AA38"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC563E11-1FB9-47B5-8C85-3EF2B82BA748}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512AC84B-5E62-4D2A-9EBF-AEDDA7BBE8B3}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="15">
+        <v>11</v>
+      </c>
+      <c r="C2" s="26">
+        <v>19</v>
+      </c>
+      <c r="D2" s="26">
         <v>15</v>
       </c>
-      <c r="C2" s="4">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="I7" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="Q7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="29"/>
+      <c r="A7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="I7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="Q7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -5758,90 +8010,90 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B10" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9">
         <f>SUM(A10+B11)/SUM(A10:B11)</f>
-        <v>0.72327044025157228</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="D10" s="9">
         <f>SUM(A11,B10)/SUM(A10:B11)</f>
-        <v>0.27672955974842767</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="E10" s="9">
         <f>A10/SUM(A10,A11)</f>
-        <v>0.73684210526315785</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="F10" s="9">
         <f>A10/SUM(A10,B10)</f>
-        <v>0.26415094339622641</v>
+        <v>0.77358490566037741</v>
       </c>
       <c r="G10" s="10">
         <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
-        <v>0.3888888888888889</v>
+        <v>0.71304347826086956</v>
       </c>
       <c r="I10" s="11">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J10" s="12">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K10" s="9">
         <f>SUM(I10+J11)/SUM(I10:J11)</f>
-        <v>0.70440251572327039</v>
+        <v>0.83018867924528306</v>
       </c>
       <c r="L10" s="9">
         <f>SUM(I11,J10)/SUM(I10:J11)</f>
-        <v>0.29559748427672955</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="M10" s="9">
         <f>I10/SUM(I10,I11)</f>
-        <v>0.5625</v>
+        <v>0.76</v>
       </c>
       <c r="N10" s="9">
         <f>I10/SUM(I10,J10)</f>
-        <v>0.50943396226415094</v>
+        <v>0.71698113207547165</v>
       </c>
       <c r="O10" s="10">
         <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
-        <v>0.53465346534653457</v>
+        <v>0.73786407766990281</v>
       </c>
       <c r="Q10" s="11">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R10" s="12">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S10" s="9">
         <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>0.75471698113207553</v>
+        <v>0.80503144654088055</v>
       </c>
       <c r="T10" s="9">
         <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>0.24528301886792453</v>
+        <v>0.19496855345911951</v>
       </c>
       <c r="U10" s="9">
         <f>Q10/SUM(Q10,Q11)</f>
-        <v>0.64583333333333337</v>
+        <v>0.72</v>
       </c>
       <c r="V10" s="9">
         <f>Q10/SUM(Q10,R10)</f>
-        <v>0.58490566037735847</v>
+        <v>0.67924528301886788</v>
       </c>
       <c r="W10" s="10">
         <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>0.61386138613861385</v>
+        <v>0.69902912621359214</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B11" s="12">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -5849,10 +8101,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="I11" s="11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J11" s="12">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -5860,10 +8112,10 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="Q11" s="11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R11" s="12">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -5896,90 +8148,90 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B13" s="12">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C13" s="9">
         <f>SUM(A13+B14)/SUM(A13:B14)</f>
-        <v>0.73584905660377353</v>
+        <v>0.84276729559748431</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(A14,B13)/SUM(A13:B14)</f>
-        <v>0.26415094339622641</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="E13" s="9">
         <f>A13/SUM(A13,A14)</f>
-        <v>0.72222222222222221</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="F13" s="9">
         <f>A13/SUM(A13,B13)</f>
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="10">
         <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
-        <v>0.38235294117647062</v>
+        <v>0.78260869565217384</v>
       </c>
       <c r="I13" s="11">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J13" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K13" s="9">
         <f>SUM(I13+J14)/SUM(I13:J14)</f>
-        <v>0.76100628930817615</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13" s="9">
         <f>SUM(I14,J13)/SUM(I13:J14)</f>
-        <v>0.2389937106918239</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="M13" s="9">
         <f>I13/SUM(I13,I14)</f>
-        <v>0.625</v>
+        <v>0.84782608695652173</v>
       </c>
       <c r="N13" s="9">
         <f>I13/SUM(I13,J13)</f>
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="O13" s="10">
         <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
-        <v>0.61224489795918358</v>
+        <v>0.8125</v>
       </c>
       <c r="Q13" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R13" s="12">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S13" s="9">
         <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>0.78616352201257866</v>
+        <v>0.85534591194968557</v>
       </c>
       <c r="T13" s="9">
         <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>0.21383647798742139</v>
+        <v>0.14465408805031446</v>
       </c>
       <c r="U13" s="9">
         <f>Q13/SUM(Q13,Q14)</f>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="V13" s="9">
         <f>Q13/SUM(Q13,R13)</f>
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="W13" s="10">
         <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>0.65306122448979587</v>
+        <v>0.75789473684210518</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B14" s="12">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -5987,10 +8239,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="I14" s="11">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J14" s="12">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -5998,10 +8250,10 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="Q14" s="11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R14" s="12">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -6034,90 +8286,90 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B16" s="12">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C16" s="9">
         <f>SUM(A16+B17)/SUM(A16:B17)</f>
-        <v>0.759493670886076</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="D16" s="9">
         <f>SUM(A17,B16)/SUM(A16:B17)</f>
-        <v>0.24050632911392406</v>
+        <v>0.22784810126582278</v>
       </c>
       <c r="E16" s="9">
         <f>A16/SUM(A16,A17)</f>
-        <v>0.76923076923076927</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="F16" s="9">
         <f>A16/SUM(A16,B16)</f>
-        <v>0.22222222222222221</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G16" s="10">
         <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
-        <v>0.34482758620689657</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="I16" s="11">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K16" s="9">
         <f>SUM(I16+J17)/SUM(I16:J17)</f>
-        <v>0.77215189873417722</v>
+        <v>0.86075949367088611</v>
       </c>
       <c r="L16" s="9">
         <f>SUM(I17,J16)/SUM(I16:J17)</f>
-        <v>0.22784810126582278</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="M16" s="9">
         <f>I16/SUM(I16,I17)</f>
-        <v>0.61538461538461542</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="N16" s="9">
         <f>I16/SUM(I16,J16)</f>
-        <v>0.53333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="O16" s="10">
         <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
-        <v>0.57142857142857151</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="Q16" s="11">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R16" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="S16" s="9">
         <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>0.72972972972972971</v>
+        <v>0.93854748603351956</v>
       </c>
       <c r="T16" s="9">
         <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>0.27027027027027029</v>
+        <v>6.1452513966480445E-2</v>
       </c>
       <c r="U16" s="9">
         <f>Q16/SUM(Q16,Q17)</f>
-        <v>0.55319148936170215</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="V16" s="9">
         <f>Q16/SUM(Q16,R16)</f>
-        <v>0.57777777777777772</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="W16" s="10">
         <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>0.56521739130434778</v>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B17" s="12">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -6125,10 +8377,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="I17" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J17" s="12">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -6136,10 +8388,10 @@
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="Q17" s="11">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R17" s="12">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -6172,90 +8424,90 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B19" s="12">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C19" s="9">
         <f>SUM(A19+B20)/SUM(A19:B20)</f>
-        <v>0.689873417721519</v>
+        <v>0.78481012658227844</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(A20,B19)/SUM(A19:B20)</f>
-        <v>0.310126582278481</v>
+        <v>0.21518987341772153</v>
       </c>
       <c r="E19" s="9">
         <f>A19/SUM(A19,A20)</f>
-        <v>0.75</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="F19" s="9">
         <f>A19/SUM(A19,B19)</f>
-        <v>0.16363636363636364</v>
+        <v>0.92727272727272725</v>
       </c>
       <c r="G19" s="10">
         <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
-        <v>0.26865671641791045</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="I19" s="11">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J19" s="12">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K19" s="9">
         <f>SUM(I19+J20)/SUM(I19:J20)</f>
-        <v>0.759493670886076</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(I20,J19)/SUM(I19:J20)</f>
-        <v>0.24050632911392406</v>
+        <v>0.16455696202531644</v>
       </c>
       <c r="M19" s="9">
         <f>I19/SUM(I19,I20)</f>
-        <v>0.74285714285714288</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="N19" s="9">
         <f>I19/SUM(I19,J19)</f>
-        <v>0.47272727272727272</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="O19" s="10">
         <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
-        <v>0.57777777777777783</v>
+        <v>0.75471698113207542</v>
       </c>
       <c r="Q19" s="11">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="R19" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="S19" s="9">
         <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>0.75316455696202533</v>
+        <v>0.77848101265822789</v>
       </c>
       <c r="T19" s="9">
         <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>0.24683544303797469</v>
+        <v>0.22151898734177214</v>
       </c>
       <c r="U19" s="9">
         <f>Q19/SUM(Q19,Q20)</f>
-        <v>0.71052631578947367</v>
+        <v>0.68518518518518523</v>
       </c>
       <c r="V19" s="9">
         <f>Q19/SUM(Q19,R19)</f>
-        <v>0.49090909090909091</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="W19" s="10">
         <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>0.58064516129032251</v>
+        <v>0.67889908256880738</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B20" s="12">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -6263,10 +8515,10 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="I20" s="11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J20" s="12">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -6274,10 +8526,10 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="Q20" s="11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R20" s="12">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -6310,90 +8562,90 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B22" s="12">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9">
         <f>SUM(A22+B23)/SUM(A22:B23)</f>
-        <v>0.77215189873417722</v>
+        <v>0.81645569620253167</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(A23,B22)/SUM(A22:B23)</f>
-        <v>0.22784810126582278</v>
+        <v>0.18354430379746836</v>
       </c>
       <c r="E22" s="9">
         <f>A22/SUM(A22,A23)</f>
-        <v>0.83333333333333337</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F22" s="9">
         <f>A22/SUM(A22,B22)</f>
-        <v>0.22727272727272727</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="G22" s="10">
         <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
-        <v>0.35714285714285715</v>
+        <v>0.70707070707070707</v>
       </c>
       <c r="I22" s="11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J22" s="12">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K22" s="9">
         <f>SUM(I22+J23)/SUM(I22:J23)</f>
-        <v>0.75</v>
+        <v>0.86075949367088611</v>
       </c>
       <c r="L22" s="9">
         <f>SUM(I23,J22)/SUM(I22:J23)</f>
-        <v>0.25</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="M22" s="9">
         <f>I22/SUM(I22,I23)</f>
-        <v>0.58139534883720934</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="N22" s="9">
         <f>I22/SUM(I22,J22)</f>
-        <v>0.56818181818181823</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="O22" s="10">
         <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
-        <v>0.57471264367816088</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="Q22" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R22" s="12">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>0.759493670886076</v>
+        <v>0.84177215189873422</v>
       </c>
       <c r="T22" s="9">
         <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>0.24050632911392406</v>
+        <v>0.15822784810126583</v>
       </c>
       <c r="U22" s="9">
         <f>Q22/SUM(Q22,Q23)</f>
-        <v>0.56521739130434778</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="V22" s="9">
         <f>Q22/SUM(Q22,R22)</f>
-        <v>0.59090909090909094</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="W22" s="10">
         <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>0.57777777777777783</v>
+        <v>0.70588235294117641</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B23" s="12">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -6401,10 +8653,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="I23" s="11">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J23" s="12">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -6412,10 +8664,10 @@
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
       <c r="Q23" s="11">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="R23" s="12">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -6448,90 +8700,90 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B25" s="12">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C25" s="9">
         <f>SUM(A25+B26)/SUM(A25:B26)</f>
-        <v>0.72784810126582278</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(A26,B25)/SUM(A25:B26)</f>
-        <v>0.27215189873417722</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="E25" s="9">
         <f>A25/SUM(A25,A26)</f>
-        <v>0.83333333333333337</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="F25" s="9">
         <f>A25/SUM(A25,B25)</f>
-        <v>0.33898305084745761</v>
+        <v>0.83050847457627119</v>
       </c>
       <c r="G25" s="10">
         <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
-        <v>0.48192771084337344</v>
+        <v>0.75384615384615372</v>
       </c>
       <c r="I25" s="11">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J25" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K25" s="9">
         <f>SUM(I25+J26)/SUM(I25:J26)</f>
-        <v>0.759493670886076</v>
+        <v>0.810126582278481</v>
       </c>
       <c r="L25" s="9">
         <f>SUM(I26,J25)/SUM(I25:J26)</f>
-        <v>0.24050632911392406</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="M25" s="9">
         <f>I25/SUM(I25,I26)</f>
-        <v>0.72340425531914898</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="N25" s="9">
         <f>I25/SUM(I25,J25)</f>
-        <v>0.57627118644067798</v>
+        <v>0.66101694915254239</v>
       </c>
       <c r="O25" s="10">
         <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
-        <v>0.64150943396226412</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="Q25" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R25" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S25" s="9">
         <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>0.759493670886076</v>
+        <v>0.79113924050632911</v>
       </c>
       <c r="T25" s="9">
         <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>0.24050632911392406</v>
+        <v>0.20886075949367089</v>
       </c>
       <c r="U25" s="9">
         <f>Q25/SUM(Q25,Q26)</f>
-        <v>0.7142857142857143</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="V25" s="9">
         <f>Q25/SUM(Q25,R25)</f>
-        <v>0.59322033898305082</v>
+        <v>0.61016949152542377</v>
       </c>
       <c r="W25" s="10">
         <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>0.64814814814814814</v>
+        <v>0.68571428571428583</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B26" s="12">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -6539,10 +8791,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="I26" s="11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J26" s="12">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -6550,10 +8802,10 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="Q26" s="11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R26" s="12">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -6586,90 +8838,90 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B28" s="12">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C28" s="9">
         <f>SUM(A28+B29)/SUM(A28:B29)</f>
-        <v>0.76582278481012656</v>
+        <v>0.879746835443038</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
-        <v>0.23417721518987342</v>
+        <v>0.12025316455696203</v>
       </c>
       <c r="E28" s="9">
         <f>A28/SUM(A28,A29)</f>
-        <v>0.7857142857142857</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="F28" s="9">
         <f>A28/SUM(A28,B28)</f>
-        <v>0.24444444444444444</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="G28" s="10">
         <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
-        <v>0.3728813559322034</v>
+        <v>0.81188118811881183</v>
       </c>
       <c r="I28" s="11">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J28" s="12">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K28" s="9">
         <f>SUM(I28+J29)/SUM(I28:J29)</f>
-        <v>0.79746835443037978</v>
+        <v>0.85443037974683544</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" ref="L28" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
-        <v>0.20253164556962025</v>
+        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
+        <v>0.14556962025316456</v>
       </c>
       <c r="M28" s="9">
         <f>I28/SUM(I28,I29)</f>
-        <v>0.66666666666666663</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="N28" s="9">
         <f>I28/SUM(I28,J28)</f>
-        <v>0.57777777777777772</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="O28" s="10">
         <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
-        <v>0.61904761904761896</v>
+        <v>0.7294117647058822</v>
       </c>
       <c r="Q28" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R28" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S28" s="9">
         <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>0.79746835443037978</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" ref="T28" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>0.20253164556962025</v>
+        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
+        <v>0.16455696202531644</v>
       </c>
       <c r="U28" s="9">
         <f>Q28/SUM(Q28,Q29)</f>
-        <v>0.65116279069767447</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="V28" s="9">
         <f>Q28/SUM(Q28,R28)</f>
-        <v>0.62222222222222223</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W28" s="10">
         <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>0.63636363636363635</v>
+        <v>0.69767441860465107</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B29" s="12">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -6677,10 +8929,10 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="I29" s="11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J29" s="12">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -6688,10 +8940,10 @@
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
       <c r="Q29" s="11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R29" s="12">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -6724,90 +8976,90 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B31" s="12">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C31" s="9">
         <f>SUM(A31+B32)/SUM(A31:B32)</f>
-        <v>0.80379746835443033</v>
+        <v>0.82911392405063289</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>0.19620253164556961</v>
+        <v>0.17088607594936708</v>
       </c>
       <c r="E31" s="9">
         <f>A31/SUM(A31,A32)</f>
-        <v>0.88888888888888884</v>
+        <v>0.65</v>
       </c>
       <c r="F31" s="9">
         <f>A31/SUM(A31,B31)</f>
-        <v>0.35555555555555557</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G31" s="10">
         <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
-        <v>0.50793650793650791</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="I31" s="11">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J31" s="12">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K31" s="9">
         <f>SUM(I31+J32)/SUM(I31:J32)</f>
-        <v>0.77215189873417722</v>
+        <v>0.87341772151898733</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" ref="L31" si="3">SUM(I32,J31)/SUM(I31:J32)</f>
-        <v>0.22784810126582278</v>
+        <f t="shared" si="1"/>
+        <v>0.12658227848101267</v>
       </c>
       <c r="M31" s="9">
         <f>I31/SUM(I31,I32)</f>
-        <v>0.60465116279069764</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="N31" s="9">
         <f>I31/SUM(I31,J31)</f>
-        <v>0.57777777777777772</v>
+        <v>0.8</v>
       </c>
       <c r="O31" s="10">
         <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
-        <v>0.59090909090909083</v>
+        <v>0.78260869565217384</v>
       </c>
       <c r="Q31" s="11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R31" s="12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S31" s="9">
         <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>0.82278481012658233</v>
+        <v>0.88607594936708856</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31" si="4">SUM(Q32,R31)/SUM(Q31:R32)</f>
-        <v>0.17721518987341772</v>
+        <f t="shared" si="2"/>
+        <v>0.11392405063291139</v>
       </c>
       <c r="U31" s="9">
         <f>Q31/SUM(Q31,Q32)</f>
-        <v>0.69767441860465118</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="V31" s="9">
         <f>Q31/SUM(Q31,R31)</f>
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="W31" s="10">
         <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>0.68181818181818177</v>
+        <v>0.79545454545454553</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B32" s="12">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -6815,10 +9067,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="I32" s="11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J32" s="12">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -6826,10 +9078,10 @@
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
       <c r="Q32" s="11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R32" s="12">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -6862,1584 +9114,6 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>16</v>
-      </c>
-      <c r="B34" s="12">
-        <v>33</v>
-      </c>
-      <c r="C34" s="9">
-        <f>SUM(A34+B35)/SUM(A34:B35)</f>
-        <v>0.759493670886076</v>
-      </c>
-      <c r="D34" s="9">
-        <f t="shared" ref="D34" si="5">SUM(A35,B34)/SUM(A34:B35)</f>
-        <v>0.24050632911392406</v>
-      </c>
-      <c r="E34" s="9">
-        <f>A34/SUM(A34,A35)</f>
-        <v>0.76190476190476186</v>
-      </c>
-      <c r="F34" s="9">
-        <f>A34/SUM(A34,B34)</f>
-        <v>0.32653061224489793</v>
-      </c>
-      <c r="G34" s="10">
-        <f xml:space="preserve"> (2*E34*F34)/(F34+E34)</f>
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="I34" s="11">
-        <v>32</v>
-      </c>
-      <c r="J34" s="12">
-        <v>17</v>
-      </c>
-      <c r="K34" s="9">
-        <f>SUM(I34+J35)/SUM(I34:J35)</f>
-        <v>0.80379746835443033</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" ref="L34" si="6">SUM(I35,J34)/SUM(I34:J35)</f>
-        <v>0.19620253164556961</v>
-      </c>
-      <c r="M34" s="9">
-        <f>I34/SUM(I34,I35)</f>
-        <v>0.69565217391304346</v>
-      </c>
-      <c r="N34" s="9">
-        <f>I34/SUM(I34,J34)</f>
-        <v>0.65306122448979587</v>
-      </c>
-      <c r="O34" s="10">
-        <f xml:space="preserve"> (2*M34*N34)/(N34+M34)</f>
-        <v>0.67368421052631577</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>35</v>
-      </c>
-      <c r="R34" s="12">
-        <v>14</v>
-      </c>
-      <c r="S34" s="9">
-        <f>SUM(Q34+R35)/SUM(Q34:R35)</f>
-        <v>0.82278481012658233</v>
-      </c>
-      <c r="T34" s="9">
-        <f t="shared" ref="T34" si="7">SUM(Q35,R34)/SUM(Q34:R35)</f>
-        <v>0.17721518987341772</v>
-      </c>
-      <c r="U34" s="9">
-        <f>Q34/SUM(Q34,Q35)</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="V34" s="9">
-        <f>Q34/SUM(Q34,R34)</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="W34" s="10">
-        <f xml:space="preserve"> (2*U34*V34)/(V34+U34)</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>5</v>
-      </c>
-      <c r="B35" s="12">
-        <v>104</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="I35" s="11">
-        <v>14</v>
-      </c>
-      <c r="J35" s="12">
-        <v>95</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
-      <c r="Q35" s="11">
-        <v>14</v>
-      </c>
-      <c r="R35" s="12">
-        <v>95</v>
-      </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="10"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="W36" s="22"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>14</v>
-      </c>
-      <c r="B37" s="12">
-        <v>34</v>
-      </c>
-      <c r="C37" s="9">
-        <f>SUM(A37+B38)/SUM(A37:B38)</f>
-        <v>0.73417721518987344</v>
-      </c>
-      <c r="D37" s="9">
-        <f t="shared" ref="D37" si="8">SUM(A38,B37)/SUM(A37:B38)</f>
-        <v>0.26582278481012656</v>
-      </c>
-      <c r="E37" s="9">
-        <f>A37/SUM(A37,A38)</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="F37" s="9">
-        <f>A37/SUM(A37,B37)</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="G37" s="10">
-        <f xml:space="preserve"> (2*E37*F37)/(F37+E37)</f>
-        <v>0.4</v>
-      </c>
-      <c r="I37" s="11">
-        <v>31</v>
-      </c>
-      <c r="J37" s="12">
-        <v>17</v>
-      </c>
-      <c r="K37" s="9">
-        <f>SUM(I37+J38)/SUM(I37:J38)</f>
-        <v>0.75316455696202533</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" ref="L37" si="9">SUM(I38,J37)/SUM(I37:J38)</f>
-        <v>0.24683544303797469</v>
-      </c>
-      <c r="M37" s="9">
-        <f>I37/SUM(I37,I38)</f>
-        <v>0.58490566037735847</v>
-      </c>
-      <c r="N37" s="9">
-        <f>I37/SUM(I37,J37)</f>
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="O37" s="10">
-        <f xml:space="preserve"> (2*M37*N37)/(N37+M37)</f>
-        <v>0.61386138613861385</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>33</v>
-      </c>
-      <c r="R37" s="12">
-        <v>15</v>
-      </c>
-      <c r="S37" s="9">
-        <f>SUM(Q37+R38)/SUM(Q37:R38)</f>
-        <v>0.79746835443037978</v>
-      </c>
-      <c r="T37" s="9">
-        <f t="shared" ref="T37" si="10">SUM(Q38,R37)/SUM(Q37:R38)</f>
-        <v>0.20253164556962025</v>
-      </c>
-      <c r="U37" s="9">
-        <f>Q37/SUM(Q37,Q38)</f>
-        <v>0.66</v>
-      </c>
-      <c r="V37" s="9">
-        <f>Q37/SUM(Q37,R37)</f>
-        <v>0.6875</v>
-      </c>
-      <c r="W37" s="10">
-        <f xml:space="preserve"> (2*U37*V37)/(V37+U37)</f>
-        <v>0.67346938775510201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>8</v>
-      </c>
-      <c r="B38" s="12">
-        <v>102</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="I38" s="11">
-        <v>22</v>
-      </c>
-      <c r="J38" s="12">
-        <v>88</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="Q38" s="11">
-        <v>17</v>
-      </c>
-      <c r="R38" s="12">
-        <v>93</v>
-      </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="10"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="W39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="13">
-        <f>SUM(C10:C37)/10</f>
-        <v>0.74717777247034467</v>
-      </c>
-      <c r="D40" s="13">
-        <f>SUM(D10:D37)/10</f>
-        <v>0.25282222752965533</v>
-      </c>
-      <c r="E40" s="13">
-        <f>SUM(E10:E37)/10</f>
-        <v>0.77178333362543894</v>
-      </c>
-      <c r="F40" s="13">
-        <f>SUM(F10:F37)/10</f>
-        <v>0.26944625862865618</v>
-      </c>
-      <c r="G40" s="14">
-        <f>SUM(G10:G37)/10</f>
-        <v>0.39617574216879653</v>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="13">
-        <f>SUM(K10:K37)/10</f>
-        <v>0.76331303240187887</v>
-      </c>
-      <c r="L40" s="13">
-        <f>SUM(L10:L37)/10</f>
-        <v>0.23668696759812119</v>
-      </c>
-      <c r="M40" s="13">
-        <f>SUM(M10:M37)/10</f>
-        <v>0.64024170261458824</v>
-      </c>
-      <c r="N40" s="13">
-        <f>SUM(N10:N37)/10</f>
-        <v>0.57143976863259371</v>
-      </c>
-      <c r="O40" s="14">
-        <f>SUM(O10:O37)/10</f>
-        <v>0.60098290967741319</v>
-      </c>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="13">
-        <f>SUM(S10:S37)/10</f>
-        <v>0.77832684607224845</v>
-      </c>
-      <c r="T40" s="13">
-        <f>SUM(T10:T37)/10</f>
-        <v>0.2216731539277515</v>
-      </c>
-      <c r="U40" s="13">
-        <f>SUM(U10:U37)/10</f>
-        <v>0.65788438343292788</v>
-      </c>
-      <c r="V40" s="13">
-        <f>SUM(V10:V37)/10</f>
-        <v>0.61683965621309722</v>
-      </c>
-      <c r="W40" s="14">
-        <f>SUM(W10:W37)/10</f>
-        <v>0.63446480093716406</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="Q7:R7"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512AC84B-5E62-4D2A-9EBF-AEDDA7BBE8B3}">
-  <dimension ref="A1:W40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="15">
-        <v>11</v>
-      </c>
-      <c r="C2" s="26">
-        <v>19</v>
-      </c>
-      <c r="D2" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="I7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="Q7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>41</v>
-      </c>
-      <c r="B10" s="12">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9">
-        <f>SUM(A10+B11)/SUM(A10:B11)</f>
-        <v>0.79245283018867929</v>
-      </c>
-      <c r="D10" s="9">
-        <f>SUM(A11,B10)/SUM(A10:B11)</f>
-        <v>0.20754716981132076</v>
-      </c>
-      <c r="E10" s="9">
-        <f>A10/SUM(A10,A11)</f>
-        <v>0.66129032258064513</v>
-      </c>
-      <c r="F10" s="9">
-        <f>A10/SUM(A10,B10)</f>
-        <v>0.77358490566037741</v>
-      </c>
-      <c r="G10" s="10">
-        <f xml:space="preserve"> (2*E10*F10)/(F10+E10)</f>
-        <v>0.71304347826086956</v>
-      </c>
-      <c r="I10" s="11">
-        <v>38</v>
-      </c>
-      <c r="J10" s="12">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9">
-        <f>SUM(I10+J11)/SUM(I10:J11)</f>
-        <v>0.83018867924528306</v>
-      </c>
-      <c r="L10" s="9">
-        <f>SUM(I11,J10)/SUM(I10:J11)</f>
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="M10" s="9">
-        <f>I10/SUM(I10,I11)</f>
-        <v>0.76</v>
-      </c>
-      <c r="N10" s="9">
-        <f>I10/SUM(I10,J10)</f>
-        <v>0.71698113207547165</v>
-      </c>
-      <c r="O10" s="10">
-        <f xml:space="preserve"> (2*M10*N10)/(N10+M10)</f>
-        <v>0.73786407766990281</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>36</v>
-      </c>
-      <c r="R10" s="12">
-        <v>17</v>
-      </c>
-      <c r="S10" s="9">
-        <f>SUM(Q10+R11)/SUM(Q10:R11)</f>
-        <v>0.80503144654088055</v>
-      </c>
-      <c r="T10" s="9">
-        <f>SUM(Q11,R10)/SUM(Q10:R11)</f>
-        <v>0.19496855345911951</v>
-      </c>
-      <c r="U10" s="9">
-        <f>Q10/SUM(Q10,Q11)</f>
-        <v>0.72</v>
-      </c>
-      <c r="V10" s="9">
-        <f>Q10/SUM(Q10,R10)</f>
-        <v>0.67924528301886788</v>
-      </c>
-      <c r="W10" s="10">
-        <f xml:space="preserve"> (2*U10*V10)/(V10+U10)</f>
-        <v>0.69902912621359214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>21</v>
-      </c>
-      <c r="B11" s="12">
-        <v>85</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="11">
-        <v>12</v>
-      </c>
-      <c r="J11" s="12">
-        <v>94</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="Q11" s="11">
-        <v>14</v>
-      </c>
-      <c r="R11" s="12">
-        <v>92</v>
-      </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>45</v>
-      </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9">
-        <f>SUM(A13+B14)/SUM(A13:B14)</f>
-        <v>0.84276729559748431</v>
-      </c>
-      <c r="D13" s="9">
-        <f>SUM(A14,B13)/SUM(A13:B14)</f>
-        <v>0.15723270440251572</v>
-      </c>
-      <c r="E13" s="9">
-        <f>A13/SUM(A13,A14)</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="F13" s="9">
-        <f>A13/SUM(A13,B13)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="10">
-        <f xml:space="preserve"> (2*E13*F13)/(F13+E13)</f>
-        <v>0.78260869565217384</v>
-      </c>
-      <c r="I13" s="11">
-        <v>39</v>
-      </c>
-      <c r="J13" s="12">
-        <v>11</v>
-      </c>
-      <c r="K13" s="9">
-        <f>SUM(I13+J14)/SUM(I13:J14)</f>
-        <v>0.8867924528301887</v>
-      </c>
-      <c r="L13" s="9">
-        <f>SUM(I14,J13)/SUM(I13:J14)</f>
-        <v>0.11320754716981132</v>
-      </c>
-      <c r="M13" s="9">
-        <f>I13/SUM(I13,I14)</f>
-        <v>0.84782608695652173</v>
-      </c>
-      <c r="N13" s="9">
-        <f>I13/SUM(I13,J13)</f>
-        <v>0.78</v>
-      </c>
-      <c r="O13" s="10">
-        <f xml:space="preserve"> (2*M13*N13)/(N13+M13)</f>
-        <v>0.8125</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>36</v>
-      </c>
-      <c r="R13" s="12">
-        <v>14</v>
-      </c>
-      <c r="S13" s="9">
-        <f>SUM(Q13+R14)/SUM(Q13:R14)</f>
-        <v>0.85534591194968557</v>
-      </c>
-      <c r="T13" s="9">
-        <f>SUM(Q14,R13)/SUM(Q13:R14)</f>
-        <v>0.14465408805031446</v>
-      </c>
-      <c r="U13" s="9">
-        <f>Q13/SUM(Q13,Q14)</f>
-        <v>0.8</v>
-      </c>
-      <c r="V13" s="9">
-        <f>Q13/SUM(Q13,R13)</f>
-        <v>0.72</v>
-      </c>
-      <c r="W13" s="10">
-        <f xml:space="preserve"> (2*U13*V13)/(V13+U13)</f>
-        <v>0.75789473684210518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>20</v>
-      </c>
-      <c r="B14" s="12">
-        <v>89</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="I14" s="11">
-        <v>7</v>
-      </c>
-      <c r="J14" s="12">
-        <v>102</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="11">
-        <v>9</v>
-      </c>
-      <c r="R14" s="12">
-        <v>100</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>39</v>
-      </c>
-      <c r="B16" s="12">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9">
-        <f>SUM(A16+B17)/SUM(A16:B17)</f>
-        <v>0.77215189873417722</v>
-      </c>
-      <c r="D16" s="9">
-        <f>SUM(A17,B16)/SUM(A16:B17)</f>
-        <v>0.22784810126582278</v>
-      </c>
-      <c r="E16" s="9">
-        <f>A16/SUM(A16,A17)</f>
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="F16" s="9">
-        <f>A16/SUM(A16,B16)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G16" s="10">
-        <f xml:space="preserve"> (2*E16*F16)/(F16+E16)</f>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="I16" s="11">
-        <v>33</v>
-      </c>
-      <c r="J16" s="12">
-        <v>12</v>
-      </c>
-      <c r="K16" s="9">
-        <f>SUM(I16+J17)/SUM(I16:J17)</f>
-        <v>0.86075949367088611</v>
-      </c>
-      <c r="L16" s="9">
-        <f>SUM(I17,J16)/SUM(I16:J17)</f>
-        <v>0.13924050632911392</v>
-      </c>
-      <c r="M16" s="9">
-        <f>I16/SUM(I16,I17)</f>
-        <v>0.76744186046511631</v>
-      </c>
-      <c r="N16" s="9">
-        <f>I16/SUM(I16,J16)</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="O16" s="10">
-        <f xml:space="preserve"> (2*M16*N16)/(N16+M16)</f>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>34</v>
-      </c>
-      <c r="R16" s="12">
-        <v>11</v>
-      </c>
-      <c r="S16" s="9">
-        <f>SUM(Q16+R17)/SUM(Q16:R17)</f>
-        <v>0.93854748603351956</v>
-      </c>
-      <c r="T16" s="9">
-        <f>SUM(Q17,R16)/SUM(Q16:R17)</f>
-        <v>6.1452513966480445E-2</v>
-      </c>
-      <c r="U16" s="9">
-        <f>Q16/SUM(Q16,Q17)</f>
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="V16" s="9">
-        <f>Q16/SUM(Q16,R16)</f>
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="W16" s="10">
-        <f xml:space="preserve"> (2*U16*V16)/(V16+U16)</f>
-        <v>0.75555555555555554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>30</v>
-      </c>
-      <c r="B17" s="12">
-        <v>83</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="I17" s="11">
-        <v>10</v>
-      </c>
-      <c r="J17" s="12">
-        <v>103</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="Q17" s="11">
-        <v>11</v>
-      </c>
-      <c r="R17" s="12">
-        <v>302</v>
-      </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="10"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>51</v>
-      </c>
-      <c r="B19" s="12">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9">
-        <f>SUM(A19+B20)/SUM(A19:B20)</f>
-        <v>0.78481012658227844</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(A20,B19)/SUM(A19:B20)</f>
-        <v>0.21518987341772153</v>
-      </c>
-      <c r="E19" s="9">
-        <f>A19/SUM(A19,A20)</f>
-        <v>0.62962962962962965</v>
-      </c>
-      <c r="F19" s="9">
-        <f>A19/SUM(A19,B19)</f>
-        <v>0.92727272727272725</v>
-      </c>
-      <c r="G19" s="10">
-        <f xml:space="preserve"> (2*E19*F19)/(F19+E19)</f>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="I19" s="11">
-        <v>40</v>
-      </c>
-      <c r="J19" s="12">
-        <v>15</v>
-      </c>
-      <c r="K19" s="9">
-        <f>SUM(I19+J20)/SUM(I19:J20)</f>
-        <v>0.83544303797468356</v>
-      </c>
-      <c r="L19" s="9">
-        <f>SUM(I20,J19)/SUM(I19:J20)</f>
-        <v>0.16455696202531644</v>
-      </c>
-      <c r="M19" s="9">
-        <f>I19/SUM(I19,I20)</f>
-        <v>0.78431372549019607</v>
-      </c>
-      <c r="N19" s="9">
-        <f>I19/SUM(I19,J19)</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="O19" s="10">
-        <f xml:space="preserve"> (2*M19*N19)/(N19+M19)</f>
-        <v>0.75471698113207542</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>37</v>
-      </c>
-      <c r="R19" s="12">
-        <v>18</v>
-      </c>
-      <c r="S19" s="9">
-        <f>SUM(Q19+R20)/SUM(Q19:R20)</f>
-        <v>0.77848101265822789</v>
-      </c>
-      <c r="T19" s="9">
-        <f>SUM(Q20,R19)/SUM(Q19:R20)</f>
-        <v>0.22151898734177214</v>
-      </c>
-      <c r="U19" s="9">
-        <f>Q19/SUM(Q19,Q20)</f>
-        <v>0.68518518518518523</v>
-      </c>
-      <c r="V19" s="9">
-        <f>Q19/SUM(Q19,R19)</f>
-        <v>0.67272727272727273</v>
-      </c>
-      <c r="W19" s="10">
-        <f xml:space="preserve"> (2*U19*V19)/(V19+U19)</f>
-        <v>0.67889908256880738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>30</v>
-      </c>
-      <c r="B20" s="12">
-        <v>73</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="I20" s="11">
-        <v>11</v>
-      </c>
-      <c r="J20" s="12">
-        <v>92</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="Q20" s="11">
-        <v>17</v>
-      </c>
-      <c r="R20" s="12">
-        <v>86</v>
-      </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>35</v>
-      </c>
-      <c r="B22" s="12">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9">
-        <f>SUM(A22+B23)/SUM(A22:B23)</f>
-        <v>0.81645569620253167</v>
-      </c>
-      <c r="D22" s="9">
-        <f>SUM(A23,B22)/SUM(A22:B23)</f>
-        <v>0.18354430379746836</v>
-      </c>
-      <c r="E22" s="9">
-        <f>A22/SUM(A22,A23)</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="F22" s="9">
-        <f>A22/SUM(A22,B22)</f>
-        <v>0.79545454545454541</v>
-      </c>
-      <c r="G22" s="10">
-        <f xml:space="preserve"> (2*E22*F22)/(F22+E22)</f>
-        <v>0.70707070707070707</v>
-      </c>
-      <c r="I22" s="11">
-        <v>30</v>
-      </c>
-      <c r="J22" s="12">
-        <v>14</v>
-      </c>
-      <c r="K22" s="9">
-        <f>SUM(I22+J23)/SUM(I22:J23)</f>
-        <v>0.86075949367088611</v>
-      </c>
-      <c r="L22" s="9">
-        <f>SUM(I23,J22)/SUM(I22:J23)</f>
-        <v>0.13924050632911392</v>
-      </c>
-      <c r="M22" s="9">
-        <f>I22/SUM(I22,I23)</f>
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="N22" s="9">
-        <f>I22/SUM(I22,J22)</f>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="O22" s="10">
-        <f xml:space="preserve"> (2*M22*N22)/(N22+M22)</f>
-        <v>0.73170731707317072</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>30</v>
-      </c>
-      <c r="R22" s="12">
-        <v>14</v>
-      </c>
-      <c r="S22" s="9">
-        <f>SUM(Q22+R23)/SUM(Q22:R23)</f>
-        <v>0.84177215189873422</v>
-      </c>
-      <c r="T22" s="9">
-        <f>SUM(Q23,R22)/SUM(Q22:R23)</f>
-        <v>0.15822784810126583</v>
-      </c>
-      <c r="U22" s="9">
-        <f>Q22/SUM(Q22,Q23)</f>
-        <v>0.73170731707317072</v>
-      </c>
-      <c r="V22" s="9">
-        <f>Q22/SUM(Q22,R22)</f>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="W22" s="10">
-        <f xml:space="preserve"> (2*U22*V22)/(V22+U22)</f>
-        <v>0.70588235294117641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12">
-        <v>94</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="I23" s="11">
-        <v>8</v>
-      </c>
-      <c r="J23" s="12">
-        <v>106</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="11">
-        <v>11</v>
-      </c>
-      <c r="R23" s="12">
-        <v>103</v>
-      </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="10"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="10"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>49</v>
-      </c>
-      <c r="B25" s="12">
-        <v>10</v>
-      </c>
-      <c r="C25" s="9">
-        <f>SUM(A25+B26)/SUM(A25:B26)</f>
-        <v>0.79746835443037978</v>
-      </c>
-      <c r="D25" s="9">
-        <f>SUM(A26,B25)/SUM(A25:B26)</f>
-        <v>0.20253164556962025</v>
-      </c>
-      <c r="E25" s="9">
-        <f>A25/SUM(A25,A26)</f>
-        <v>0.6901408450704225</v>
-      </c>
-      <c r="F25" s="9">
-        <f>A25/SUM(A25,B25)</f>
-        <v>0.83050847457627119</v>
-      </c>
-      <c r="G25" s="10">
-        <f xml:space="preserve"> (2*E25*F25)/(F25+E25)</f>
-        <v>0.75384615384615372</v>
-      </c>
-      <c r="I25" s="11">
-        <v>39</v>
-      </c>
-      <c r="J25" s="12">
-        <v>20</v>
-      </c>
-      <c r="K25" s="9">
-        <f>SUM(I25+J26)/SUM(I25:J26)</f>
-        <v>0.810126582278481</v>
-      </c>
-      <c r="L25" s="9">
-        <f>SUM(I26,J25)/SUM(I25:J26)</f>
-        <v>0.189873417721519</v>
-      </c>
-      <c r="M25" s="9">
-        <f>I25/SUM(I25,I26)</f>
-        <v>0.79591836734693877</v>
-      </c>
-      <c r="N25" s="9">
-        <f>I25/SUM(I25,J25)</f>
-        <v>0.66101694915254239</v>
-      </c>
-      <c r="O25" s="10">
-        <f xml:space="preserve"> (2*M25*N25)/(N25+M25)</f>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>36</v>
-      </c>
-      <c r="R25" s="12">
-        <v>23</v>
-      </c>
-      <c r="S25" s="9">
-        <f>SUM(Q25+R26)/SUM(Q25:R26)</f>
-        <v>0.79113924050632911</v>
-      </c>
-      <c r="T25" s="9">
-        <f>SUM(Q26,R25)/SUM(Q25:R26)</f>
-        <v>0.20886075949367089</v>
-      </c>
-      <c r="U25" s="9">
-        <f>Q25/SUM(Q25,Q26)</f>
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="V25" s="9">
-        <f>Q25/SUM(Q25,R25)</f>
-        <v>0.61016949152542377</v>
-      </c>
-      <c r="W25" s="10">
-        <f xml:space="preserve"> (2*U25*V25)/(V25+U25)</f>
-        <v>0.68571428571428583</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>22</v>
-      </c>
-      <c r="B26" s="12">
-        <v>77</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="11">
-        <v>10</v>
-      </c>
-      <c r="J26" s="12">
-        <v>89</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="Q26" s="11">
-        <v>10</v>
-      </c>
-      <c r="R26" s="12">
-        <v>89</v>
-      </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="10"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="10"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>41</v>
-      </c>
-      <c r="B28" s="12">
-        <v>4</v>
-      </c>
-      <c r="C28" s="9">
-        <f>SUM(A28+B29)/SUM(A28:B29)</f>
-        <v>0.879746835443038</v>
-      </c>
-      <c r="D28" s="9">
-        <f t="shared" ref="D28:D31" si="0">SUM(A29,B28)/SUM(A28:B29)</f>
-        <v>0.12025316455696203</v>
-      </c>
-      <c r="E28" s="9">
-        <f>A28/SUM(A28,A29)</f>
-        <v>0.7321428571428571</v>
-      </c>
-      <c r="F28" s="9">
-        <f>A28/SUM(A28,B28)</f>
-        <v>0.91111111111111109</v>
-      </c>
-      <c r="G28" s="10">
-        <f xml:space="preserve"> (2*E28*F28)/(F28+E28)</f>
-        <v>0.81188118811881183</v>
-      </c>
-      <c r="I28" s="11">
-        <v>31</v>
-      </c>
-      <c r="J28" s="12">
-        <v>14</v>
-      </c>
-      <c r="K28" s="9">
-        <f>SUM(I28+J29)/SUM(I28:J29)</f>
-        <v>0.85443037974683544</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" ref="L28:L31" si="1">SUM(I29,J28)/SUM(I28:J29)</f>
-        <v>0.14556962025316456</v>
-      </c>
-      <c r="M28" s="9">
-        <f>I28/SUM(I28,I29)</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="N28" s="9">
-        <f>I28/SUM(I28,J28)</f>
-        <v>0.68888888888888888</v>
-      </c>
-      <c r="O28" s="10">
-        <f xml:space="preserve"> (2*M28*N28)/(N28+M28)</f>
-        <v>0.7294117647058822</v>
-      </c>
-      <c r="Q28" s="11">
-        <v>30</v>
-      </c>
-      <c r="R28" s="12">
-        <v>15</v>
-      </c>
-      <c r="S28" s="9">
-        <f>SUM(Q28+R29)/SUM(Q28:R29)</f>
-        <v>0.83544303797468356</v>
-      </c>
-      <c r="T28" s="9">
-        <f t="shared" ref="T28:T31" si="2">SUM(Q29,R28)/SUM(Q28:R29)</f>
-        <v>0.16455696202531644</v>
-      </c>
-      <c r="U28" s="9">
-        <f>Q28/SUM(Q28,Q29)</f>
-        <v>0.73170731707317072</v>
-      </c>
-      <c r="V28" s="9">
-        <f>Q28/SUM(Q28,R28)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="W28" s="10">
-        <f xml:space="preserve"> (2*U28*V28)/(V28+U28)</f>
-        <v>0.69767441860465107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>15</v>
-      </c>
-      <c r="B29" s="12">
-        <v>98</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="11">
-        <v>9</v>
-      </c>
-      <c r="J29" s="12">
-        <v>104</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
-      <c r="Q29" s="11">
-        <v>11</v>
-      </c>
-      <c r="R29" s="12">
-        <v>102</v>
-      </c>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="10"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="10"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="10"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>39</v>
-      </c>
-      <c r="B31" s="12">
-        <v>6</v>
-      </c>
-      <c r="C31" s="9">
-        <f>SUM(A31+B32)/SUM(A31:B32)</f>
-        <v>0.82911392405063289</v>
-      </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
-        <v>0.17088607594936708</v>
-      </c>
-      <c r="E31" s="9">
-        <f>A31/SUM(A31,A32)</f>
-        <v>0.65</v>
-      </c>
-      <c r="F31" s="9">
-        <f>A31/SUM(A31,B31)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G31" s="10">
-        <f xml:space="preserve"> (2*E31*F31)/(F31+E31)</f>
-        <v>0.74285714285714288</v>
-      </c>
-      <c r="I31" s="11">
-        <v>36</v>
-      </c>
-      <c r="J31" s="12">
-        <v>9</v>
-      </c>
-      <c r="K31" s="9">
-        <f>SUM(I31+J32)/SUM(I31:J32)</f>
-        <v>0.87341772151898733</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="1"/>
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="M31" s="9">
-        <f>I31/SUM(I31,I32)</f>
-        <v>0.76595744680851063</v>
-      </c>
-      <c r="N31" s="9">
-        <f>I31/SUM(I31,J31)</f>
-        <v>0.8</v>
-      </c>
-      <c r="O31" s="10">
-        <f xml:space="preserve"> (2*M31*N31)/(N31+M31)</f>
-        <v>0.78260869565217384</v>
-      </c>
-      <c r="Q31" s="11">
-        <v>35</v>
-      </c>
-      <c r="R31" s="12">
-        <v>10</v>
-      </c>
-      <c r="S31" s="9">
-        <f>SUM(Q31+R32)/SUM(Q31:R32)</f>
-        <v>0.88607594936708856</v>
-      </c>
-      <c r="T31" s="9">
-        <f t="shared" si="2"/>
-        <v>0.11392405063291139</v>
-      </c>
-      <c r="U31" s="9">
-        <f>Q31/SUM(Q31,Q32)</f>
-        <v>0.81395348837209303</v>
-      </c>
-      <c r="V31" s="9">
-        <f>Q31/SUM(Q31,R31)</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="W31" s="10">
-        <f xml:space="preserve"> (2*U31*V31)/(V31+U31)</f>
-        <v>0.79545454545454553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>21</v>
-      </c>
-      <c r="B32" s="12">
-        <v>92</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="I32" s="11">
-        <v>11</v>
-      </c>
-      <c r="J32" s="12">
-        <v>102</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="Q32" s="11">
-        <v>8</v>
-      </c>
-      <c r="R32" s="12">
-        <v>105</v>
-      </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="10"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="10"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="10"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
         <v>44</v>
       </c>
       <c r="B34" s="12">
@@ -8760,8 +9434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C2F074-102E-4A0D-93DB-3BEB703B5D8B}">
   <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79:P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8859,18 +9533,18 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="J7" s="29" t="s">
+      <c r="B7" s="34"/>
+      <c r="J7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="S7" s="29" t="s">
+      <c r="K7" s="34"/>
+      <c r="S7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="T7" s="29"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -9840,7 +10514,7 @@
         <v>0.79746835443037978</v>
       </c>
       <c r="V28" s="9">
-        <f t="shared" ref="V28:V31" si="2">SUM(S29,T28)/SUM(S28:T29)</f>
+        <f t="shared" ref="V28" si="2">SUM(S29,T28)/SUM(S28:T29)</f>
         <v>0.20253164556962025</v>
       </c>
       <c r="W28" s="9">
@@ -9978,7 +10652,7 @@
         <v>0.82911392405063289</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" ref="V31:V34" si="3">SUM(S32,T31)/SUM(S31:T32)</f>
+        <f t="shared" ref="V31" si="3">SUM(S32,T31)/SUM(S31:T32)</f>
         <v>0.17088607594936708</v>
       </c>
       <c r="W31" s="9">
@@ -10365,18 +11039,18 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="J46" s="29" t="s">
+      <c r="B46" s="34"/>
+      <c r="J46" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="S46" s="29" t="s">
+      <c r="K46" s="34"/>
+      <c r="S46" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="T46" s="29"/>
+      <c r="T46" s="34"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -11294,7 +11968,7 @@
         <v>0.84810126582278478</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" ref="D67:D70" si="10">SUM(A68,B67)/SUM(A67:B68)</f>
+        <f t="shared" ref="D67" si="10">SUM(A68,B67)/SUM(A67:B68)</f>
         <v>0.15189873417721519</v>
       </c>
       <c r="E67" s="9">
@@ -11320,7 +11994,7 @@
         <v>0.85443037974683544</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" ref="M67:M70" si="11">SUM(J68,K67)/SUM(J67:K68)</f>
+        <f t="shared" ref="M67" si="11">SUM(J68,K67)/SUM(J67:K68)</f>
         <v>0.14556962025316456</v>
       </c>
       <c r="N67" s="9">
@@ -11346,7 +12020,7 @@
         <v>0.82911392405063289</v>
       </c>
       <c r="V67" s="9">
-        <f t="shared" ref="V67:V70" si="12">SUM(S68,T67)/SUM(S67:T68)</f>
+        <f t="shared" ref="V67" si="12">SUM(S68,T67)/SUM(S67:T68)</f>
         <v>0.17088607594936708</v>
       </c>
       <c r="W67" s="9">
@@ -11432,7 +12106,7 @@
         <v>0.84177215189873422</v>
       </c>
       <c r="D70" s="9">
-        <f t="shared" ref="D70:D73" si="13">SUM(A71,B70)/SUM(A70:B71)</f>
+        <f t="shared" ref="D70" si="13">SUM(A71,B70)/SUM(A70:B71)</f>
         <v>0.15822784810126583</v>
       </c>
       <c r="E70" s="9">
@@ -11458,7 +12132,7 @@
         <v>0.82278481012658233</v>
       </c>
       <c r="M70" s="9">
-        <f t="shared" ref="M70:M73" si="14">SUM(J71,K70)/SUM(J70:K71)</f>
+        <f t="shared" ref="M70" si="14">SUM(J71,K70)/SUM(J70:K71)</f>
         <v>0.17721518987341772</v>
       </c>
       <c r="N70" s="9">
@@ -11484,7 +12158,7 @@
         <v>0.810126582278481</v>
       </c>
       <c r="V70" s="9">
-        <f t="shared" ref="V70:V73" si="15">SUM(S71,T70)/SUM(S70:T71)</f>
+        <f t="shared" ref="V70" si="15">SUM(S71,T70)/SUM(S70:T71)</f>
         <v>0.189873417721519</v>
       </c>
       <c r="W70" s="9">

--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE86B95-09B8-45DD-853B-7D1FF73117DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51757C9E-EF49-4D35-A772-36EAC25A2D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="5" r:id="rId1"/>
     <sheet name="SIFT" sheetId="6" r:id="rId2"/>
-    <sheet name="Gráfico" sheetId="8" r:id="rId3"/>
-    <sheet name="ORB" sheetId="7" r:id="rId4"/>
-    <sheet name="SURF" sheetId="9" r:id="rId5"/>
-    <sheet name="COMBINED" sheetId="10" r:id="rId6"/>
-    <sheet name="Parametros" sheetId="4" r:id="rId7"/>
+    <sheet name="Gráfico dos melhores descritore" sheetId="8" r:id="rId3"/>
+    <sheet name="Grafico PCA" sheetId="11" r:id="rId4"/>
+    <sheet name="ORB" sheetId="7" r:id="rId5"/>
+    <sheet name="SURF" sheetId="9" r:id="rId6"/>
+    <sheet name="COMBINED" sheetId="10" r:id="rId7"/>
+    <sheet name="Parametros" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="50">
   <si>
     <t>ACC</t>
   </si>
@@ -185,6 +186,9 @@
   <si>
     <t>matriz media</t>
   </si>
+  <si>
+    <t>Sem PCA</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,7 +529,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$2</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -546,7 +553,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -569,7 +576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$2:$F$2</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -602,7 +609,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$3</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -623,7 +630,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -646,7 +653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$3:$F$3</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -679,7 +686,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$4</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -700,7 +707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -723,7 +730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$4:$F$4</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -756,7 +763,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$5</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -777,7 +784,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -800,7 +807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$5:$F$5</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -833,7 +840,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gráfico!$A$6</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -854,7 +861,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Gráfico!$B$1:$F$1</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -877,7 +884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráfico!$B$6:$F$6</c:f>
+              <c:f>'Gráfico dos melhores descritore'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -902,6 +909,1995 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-27E3-4335-9AD1-7B03E5EFA21E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213434959"/>
+        <c:axId val="214576671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213434959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214576671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214576671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213434959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho dos descritores sem PCA com KNN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.93674318571601733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.325681428398261E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89065950998395971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91025809448850148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89964252930403377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3687-4997-8538-150689F0AEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9999"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83252129607515324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16747870392484679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78276588908167855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64384938693039806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70549687854951249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3687-4997-8538-150689F0AEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SURF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82301568346469234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17698431653530772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66989126508969266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86233909477485027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75267722233759793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3687-4997-8538-150689F0AEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.74717777247034467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25282222752965533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77178333362543894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26944625862865618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39617574216879653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3687-4997-8538-150689F0AEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBINADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82892931843254269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17107068156745733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82837793816920935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57340519767616716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67576746680347233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3687-4997-8538-150689F0AEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213434959"/>
+        <c:axId val="214576671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213434959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214576671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214576671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213434959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho dos descritores com 2 PCA com KNN </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84028640235650032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15971359764349974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82010150083834288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63306987602146136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71266964606055683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B80-4D13-8781-39C02188F249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9999"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8110182310325611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1889817689674389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73827491952491953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61740320935479476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66969715149402631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B80-4D13-8781-39C02188F249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SURF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85587532839742053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14412467160257941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78861084762423495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73564880832894441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76043643917887604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B80-4D13-8781-39C02188F249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76331303240187887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23668696759812119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64024170261458824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57143976863259371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60098290967741319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B80-4D13-8781-39C02188F249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBINADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$K$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.80412487063131899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19587512936868084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72628700567724958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6131853445232579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66284078663433332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2B80-4D13-8781-39C02188F249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213434959"/>
+        <c:axId val="214576671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="213434959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214576671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214576671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213434959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho dos descritores com 3 PCA com KNN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25968253968253968"/>
+          <c:y val="1.7837233140830105E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88010639755014175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11989360244985836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86781583894776537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73003604612858108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79114800518568418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4345-42E0-A86E-D25ABD8C7982}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9999"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$3:$X$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82238277207228738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17761722792771278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7598183765597265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63656970045046246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68963481865693876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4345-42E0-A86E-D25ABD8C7982}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SURF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8453355224270922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15466447757290788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75801674258146323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70898956032394056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73179380702539165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4345-42E0-A86E-D25ABD8C7982}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77832684607224845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2216731539277515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65788438343292788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61683965621309722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63446480093716406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4345-42E0-A86E-D25ABD8C7982}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBINADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acurácia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico PCA'!$T$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.80975638882254608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.190243611177454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7353113328207197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61337962250438838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66774619158459714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4345-42E0-A86E-D25ABD8C7982}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1141,7 +3137,1636 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1685,6 +5310,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75BE13B-69C9-4CFE-989E-422228DE6261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53A8E5D-C0B3-4282-9EAE-8C17764E46DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF6659A-A76C-4025-9DCE-12C7C682AE08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1984,8 +5728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F53B51-EA83-431B-BFE4-6ED1A6830061}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,18 +5791,18 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="I7" s="34" t="s">
+      <c r="B7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="Q7" s="34" t="s">
+      <c r="J7" s="35"/>
+      <c r="Q7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="34"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -2112,10 +5856,10 @@
       <c r="W8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="35"/>
+      <c r="AA8" s="36"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -3584,7 +7328,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="S40" sqref="S40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,18 +7390,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="I7" s="34" t="s">
+      <c r="B7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="Q7" s="34" t="s">
+      <c r="J7" s="35"/>
+      <c r="Q7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="34"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -5163,7 +8907,7 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A8" sqref="A8:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,17 +9111,17 @@
       <c r="AA7" s="29"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="29"/>
@@ -5396,17 +9140,17 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="29"/>
@@ -5425,17 +9169,17 @@
       <c r="AA9" s="29"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="29"/>
@@ -5454,17 +9198,17 @@
       <c r="AA10" s="29"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="29"/>
@@ -5483,17 +9227,17 @@
       <c r="AA11" s="29"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="29"/>
@@ -5512,17 +9256,17 @@
       <c r="AA12" s="29"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
       <c r="N13" s="29"/>
@@ -5541,17 +9285,17 @@
       <c r="AA13" s="29"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
       <c r="N14" s="29"/>
@@ -5570,17 +9314,17 @@
       <c r="AA14" s="29"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="29"/>
@@ -5599,17 +9343,17 @@
       <c r="AA15" s="29"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="29"/>
@@ -5628,17 +9372,17 @@
       <c r="AA16" s="29"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="29"/>
@@ -5657,17 +9401,17 @@
       <c r="AA17" s="29"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
       <c r="N18" s="29"/>
@@ -5686,17 +9430,17 @@
       <c r="AA18" s="29"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
       <c r="N19" s="29"/>
@@ -5715,17 +9459,17 @@
       <c r="AA19" s="29"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
       <c r="N20" s="29"/>
@@ -5744,17 +9488,17 @@
       <c r="AA20" s="29"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="29"/>
@@ -5773,17 +9517,17 @@
       <c r="AA21" s="29"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="29"/>
@@ -5802,17 +9546,17 @@
       <c r="AA22" s="29"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="N23" s="29"/>
@@ -5831,17 +9575,17 @@
       <c r="AA23" s="29"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="N24" s="29"/>
@@ -5860,17 +9604,17 @@
       <c r="AA24" s="29"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
       <c r="N25" s="29"/>
@@ -5889,17 +9633,17 @@
       <c r="AA25" s="29"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="29"/>
@@ -5918,17 +9662,17 @@
       <c r="AA26" s="29"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="29"/>
@@ -5947,17 +9691,17 @@
       <c r="AA27" s="29"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
       <c r="N28" s="29"/>
@@ -5976,17 +9720,17 @@
       <c r="AA28" s="29"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
       <c r="N29" s="29"/>
@@ -6005,17 +9749,17 @@
       <c r="AA29" s="29"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
       <c r="N30" s="29"/>
@@ -6034,17 +9778,17 @@
       <c r="AA30" s="29"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
       <c r="N31" s="29"/>
@@ -6063,17 +9807,17 @@
       <c r="AA31" s="29"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="29"/>
@@ -6275,11 +10019,1889 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AACC622-2748-42A0-967F-31DE4D7FE364}">
+  <dimension ref="A1:AR40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.93674318571601733</v>
+      </c>
+      <c r="C2">
+        <v>6.325681428398261E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.89065950998395971</v>
+      </c>
+      <c r="E2">
+        <v>0.91025809448850148</v>
+      </c>
+      <c r="F2">
+        <v>0.89964252930403377</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0.84028640235650032</v>
+      </c>
+      <c r="L2">
+        <v>0.15971359764349974</v>
+      </c>
+      <c r="M2">
+        <v>0.82010150083834288</v>
+      </c>
+      <c r="N2">
+        <v>0.63306987602146136</v>
+      </c>
+      <c r="O2">
+        <v>0.71266964606055683</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>0.88010639755014175</v>
+      </c>
+      <c r="U2">
+        <v>0.11989360244985836</v>
+      </c>
+      <c r="V2">
+        <v>0.86781583894776537</v>
+      </c>
+      <c r="W2">
+        <v>0.73003604612858108</v>
+      </c>
+      <c r="X2">
+        <v>0.79114800518568418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.83252129607515324</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.16747870392484679</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0.78276588908167855</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0.64384938693039806</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0.70549687854951249</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="33">
+        <v>0.8110182310325611</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0.1889817689674389</v>
+      </c>
+      <c r="M3" s="33">
+        <v>0.73827491952491953</v>
+      </c>
+      <c r="N3" s="33">
+        <v>0.61740320935479476</v>
+      </c>
+      <c r="O3" s="33">
+        <v>0.66969715149402631</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="33">
+        <v>0.82238277207228738</v>
+      </c>
+      <c r="U3" s="33">
+        <v>0.17761722792771278</v>
+      </c>
+      <c r="V3" s="33">
+        <v>0.7598183765597265</v>
+      </c>
+      <c r="W3" s="33">
+        <v>0.63656970045046246</v>
+      </c>
+      <c r="X3" s="33">
+        <v>0.68963481865693876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.82301568346469234</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.17698431653530772</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.66989126508969266</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0.86233909477485027</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0.75267722233759793</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="33">
+        <v>0.85587532839742053</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0.14412467160257941</v>
+      </c>
+      <c r="M4" s="33">
+        <v>0.78861084762423495</v>
+      </c>
+      <c r="N4" s="33">
+        <v>0.73564880832894441</v>
+      </c>
+      <c r="O4" s="33">
+        <v>0.76043643917887604</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="33">
+        <v>0.8453355224270922</v>
+      </c>
+      <c r="U4" s="33">
+        <v>0.15466447757290788</v>
+      </c>
+      <c r="V4" s="33">
+        <v>0.75801674258146323</v>
+      </c>
+      <c r="W4" s="33">
+        <v>0.70898956032394056</v>
+      </c>
+      <c r="X4" s="33">
+        <v>0.73179380702539165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.74717777247034467</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.25282222752965533</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0.77178333362543894</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0.26944625862865618</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0.39617574216879653</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="33">
+        <v>0.76331303240187887</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0.23668696759812119</v>
+      </c>
+      <c r="M5" s="33">
+        <v>0.64024170261458824</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0.57143976863259371</v>
+      </c>
+      <c r="O5" s="33">
+        <v>0.60098290967741319</v>
+      </c>
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="33">
+        <v>0.77832684607224845</v>
+      </c>
+      <c r="U5" s="33">
+        <v>0.2216731539277515</v>
+      </c>
+      <c r="V5" s="33">
+        <v>0.65788438343292788</v>
+      </c>
+      <c r="W5" s="33">
+        <v>0.61683965621309722</v>
+      </c>
+      <c r="X5" s="33">
+        <v>0.63446480093716406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.82892931843254269</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.17107068156745733</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.82837793816920935</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0.57340519767616716</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0.67576746680347233</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0.80412487063131899</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0.19587512936868084</v>
+      </c>
+      <c r="M6" s="33">
+        <v>0.72628700567724958</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0.6131853445232579</v>
+      </c>
+      <c r="O6" s="33">
+        <v>0.66284078663433332</v>
+      </c>
+      <c r="S6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="33">
+        <v>0.80975638882254608</v>
+      </c>
+      <c r="U6" s="33">
+        <v>0.190243611177454</v>
+      </c>
+      <c r="V6" s="33">
+        <v>0.7353113328207197</v>
+      </c>
+      <c r="W6" s="33">
+        <v>0.61337962250438838</v>
+      </c>
+      <c r="X6" s="33">
+        <v>0.66774619158459714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="35"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="35"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="35"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="35"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="35"/>
+      <c r="AP25" s="35"/>
+      <c r="AQ25" s="35"/>
+      <c r="AR25" s="35"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="35"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="35"/>
+      <c r="AN27" s="35"/>
+      <c r="AO27" s="35"/>
+      <c r="AP27" s="35"/>
+      <c r="AQ27" s="35"/>
+      <c r="AR27" s="35"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35"/>
+      <c r="AN28" s="35"/>
+      <c r="AO28" s="35"/>
+      <c r="AP28" s="35"/>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="35"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="35"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="35"/>
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="35"/>
+      <c r="AK30" s="35"/>
+      <c r="AL30" s="35"/>
+      <c r="AM30" s="35"/>
+      <c r="AN30" s="35"/>
+      <c r="AO30" s="35"/>
+      <c r="AP30" s="35"/>
+      <c r="AQ30" s="35"/>
+      <c r="AR30" s="35"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="35"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="35"/>
+      <c r="AQ32" s="35"/>
+      <c r="AR32" s="35"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="35"/>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="35"/>
+      <c r="AP33" s="35"/>
+      <c r="AQ33" s="35"/>
+      <c r="AR33" s="35"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="35"/>
+      <c r="AP34" s="35"/>
+      <c r="AQ34" s="35"/>
+      <c r="AR34" s="35"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="35"/>
+      <c r="AQ35" s="35"/>
+      <c r="AR35" s="35"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="35"/>
+      <c r="AQ36" s="35"/>
+      <c r="AR36" s="35"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="35"/>
+      <c r="AQ37" s="35"/>
+      <c r="AR37" s="35"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
+      <c r="AR39" s="35"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:AR40"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC563E11-1FB9-47B5-8C85-3EF2B82BA748}">
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="W40" sqref="S40:W40"/>
+      <selection activeCell="S40" sqref="S40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,18 +11963,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="I7" s="34" t="s">
+      <c r="B7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="Q7" s="34" t="s">
+      <c r="J7" s="35"/>
+      <c r="Q7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="34"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -7852,12 +13474,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512AC84B-5E62-4D2A-9EBF-AEDDA7BBE8B3}">
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40:O40"/>
+      <selection activeCell="S40" sqref="S40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7919,18 +13541,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="I7" s="34" t="s">
+      <c r="B7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="Q7" s="34" t="s">
+      <c r="J7" s="35"/>
+      <c r="Q7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="34"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -9430,12 +15052,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C2F074-102E-4A0D-93DB-3BEB703B5D8B}">
   <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79:P79"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40:Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9533,18 +15155,18 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="J7" s="34" t="s">
+      <c r="B7" s="35"/>
+      <c r="J7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="S7" s="34" t="s">
+      <c r="K7" s="35"/>
+      <c r="S7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="T7" s="34"/>
+      <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -11039,18 +16661,18 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="J46" s="34" t="s">
+      <c r="B46" s="35"/>
+      <c r="J46" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="K46" s="34"/>
-      <c r="S46" s="34" t="s">
+      <c r="K46" s="35"/>
+      <c r="S46" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T46" s="34"/>
+      <c r="T46" s="35"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -12559,7 +18181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7161284-094E-4C4F-ACD8-1F2E6D16DB2F}">
   <dimension ref="A1:G35"/>
   <sheetViews>

--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51757C9E-EF49-4D35-A772-36EAC25A2D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B90DD-0FF3-417E-B9E4-CFE8AC10F21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="50">
   <si>
     <t>ACC</t>
   </si>
@@ -1213,22 +1213,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1236,23 +1230,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$2:$F$2</c:f>
+              <c:f>'Grafico PCA'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.93674318571601733</c:v>
+                  <c:v>0.89065950998395971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.325681428398261E-2</c:v>
+                  <c:v>0.91025809448850148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89065950998395971</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91025809448850148</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.89964252930403377</c:v>
                 </c:pt>
               </c:numCache>
@@ -1290,22 +1278,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1313,23 +1295,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$3:$F$3</c:f>
+              <c:f>'Grafico PCA'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.83252129607515324</c:v>
+                  <c:v>0.78276588908167855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16747870392484679</c:v>
+                  <c:v>0.64384938693039806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78276588908167855</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64384938693039806</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.70549687854951249</c:v>
                 </c:pt>
               </c:numCache>
@@ -1367,22 +1343,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1390,23 +1360,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$4:$F$4</c:f>
+              <c:f>'Grafico PCA'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.82301568346469234</c:v>
+                  <c:v>0.66989126508969266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17698431653530772</c:v>
+                  <c:v>0.86233909477485027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66989126508969266</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86233909477485027</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.75267722233759793</c:v>
                 </c:pt>
               </c:numCache>
@@ -1444,22 +1408,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1467,23 +1425,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$5:$F$5</c:f>
+              <c:f>'Grafico PCA'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.74717777247034467</c:v>
+                  <c:v>0.77178333362543894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25282222752965533</c:v>
+                  <c:v>0.26944625862865618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77178333362543894</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26944625862865618</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.39617574216879653</c:v>
                 </c:pt>
               </c:numCache>
@@ -1521,22 +1473,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$B$1:$F$1</c:f>
+              <c:f>'Grafico PCA'!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1544,23 +1490,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$B$6:$F$6</c:f>
+              <c:f>'Grafico PCA'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.82892931843254269</c:v>
+                  <c:v>0.82837793816920935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17107068156745733</c:v>
+                  <c:v>0.57340519767616716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82837793816920935</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57340519767616716</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.67576746680347233</c:v>
                 </c:pt>
               </c:numCache>
@@ -1873,22 +1813,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1896,23 +1830,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$2:$O$2</c:f>
+              <c:f>'Grafico PCA'!$K$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.84028640235650032</c:v>
+                  <c:v>0.82010150083834288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15971359764349974</c:v>
+                  <c:v>0.63306987602146136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82010150083834288</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63306987602146136</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.71266964606055683</c:v>
                 </c:pt>
               </c:numCache>
@@ -1950,22 +1878,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -1973,23 +1895,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$3:$O$3</c:f>
+              <c:f>'Grafico PCA'!$K$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.8110182310325611</c:v>
+                  <c:v>0.73827491952491953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1889817689674389</c:v>
+                  <c:v>0.61740320935479476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73827491952491953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61740320935479476</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.66969715149402631</c:v>
                 </c:pt>
               </c:numCache>
@@ -2027,22 +1943,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2050,23 +1960,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$4:$O$4</c:f>
+              <c:f>'Grafico PCA'!$K$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.85587532839742053</c:v>
+                  <c:v>0.78861084762423495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14412467160257941</c:v>
+                  <c:v>0.73564880832894441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78861084762423495</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73564880832894441</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.76043643917887604</c:v>
                 </c:pt>
               </c:numCache>
@@ -2104,22 +2008,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2127,23 +2025,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$5:$O$5</c:f>
+              <c:f>'Grafico PCA'!$K$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.76331303240187887</c:v>
+                  <c:v>0.64024170261458824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23668696759812119</c:v>
+                  <c:v>0.57143976863259371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64024170261458824</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57143976863259371</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.60098290967741319</c:v>
                 </c:pt>
               </c:numCache>
@@ -2181,22 +2073,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$K$1:$O$1</c:f>
+              <c:f>'Grafico PCA'!$K$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2204,23 +2090,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$K$6:$O$6</c:f>
+              <c:f>'Grafico PCA'!$K$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.80412487063131899</c:v>
+                  <c:v>0.72628700567724958</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19587512936868084</c:v>
+                  <c:v>0.6131853445232579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72628700567724958</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6131853445232579</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.66284078663433332</c:v>
                 </c:pt>
               </c:numCache>
@@ -2542,22 +2422,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2565,23 +2439,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$2:$X$2</c:f>
+              <c:f>'Grafico PCA'!$T$2:$V$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.88010639755014175</c:v>
+                  <c:v>0.86781583894776537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11989360244985836</c:v>
+                  <c:v>0.73003604612858108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86781583894776537</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73003604612858108</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.79114800518568418</c:v>
                 </c:pt>
               </c:numCache>
@@ -2619,22 +2487,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2642,23 +2504,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$3:$X$3</c:f>
+              <c:f>'Grafico PCA'!$T$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.82238277207228738</c:v>
+                  <c:v>0.7598183765597265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17761722792771278</c:v>
+                  <c:v>0.63656970045046246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7598183765597265</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63656970045046246</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.68963481865693876</c:v>
                 </c:pt>
               </c:numCache>
@@ -2696,22 +2552,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2719,23 +2569,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$4:$X$4</c:f>
+              <c:f>'Grafico PCA'!$T$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.8453355224270922</c:v>
+                  <c:v>0.75801674258146323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15466447757290788</c:v>
+                  <c:v>0.70898956032394056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75801674258146323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70898956032394056</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.73179380702539165</c:v>
                 </c:pt>
               </c:numCache>
@@ -2773,22 +2617,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2796,23 +2634,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$5:$X$5</c:f>
+              <c:f>'Grafico PCA'!$T$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.77832684607224845</c:v>
+                  <c:v>0.65788438343292788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2216731539277515</c:v>
+                  <c:v>0.61683965621309722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65788438343292788</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61683965621309722</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.63446480093716406</c:v>
                 </c:pt>
               </c:numCache>
@@ -2850,22 +2682,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Grafico PCA'!$T$1:$X$1</c:f>
+              <c:f>'Grafico PCA'!$T$1:$V$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Acurácia</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Erro</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Precision</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Recall</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
@@ -2873,23 +2699,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico PCA'!$T$6:$X$6</c:f>
+              <c:f>'Grafico PCA'!$T$6:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.80975638882254608</c:v>
+                  <c:v>0.7353113328207197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.190243611177454</c:v>
+                  <c:v>0.61337962250438838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7353113328207197</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61337962250438838</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.66774619158459714</c:v>
                 </c:pt>
               </c:numCache>
@@ -10022,8 +9842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AACC622-2748-42A0-967F-31DE4D7FE364}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection sqref="A1:X6"/>
+    <sheetView tabSelected="1" topLeftCell="Q3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AR40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10038,54 +9858,36 @@
         <v>49</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="S1" t="s">
         <v>14</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10094,54 +9896,36 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.93674318571601733</v>
+        <v>0.89065950998395971</v>
       </c>
       <c r="C2">
-        <v>6.325681428398261E-2</v>
+        <v>0.91025809448850148</v>
       </c>
       <c r="D2">
-        <v>0.89065950998395971</v>
-      </c>
-      <c r="E2">
-        <v>0.91025809448850148</v>
-      </c>
-      <c r="F2">
         <v>0.89964252930403377</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2">
-        <v>0.84028640235650032</v>
+        <v>0.82010150083834288</v>
       </c>
       <c r="L2">
-        <v>0.15971359764349974</v>
+        <v>0.63306987602146136</v>
       </c>
       <c r="M2">
-        <v>0.82010150083834288</v>
-      </c>
-      <c r="N2">
-        <v>0.63306987602146136</v>
-      </c>
-      <c r="O2">
         <v>0.71266964606055683</v>
       </c>
       <c r="S2" t="s">
         <v>5</v>
       </c>
       <c r="T2">
-        <v>0.88010639755014175</v>
+        <v>0.86781583894776537</v>
       </c>
       <c r="U2">
-        <v>0.11989360244985836</v>
+        <v>0.73003604612858108</v>
       </c>
       <c r="V2">
-        <v>0.86781583894776537</v>
-      </c>
-      <c r="W2">
-        <v>0.73003604612858108</v>
-      </c>
-      <c r="X2">
         <v>0.79114800518568418</v>
       </c>
     </row>
@@ -10150,54 +9934,36 @@
         <v>7</v>
       </c>
       <c r="B3" s="33">
-        <v>0.83252129607515324</v>
+        <v>0.78276588908167855</v>
       </c>
       <c r="C3" s="33">
-        <v>0.16747870392484679</v>
+        <v>0.64384938693039806</v>
       </c>
       <c r="D3" s="33">
-        <v>0.78276588908167855</v>
-      </c>
-      <c r="E3" s="33">
-        <v>0.64384938693039806</v>
-      </c>
-      <c r="F3" s="33">
         <v>0.70549687854951249</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="33">
-        <v>0.8110182310325611</v>
+        <v>0.73827491952491953</v>
       </c>
       <c r="L3" s="33">
-        <v>0.1889817689674389</v>
+        <v>0.61740320935479476</v>
       </c>
       <c r="M3" s="33">
-        <v>0.73827491952491953</v>
-      </c>
-      <c r="N3" s="33">
-        <v>0.61740320935479476</v>
-      </c>
-      <c r="O3" s="33">
         <v>0.66969715149402631</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
       </c>
       <c r="T3" s="33">
-        <v>0.82238277207228738</v>
+        <v>0.7598183765597265</v>
       </c>
       <c r="U3" s="33">
-        <v>0.17761722792771278</v>
+        <v>0.63656970045046246</v>
       </c>
       <c r="V3" s="33">
-        <v>0.7598183765597265</v>
-      </c>
-      <c r="W3" s="33">
-        <v>0.63656970045046246</v>
-      </c>
-      <c r="X3" s="33">
         <v>0.68963481865693876</v>
       </c>
     </row>
@@ -10206,54 +9972,36 @@
         <v>32</v>
       </c>
       <c r="B4" s="33">
-        <v>0.82301568346469234</v>
+        <v>0.66989126508969266</v>
       </c>
       <c r="C4" s="33">
-        <v>0.17698431653530772</v>
+        <v>0.86233909477485027</v>
       </c>
       <c r="D4" s="33">
-        <v>0.66989126508969266</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0.86233909477485027</v>
-      </c>
-      <c r="F4" s="33">
         <v>0.75267722233759793</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="33">
-        <v>0.85587532839742053</v>
+        <v>0.78861084762423495</v>
       </c>
       <c r="L4" s="33">
-        <v>0.14412467160257941</v>
+        <v>0.73564880832894441</v>
       </c>
       <c r="M4" s="33">
-        <v>0.78861084762423495</v>
-      </c>
-      <c r="N4" s="33">
-        <v>0.73564880832894441</v>
-      </c>
-      <c r="O4" s="33">
         <v>0.76043643917887604</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
       </c>
       <c r="T4" s="33">
-        <v>0.8453355224270922</v>
+        <v>0.75801674258146323</v>
       </c>
       <c r="U4" s="33">
-        <v>0.15466447757290788</v>
+        <v>0.70898956032394056</v>
       </c>
       <c r="V4" s="33">
-        <v>0.75801674258146323</v>
-      </c>
-      <c r="W4" s="33">
-        <v>0.70898956032394056</v>
-      </c>
-      <c r="X4" s="33">
         <v>0.73179380702539165</v>
       </c>
     </row>
@@ -10262,54 +10010,36 @@
         <v>8</v>
       </c>
       <c r="B5" s="33">
-        <v>0.74717777247034467</v>
+        <v>0.77178333362543894</v>
       </c>
       <c r="C5" s="33">
-        <v>0.25282222752965533</v>
+        <v>0.26944625862865618</v>
       </c>
       <c r="D5" s="33">
-        <v>0.77178333362543894</v>
-      </c>
-      <c r="E5" s="33">
-        <v>0.26944625862865618</v>
-      </c>
-      <c r="F5" s="33">
         <v>0.39617574216879653</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="33">
-        <v>0.76331303240187887</v>
+        <v>0.64024170261458824</v>
       </c>
       <c r="L5" s="33">
-        <v>0.23668696759812119</v>
+        <v>0.57143976863259371</v>
       </c>
       <c r="M5" s="33">
-        <v>0.64024170261458824</v>
-      </c>
-      <c r="N5" s="33">
-        <v>0.57143976863259371</v>
-      </c>
-      <c r="O5" s="33">
         <v>0.60098290967741319</v>
       </c>
       <c r="S5" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="33">
-        <v>0.77832684607224845</v>
+        <v>0.65788438343292788</v>
       </c>
       <c r="U5" s="33">
-        <v>0.2216731539277515</v>
+        <v>0.61683965621309722</v>
       </c>
       <c r="V5" s="33">
-        <v>0.65788438343292788</v>
-      </c>
-      <c r="W5" s="33">
-        <v>0.61683965621309722</v>
-      </c>
-      <c r="X5" s="33">
         <v>0.63446480093716406</v>
       </c>
     </row>
@@ -10318,54 +10048,36 @@
         <v>47</v>
       </c>
       <c r="B6" s="33">
-        <v>0.82892931843254269</v>
+        <v>0.82837793816920935</v>
       </c>
       <c r="C6" s="33">
-        <v>0.17107068156745733</v>
+        <v>0.57340519767616716</v>
       </c>
       <c r="D6" s="33">
-        <v>0.82837793816920935</v>
-      </c>
-      <c r="E6" s="33">
-        <v>0.57340519767616716</v>
-      </c>
-      <c r="F6" s="33">
         <v>0.67576746680347233</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6" s="33">
-        <v>0.80412487063131899</v>
+        <v>0.72628700567724958</v>
       </c>
       <c r="L6" s="33">
-        <v>0.19587512936868084</v>
+        <v>0.6131853445232579</v>
       </c>
       <c r="M6" s="33">
-        <v>0.72628700567724958</v>
-      </c>
-      <c r="N6" s="33">
-        <v>0.6131853445232579</v>
-      </c>
-      <c r="O6" s="33">
         <v>0.66284078663433332</v>
       </c>
       <c r="S6" t="s">
         <v>47</v>
       </c>
       <c r="T6" s="33">
-        <v>0.80975638882254608</v>
+        <v>0.7353113328207197</v>
       </c>
       <c r="U6" s="33">
-        <v>0.190243611177454</v>
+        <v>0.61337962250438838</v>
       </c>
       <c r="V6" s="33">
-        <v>0.7353113328207197</v>
-      </c>
-      <c r="W6" s="33">
-        <v>0.61337962250438838</v>
-      </c>
-      <c r="X6" s="33">
         <v>0.66774619158459714</v>
       </c>
     </row>
@@ -18185,8 +17897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7161284-094E-4C4F-ACD8-1F2E6D16DB2F}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:G35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testes/knn.xlsx
+++ b/testes/knn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\TCC\classifier\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7396BA0A-7300-45F0-98C7-697294B55803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64CE90C-901B-45C2-B7C7-53EE191A7050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{2331956E-8C89-4B53-97BE-B37BE3C8EA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOG" sheetId="5" r:id="rId1"/>
@@ -12848,7 +12848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AACC622-2748-42A0-967F-31DE4D7FE364}">
   <dimension ref="A1:AV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
@@ -15273,7 +15273,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17167,7 +17167,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:L4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19062,8 +19062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C2F074-102E-4A0D-93DB-3BEB703B5D8B}">
   <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22488,11 +22488,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S7:T7"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="S46:T46"/>
@@ -22500,6 +22495,11 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
